--- a/AfDD_2023_Annex_Table_Tab01.xlsx
+++ b/AfDD_2023_Annex_Table_Tab01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab01.xlsx
+++ b/AfDD_2023_Annex_Table_Tab01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99701E77-9321-419F-9358-8713A852E899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA67D9A7-FA8F-4265-9664-0CA99785E030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88260C1A-3358-43FC-A98F-3AEADD6A91B7}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{597C33A1-761A-4DC4-AD92-01273C8E244B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab01'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab01'!$A$1:$L$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -569,10 +571,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -705,18 +708,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0F793D"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1F0DE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -726,25 +729,69 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,78 +799,36 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
       <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,65 +837,19 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0F793D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -899,7 +858,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -908,275 +867,275 @@
     <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="39" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1184,21 +1143,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1514,11 +1462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DCE310-C794-4C15-A4C1-C89557B58C8D}">
-  <sheetPr codeName="Sheet2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7F8055-AAEF-4738-97AD-5B052B9562CC}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1526,13 +1474,9 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.36328125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="99" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="100" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" style="101" customWidth="1"/>
-    <col min="9" max="10" width="12.453125" style="100" customWidth="1"/>
-    <col min="11" max="12" width="12.453125" style="102" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" style="103" customWidth="1"/>
+    <col min="3" max="5" width="12.36328125" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="12.36328125" style="98" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1542,2518 +1486,2518 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="11">
         <v>34503.773999999998</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="12">
         <v>222765.42189</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="12">
         <v>75179.374005999998</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="13">
         <v>0.80412508531688998</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="14">
         <v>6969.6360721999999</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="15">
         <v>25.765270174689999</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="13">
         <v>76.147000000000006</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="13">
         <v>51.3</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="13">
         <v>31.1</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="16">
         <v>0.58099999999999996</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="17">
         <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="19">
         <v>2588.4229999999998</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="20">
         <v>42199.740320999997</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="20">
         <v>17613.908396999999</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="21">
         <v>11.364127880950299</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="22">
         <v>17579.241376000002</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="23">
         <v>6.68807448441658</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="21">
         <v>60.72</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="21">
         <v>53.3</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="21">
         <v>15.4</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="24">
         <v>0.73499999999999999</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="27">
         <v>1192.271</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="28">
         <v>11600.858319999999</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="28">
         <v>4743.6239433000001</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="29">
         <v>7.8833065179017501</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="30">
         <v>10185.3071</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="31">
         <v>3.7187546617640601</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="29">
         <v>48.944000000000003</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="29">
         <v>54.6</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="29">
         <v>36.1</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="32">
         <v>0.61099999999999999</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="33">
         <v>0.432</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="27">
         <v>2281.4540000000002</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="28">
         <v>5846.0455407999998</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="28">
         <v>2464.8655638</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="29">
         <v>2.0500739268146</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="30">
         <v>2801.2833897999999</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="31">
         <v>6.0477459191105902</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="29">
         <v>63.209000000000003</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="29">
         <v>44.9</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="29">
         <v>32.4</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="32">
         <v>0.52700000000000002</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="33">
         <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="27">
         <v>19889.741999999998</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="28">
         <v>32443.716692999998</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="28">
         <v>12001.331308999999</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="29">
         <v>2.19999999935157</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="30">
         <v>1510.8223386</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="31">
         <v>9.3432019307927501</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="29">
         <v>75.058999999999997</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="29">
         <v>38.5</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="29">
         <v>70.099999999999994</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="32">
         <v>0.48299999999999998</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="33">
         <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="27">
         <v>32077.072</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="28">
         <v>43230.806127000003</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="28">
         <v>15776.750936</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="29">
         <v>2.3275215190897298</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="30">
         <v>1347.7167158</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="31">
         <v>5.6884869938951503</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="29">
         <v>78.14</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="29">
         <v>54</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="29">
         <v>64.599999999999994</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="32">
         <v>0.45600000000000002</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="33">
         <v>0.316</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="27">
         <v>2530.1509999999998</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="28">
         <v>25399.480473</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="28">
         <v>12307.431273</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="29">
         <v>2.6560508226066899</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="30">
         <v>9959.6978751999995</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="31">
         <v>3.6202833901294502</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="29">
         <v>57.994</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="29">
         <v>59.1</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="29">
         <v>15.6</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="32">
         <v>0.64600000000000002</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="33">
         <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="27">
         <v>59392.254999999997</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="28">
         <v>868575.57019999996</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="28">
         <v>418907.28902000003</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="29">
         <v>4.9130796514428301</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="30">
         <v>14441.839785</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="31">
         <v>4.5556051812415896</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="29">
         <v>50.55</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="29">
         <v>63</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="29">
         <v>20.5</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="32">
         <v>0.70899999999999996</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="33">
         <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="19">
         <v>19473.125</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="20">
         <v>69244.910449999996</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="20">
         <v>21313.366728000001</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="21">
         <v>4.5987340470110603</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="22">
         <v>3559.0517295999998</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="23">
         <v>22.020767625831802</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="21">
         <v>73.378</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="21">
         <v>57.1</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="21">
         <v>61.4</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="24">
         <v>0.58399999999999996</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="25">
         <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="27">
         <v>15993.523999999999</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="28">
         <v>36625.952472999998</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="28">
         <v>32867.978887999998</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="29">
         <v>7.1588398961113002</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="30">
         <v>2364.1387371000001</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="31">
         <v>98.546224939581293</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="29">
         <v>83.442999999999998</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="29">
         <v>50.3</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="29">
         <v>39.799999999999997</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="32">
         <v>0.57099999999999995</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="33">
         <v>0.441</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="36">
         <v>189921.791</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="37">
         <v>1357932.5024878001</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="37">
         <v>613175.92006409995</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="38">
         <v>4.3077331032828496</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="39">
         <v>7202.1557457109302</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="40">
         <v>11.659198520850801</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="38">
         <v>66.758399999999995</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="38">
         <v>52.61</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="38">
         <v>38.700000000000003</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="41">
         <v>0.59030000000000005</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="42">
         <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="27">
         <v>12551.213</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="28">
         <v>9851.5483547000003</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="28">
         <v>3350.8099275</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="29">
         <v>3.1193023433740299</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="30">
         <v>805.44406493999998</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="31">
         <v>8.3134892860997205</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="29">
         <v>78.183999999999997</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="29">
         <v>38.6</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="29">
         <v>65.099999999999994</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="32">
         <v>0.433</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="33">
         <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="27">
         <v>27198.628000000001</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="28">
         <v>110891.26908</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="28">
         <v>45391.496407999999</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="29">
         <v>3.6487176666416801</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="30">
         <v>4073.2516122000002</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="31">
         <v>2.2619561472474898</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="29">
         <v>75.266999999999996</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="29">
         <v>46.6</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="29">
         <v>25.7</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="32">
         <v>0.56299999999999994</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="33">
         <v>0.375</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="27">
         <v>5457.1540000000005</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="28">
         <v>5023.2268507999997</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>2583.7589849000001</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="29">
         <v>0.98292343133869997</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="30">
         <v>1020.9810672</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="31">
         <v>4.2643644609594098</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="29">
         <v>70.896000000000001</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="32">
         <v>0.39700000000000002</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="33">
         <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="44">
         <v>17179.740000000002</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="45">
         <v>27035.600169000001</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="45">
         <v>11796.048937</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="46">
         <v>-1.1136004058119999</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="47">
         <v>1598.3210268</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="48">
         <v>-0.77284437338959999</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="46">
         <v>57.862000000000002</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="46">
         <v>37.5</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="46">
         <v>30.9</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="49">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="50">
         <v>0.248</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="44">
         <v>5835.8059999999996</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="45">
         <v>20612.680593000001</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="45">
         <v>12641.150727</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="46">
         <v>-0.55922913133289998</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="47">
         <v>4295.3687798000001</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="48">
         <v>1.9690254933154601</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="46">
         <v>65.715999999999994</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="49">
         <v>0.57399999999999995</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="50">
         <v>0.43</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="19">
         <v>95894.118000000002</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="20">
         <v>113066.88544</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="20">
         <v>56553.077545</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="21">
         <v>6.1626415376418997</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="22">
         <v>1206.0376583</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="23">
         <v>8.98915089504173</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="21">
         <v>64.814999999999998</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="21">
         <v>42.1</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="21">
         <v>69.7</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="24">
         <v>0.48</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="25">
         <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="44">
         <v>1634.4659999999999</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="45">
         <v>25687.652256000001</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="45">
         <v>12269.393341000001</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="46">
         <v>-3.1869104978799001</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="47">
         <v>17686.957177</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="48">
         <v>-9.36528660432E-2</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="46">
         <v>54.524000000000001</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="49">
         <v>0.59199999999999997</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="50" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="44">
         <v>2341.1790000000001</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="45">
         <v>35527.719220999999</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="45">
         <v>20242.226084999998</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="46">
         <v>1.4837407013133199</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="47">
         <v>16643.033390000001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="48">
         <v>1.07876045118658</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="46">
         <v>48.204000000000001</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="46">
         <v>38</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="46">
         <v>2.5</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="49">
         <v>0.70299999999999996</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="50">
         <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="27">
         <v>223.107</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="28">
         <v>984.65164445999994</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="28">
         <v>517.82401461999996</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="29">
         <v>1.8787863633108</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="30">
         <v>4415.4782262999997</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="31">
         <v>8.1379925486819893</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="29">
         <v>53.112000000000002</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="29">
         <v>40.700000000000003</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="29">
         <v>15.6</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="32">
         <v>0.625</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="33">
         <v>0.52</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="36">
         <v>168315.41099999999</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="37">
         <v>348681.23360896</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="37">
         <v>165345.78597001999</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="38">
         <v>3.0633555158425598</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="39">
         <v>2159.6571266710998</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="40">
         <v>4.1130803775935503</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="38">
         <v>63.175555555555597</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="38">
         <v>40.5833333333333</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="38">
         <v>34.9166666666667</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="41">
         <v>0.52944444444444005</v>
       </c>
-      <c r="M23" s="57">
+      <c r="M23" s="42">
         <v>0.37337500000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="27">
         <v>821.62599999999998</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="28">
         <v>2913.3887862000001</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="28">
         <v>1284.2898215</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="29">
         <v>2.2428566669652699</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="30">
         <v>3162.1013521</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="31">
         <v>-0.17562825148950001</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="29">
         <v>43.17</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="29">
         <v>45.3</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="29">
         <v>18.600000000000001</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="32">
         <v>0.55400000000000005</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="33">
         <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="27">
         <v>1105.557</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="28">
         <v>5967.4262848999997</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="28">
         <v>3372.3031867</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="29">
         <v>4.8123827665960102</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="30">
         <v>5954.3445898</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="31">
         <v>1.1797637521134401</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="29">
         <v>31.44</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="29">
         <v>41.6</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="29">
         <v>19.100000000000001</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="32">
         <v>0.52400000000000002</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="27">
         <v>3620.3119999999999</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="28">
         <v>6924.7510683</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="28">
         <v>2200.8364695999999</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="29">
         <v>2.89492517912515</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="30">
         <v>1923.0077945999999</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="31">
         <v>6.64215184054307</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="29">
         <v>75.183999999999997</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="32">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="27">
         <v>120283.026</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="28">
         <v>312749.54197000002</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="28">
         <v>99269.424776</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="29">
         <v>6.2650428413474799</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="30">
         <v>3136.8695585999999</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="31">
         <v>26.776402373386102</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="29">
         <v>77.522000000000006</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="29">
         <v>35</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="29">
         <v>27</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="32">
         <v>0.48499999999999999</v>
       </c>
-      <c r="M27" s="40">
+      <c r="M27" s="33">
         <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="27">
         <v>53005.614000000001</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="28">
         <v>276280.61008999997</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="28">
         <v>110519.45556</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="29">
         <v>7.5173668351833598</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="30">
         <v>5547.7344088</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="31">
         <v>6.1093480709184496</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="29">
         <v>73.088999999999999</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="29">
         <v>40.799999999999997</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="29">
         <v>29.4</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="32">
         <v>0.60099999999999998</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="33">
         <v>0.443</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="27">
         <v>28915.652999999998</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="28">
         <v>46447.332069999997</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="28">
         <v>14283.57338</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="29">
         <v>4.2999275549758602</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="30">
         <v>1648.3544634</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="31">
         <v>5.8194278684514202</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="29">
         <v>84.081999999999994</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="29">
         <v>42.6</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="29">
         <v>80.7</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="32">
         <v>0.52800000000000002</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="33">
         <v>0.39</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="27">
         <v>1298.915</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="28">
         <v>28157.269843999999</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="28">
         <v>11156.637063</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="29">
         <v>4.0441227072286301</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="30">
         <v>22278.295105000001</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="31">
         <v>4.0388413021854204</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="29">
         <v>56.472999999999999</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="29">
         <v>0.1</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="32">
         <v>0.80400000000000005</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="33">
         <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="27">
         <v>13461.888000000001</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="28">
         <v>33110.56914</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="28">
         <v>11067.036252</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="29">
         <v>10.873500792034401</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="30">
         <v>2555.3299228000001</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="31">
         <v>0.81775706377596002</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="29">
         <v>82.156999999999996</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="29">
         <v>43.7</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="29">
         <v>52</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="32">
         <v>0.54300000000000004</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="33">
         <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="27">
         <v>106.47</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="28">
         <v>3136.2605016000002</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="28">
         <v>1457.1145931000001</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="29">
         <v>7.9136979966713703</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="30">
         <v>31987.523401999999</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="31">
         <v>9.7704371271623707</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="29">
         <v>32.1</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="29">
         <v>0.5</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="32">
         <v>0.79600000000000004</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="33">
         <v>0.67</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="27">
         <v>17065.580999999998</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="28">
         <v>18904.425089</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="28">
         <v>7628</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="29">
         <v>2.9382135661517799</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="30">
         <v>1244.6312922</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="31">
         <v>4.6197702691372502</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="29">
         <v>33.707000000000001</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="29">
         <v>70.7</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M33" s="40" t="s">
+      <c r="M33" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="19">
         <v>10748.272000000001</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="20">
         <v>11947.176740000001</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="20">
         <v>5166.5930662999999</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="21">
         <v>5.3283380317676698</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="22">
         <v>842.61193178999997</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="23">
         <v>30.2285048603791</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="21">
         <v>71.177000000000007</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="21">
         <v>44.1</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="21">
         <v>67.3</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="24">
         <v>0.433</v>
       </c>
-      <c r="M34" s="32">
+      <c r="M34" s="25">
         <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="27">
         <v>45657.201999999997</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="28">
         <v>194509.11322</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="28">
         <v>35140.247865999998</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="29">
         <v>0.49999999901809</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="30">
         <v>4275.0720160000001</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="31">
         <v>359.09214098964401</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="29">
         <v>47.643000000000001</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="29">
         <v>34.200000000000003</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="29">
         <v>15.3</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="32">
         <v>0.51</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="33">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="27">
         <v>63588.334000000003</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="28">
         <v>185463.36755</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="28">
         <v>70309.210539000007</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="29">
         <v>4.9357198128512598</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="30">
         <v>3105.0437075</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="31">
         <v>3.6899692501946899</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="29">
         <v>83.05</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="29">
         <v>40.5</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="29">
         <v>44.9</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="32">
         <v>0.52900000000000003</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="33">
         <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="27">
         <v>45853.777999999998</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="28">
         <v>118045.219</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="28">
         <v>42959.448647999998</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="29">
         <v>6.6860096397767697</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="30">
         <v>2780.1265093000002</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="31">
         <v>2.2072393111433501</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="29">
         <v>66.81</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="29">
         <v>42.7</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="29">
         <v>42.2</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="32">
         <v>0.54400000000000004</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="33">
         <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="36">
         <v>405532.228</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="37">
         <v>1244556.451354</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="37">
         <v>415814.17122120003</v>
       </c>
-      <c r="F38" s="53">
+      <c r="F38" s="38">
         <v>5.39239049602834</v>
       </c>
-      <c r="G38" s="54">
+      <c r="G38" s="39">
         <v>3334.7062390502201</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="40">
         <v>65.723451740943602</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="38">
         <v>63.5003076923077</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="38">
         <v>39.707692307692298</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="38">
         <v>35.984615384615402</v>
       </c>
-      <c r="L38" s="56">
+      <c r="L38" s="41">
         <v>0.56230769230768995</v>
       </c>
-      <c r="M38" s="57">
+      <c r="M38" s="42">
         <v>0.42181818181817998</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="44">
         <v>44177.968999999997</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="45">
         <v>535802.32643000002</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="45">
         <v>162710.80995</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="46">
         <v>3.50000000009838</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="47">
         <v>12050.737015999999</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="48">
         <v>7.22606307415474</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="46">
         <v>39.874000000000002</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="49">
         <v>0.748</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="50">
         <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="27">
         <v>109262.178</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="28">
         <v>1455503.0634999999</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="28">
         <v>423145.49404000002</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="29">
         <v>3.2818251006619499</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="30">
         <v>14255.661738999999</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="31">
         <v>4.5020894110223004</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="29">
         <v>41.215000000000003</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="29">
         <v>31.5</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="29">
         <v>2.5</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="32">
         <v>0.70699999999999996</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="33">
         <v>0.497</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="44">
         <v>6735.277</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="45">
         <v>147143.69347999999</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="45">
         <v>39007.482152999997</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="46">
         <v>28.291108963891499</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="47">
         <v>21928.973114</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="48">
         <v>2.76888654083514</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="46">
         <v>47.097999999999999</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="49">
         <v>0.72399999999999998</v>
       </c>
-      <c r="M41" s="24" t="s">
+      <c r="M41" s="50" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="44">
         <v>4614.9740000000002</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="45">
         <v>26942.878724999999</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="45">
         <v>9891.5557776999995</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="46">
         <v>2.4450405295155999</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="47">
         <v>6354.4091606000002</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="48">
         <v>3.7665502576578</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="46">
         <v>44.725999999999999</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="46">
         <v>32.6</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="46">
         <v>6.5</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="49">
         <v>0.54600000000000004</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="50">
         <v>0.371</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="27">
         <v>37076.584000000003</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="28">
         <v>333242.30213000003</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="28">
         <v>142866.58312</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="29">
         <v>7.92966793810211</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="30">
         <v>9176.9422006999994</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="31">
         <v>1.39965843015517</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="29">
         <v>43.155999999999999</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="29">
         <v>39.5</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="29">
         <v>1.4</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="32">
         <v>0.68600000000000005</v>
       </c>
-      <c r="M43" s="40" t="s">
+      <c r="M43" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="27">
         <v>12262.946</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="28">
         <v>138391.50706</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="28">
         <v>46841.560897000003</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="29">
         <v>3.34280247653327</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="30">
         <v>11514.860079</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="31">
         <v>5.7067365934038197</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="29">
         <v>45.994999999999997</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="29">
         <v>32.799999999999997</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="29">
         <v>0.1</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="32">
         <v>0.74</v>
       </c>
-      <c r="M44" s="40">
+      <c r="M44" s="33">
         <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="36">
         <v>214129.92800000001</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="37">
         <v>2637025.7713250001</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="37">
         <v>824463.48593770002</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F45" s="38">
         <v>5.3036514659553502</v>
       </c>
-      <c r="G45" s="54">
+      <c r="G45" s="39">
         <v>12835.481146652301</v>
       </c>
-      <c r="H45" s="55">
+      <c r="H45" s="40">
         <v>4.6224961632045396</v>
       </c>
-      <c r="I45" s="53">
+      <c r="I45" s="38">
         <v>43.677333333333301</v>
       </c>
-      <c r="J45" s="53">
+      <c r="J45" s="38">
         <v>34.1</v>
       </c>
-      <c r="K45" s="53">
+      <c r="K45" s="38">
         <v>2.625</v>
       </c>
-      <c r="L45" s="56">
+      <c r="L45" s="41">
         <v>0.69183333333332997</v>
       </c>
-      <c r="M45" s="57">
+      <c r="M45" s="42">
         <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="27">
         <v>12996.895</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="28">
         <v>47426.114604000002</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="28">
         <v>17699.382258000001</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="29">
         <v>7.1554516453328896</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="30">
         <v>3798.0268510000001</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="31">
         <v>1.7000000000003199</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="29">
         <v>70.834000000000003</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="29">
         <v>37.799999999999997</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="29">
         <v>19.899999999999999</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L46" s="32">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M46" s="40">
+      <c r="M46" s="33">
         <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="27">
         <v>22100.683000000001</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="28">
         <v>52998.337658999997</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="28">
         <v>19094.891888999999</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="29">
         <v>6.9169204479270698</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="30">
         <v>2462.6728499000001</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="31">
         <v>3.8548934231584999</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="29">
         <v>64.795000000000002</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="29">
         <v>47.3</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="29">
         <v>30.5</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L47" s="32">
         <v>0.45200000000000001</v>
       </c>
-      <c r="M47" s="40">
+      <c r="M47" s="33">
         <v>0.316</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="44">
         <v>587.92499999999995</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="45">
         <v>4330.0938893000002</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="45">
         <v>2112.3478341999999</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="46">
         <v>6.9999999970725097</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="47">
         <v>7685.0199491000003</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="48">
         <v>1.86344194608306</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="46">
         <v>52.987000000000002</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="46">
         <v>42.4</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="46">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="49">
         <v>0.66500000000000004</v>
       </c>
-      <c r="M48" s="24" t="s">
+      <c r="M48" s="50" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="27">
         <v>27478.249</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="28">
         <v>160647.55353</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="28">
         <v>70080.029490999994</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="29">
         <v>7.0000000007970602</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="30">
         <v>5808.2144807000004</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49" s="31">
         <v>4.1591965799015203</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="29">
         <v>55.411000000000001</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="29">
         <v>37.200000000000003</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="29">
         <v>11.4</v>
       </c>
-      <c r="L49" s="39">
+      <c r="L49" s="32">
         <v>0.53800000000000003</v>
       </c>
-      <c r="M49" s="40">
+      <c r="M49" s="33">
         <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="27">
         <v>2639.9160000000002</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="28">
         <v>6022.4447149999996</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="28">
         <v>2034.4414327</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="29">
         <v>4.2654920878147502</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="30">
         <v>2416.6847604999998</v>
       </c>
-      <c r="H50" s="38">
+      <c r="H50" s="31">
         <v>7.3703606663005301</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="29">
         <v>56.771000000000001</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="29">
         <v>35.9</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="29">
         <v>13.4</v>
       </c>
-      <c r="L50" s="39">
+      <c r="L50" s="32">
         <v>0.496</v>
       </c>
-      <c r="M50" s="40">
+      <c r="M50" s="33">
         <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="19">
         <v>32833.031000000003</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="20">
         <v>196049.79702</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="20">
         <v>79156.955298000001</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="21">
         <v>5.3564779150509798</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="22">
         <v>6244.7752596</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="23">
         <v>9.9756858913587596</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="21">
         <v>68.412999999999997</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="21">
         <v>43.5</v>
       </c>
-      <c r="K51" s="28">
+      <c r="K51" s="21">
         <v>25.3</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="24">
         <v>0.61099999999999999</v>
       </c>
-      <c r="M51" s="32">
+      <c r="M51" s="25">
         <v>0.44</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="27">
         <v>13531.906000000001</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="28">
         <v>39195.012254000001</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="28">
         <v>16146.434187000001</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="29">
         <v>3.75088682678577</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="30">
         <v>2737.7450346999999</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="31">
         <v>12.596573736753999</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="29">
         <v>61.692999999999998</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="29">
         <v>29.6</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="29">
         <v>13.8</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="32">
         <v>0.47699999999999998</v>
       </c>
-      <c r="M52" s="40">
+      <c r="M52" s="33">
         <v>0.313</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="27">
         <v>2060.721</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="28">
         <v>4864.7474961999997</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="28">
         <v>1702.7588788999999</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="29">
         <v>5.0000000001767502</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="30">
         <v>2622.3076627999999</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="31">
         <v>3.2739505917603902</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="29">
         <v>70.59</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="29">
         <v>34.799999999999997</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="29">
         <v>21.7</v>
       </c>
-      <c r="L53" s="39">
+      <c r="L53" s="32">
         <v>0.48</v>
       </c>
-      <c r="M53" s="40">
+      <c r="M53" s="33">
         <v>0.3</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="27">
         <v>5193.4160000000002</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="28">
         <v>7958.5107027000004</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="28">
         <v>3508.7034101999998</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="29">
         <v>5.0109751965063296</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="30">
         <v>1536.3920275</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54" s="31">
         <v>7.8158724210470503</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="29">
         <v>73.974999999999994</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="29">
         <v>35.299999999999997</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="29">
         <v>27.6</v>
       </c>
-      <c r="L54" s="39">
+      <c r="L54" s="32">
         <v>0.48</v>
       </c>
-      <c r="M54" s="40">
+      <c r="M54" s="33">
         <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="34">
+      <c r="C55" s="27">
         <v>21904.983</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="28">
         <v>51033.003115</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="28">
         <v>19150.635846000001</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="29">
         <v>3.0563865913870698</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G55" s="30">
         <v>2446.6492616</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="31">
         <v>3.8083325792993099</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="29">
         <v>68.403000000000006</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="29">
         <v>36.1</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="29">
         <v>14.8</v>
       </c>
-      <c r="L55" s="39">
+      <c r="L55" s="32">
         <v>0.434</v>
       </c>
-      <c r="M55" s="40">
+      <c r="M55" s="33">
         <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="27">
         <v>25252.722000000002</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="28">
         <v>32928.344678000001</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="28">
         <v>14958.740970000001</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="29">
         <v>1.3493438887676199</v>
       </c>
-      <c r="G56" s="37">
+      <c r="G56" s="30">
         <v>1310.2775240999999</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="31">
         <v>3.83786802840467</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I56" s="29">
         <v>72.793000000000006</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="29">
         <v>37.299999999999997</v>
       </c>
-      <c r="K56" s="36">
+      <c r="K56" s="29">
         <v>50.6</v>
       </c>
-      <c r="L56" s="39">
+      <c r="L56" s="32">
         <v>0.39400000000000002</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="33">
         <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="44">
         <v>213401.323</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="45">
         <v>1154068.0142000001</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="45">
         <v>441541.43608999997</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="46">
         <v>3.6471865038370899</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="47">
         <v>5459.1416986000004</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="48">
         <v>16.952790784429599</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="46">
         <v>53.444000000000003</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="46">
         <v>35.1</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="46">
         <v>30.9</v>
       </c>
-      <c r="L57" s="23">
+      <c r="L57" s="49">
         <v>0.53900000000000003</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="50">
         <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="34">
+      <c r="C58" s="27">
         <v>16876.72</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="28">
         <v>64809.128115</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="28">
         <v>27639.683564999999</v>
       </c>
-      <c r="F58" s="36">
+      <c r="F58" s="29">
         <v>6.0667708644929901</v>
       </c>
-      <c r="G58" s="37">
+      <c r="G58" s="30">
         <v>3767.1424493999998</v>
       </c>
-      <c r="H58" s="38">
+      <c r="H58" s="31">
         <v>2.1784077337398098</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="29">
         <v>44.298000000000002</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="29">
         <v>38.1</v>
       </c>
-      <c r="K58" s="36">
+      <c r="K58" s="29">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L58" s="39">
+      <c r="L58" s="32">
         <v>0.51200000000000001</v>
       </c>
-      <c r="M58" s="40">
+      <c r="M58" s="33">
         <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="34">
+      <c r="C59" s="27">
         <v>8420.6409999999996</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="28">
         <v>14937.341355</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59" s="28">
         <v>4147.8705956000003</v>
       </c>
-      <c r="F59" s="36">
+      <c r="F59" s="29">
         <v>4.1046905067334798</v>
       </c>
-      <c r="G59" s="37">
+      <c r="G59" s="30">
         <v>1834.7515091</v>
       </c>
-      <c r="H59" s="38">
+      <c r="H59" s="31">
         <v>11.8739588844224</v>
       </c>
-      <c r="I59" s="36">
+      <c r="I59" s="29">
         <v>56.036000000000001</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="29">
         <v>35.700000000000003</v>
       </c>
-      <c r="K59" s="36">
+      <c r="K59" s="29">
         <v>26.1</v>
       </c>
-      <c r="L59" s="39">
+      <c r="L59" s="32">
         <v>0.45200000000000001</v>
       </c>
-      <c r="M59" s="40">
+      <c r="M59" s="33">
         <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="19">
         <v>8644.8289999999997</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="20">
         <v>20179.254433999999</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="20">
         <v>8430.3896229999991</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="21">
         <v>5.2589000006902298</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="22">
         <v>2376.8985926</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="23">
         <v>4.3204003616071303</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="21">
         <v>57.338999999999999</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="21">
         <v>42.4</v>
       </c>
-      <c r="K60" s="28">
+      <c r="K60" s="21">
         <v>28.1</v>
       </c>
-      <c r="L60" s="31">
+      <c r="L60" s="24">
         <v>0.51500000000000001</v>
       </c>
-      <c r="M60" s="32">
+      <c r="M60" s="25">
         <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="36">
         <v>413923.96</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="37">
         <v>1857447.6977671999</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="37">
         <v>727404.70136860001</v>
       </c>
-      <c r="F61" s="53">
+      <c r="F61" s="38">
         <v>4.3704888139125204</v>
       </c>
-      <c r="G61" s="54">
+      <c r="G61" s="39">
         <v>4544.3040481402204</v>
       </c>
-      <c r="H61" s="55">
+      <c r="H61" s="40">
         <v>12.8263421468506</v>
       </c>
-      <c r="I61" s="53">
+      <c r="I61" s="38">
         <v>61.852133333333299</v>
       </c>
-      <c r="J61" s="53">
+      <c r="J61" s="38">
         <v>37.9</v>
       </c>
-      <c r="K61" s="53">
+      <c r="K61" s="38">
         <v>21.866666666666699</v>
       </c>
-      <c r="L61" s="56">
+      <c r="L61" s="41">
         <v>0.50600000000000001</v>
       </c>
-      <c r="M61" s="57">
+      <c r="M61" s="42">
         <v>0.33064285714286001</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="62">
+      <c r="C62" s="54">
         <v>1391823.318</v>
       </c>
-      <c r="D62" s="63">
+      <c r="D62" s="55">
         <v>7445643.6565429596</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="55">
         <v>2746204.0645616199</v>
       </c>
-      <c r="F62" s="64">
+      <c r="F62" s="56">
         <v>4.7991418049207502</v>
       </c>
-      <c r="G62" s="65">
+      <c r="G62" s="57">
         <v>5541.7506138209901</v>
       </c>
-      <c r="H62" s="66">
+      <c r="H62" s="58">
         <v>18.141749977091699</v>
       </c>
-      <c r="I62" s="64">
+      <c r="I62" s="56">
         <v>61.349320754716999</v>
       </c>
-      <c r="J62" s="64">
+      <c r="J62" s="56">
         <v>41.472916666666698</v>
       </c>
-      <c r="K62" s="64">
+      <c r="K62" s="56">
         <v>29.225000000000001</v>
       </c>
-      <c r="L62" s="67">
+      <c r="L62" s="59">
         <v>0.56073584905660001</v>
       </c>
-      <c r="M62" s="68">
+      <c r="M62" s="60">
         <v>0.38947826086956999</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B63" s="61" t="s">
@@ -4065,7 +4009,7 @@
       <c r="D63" s="63">
         <v>136908256.848216</v>
       </c>
-      <c r="E63" s="62">
+      <c r="E63" s="63">
         <v>93004837.906361893</v>
       </c>
       <c r="F63" s="64">
@@ -4100,37 +4044,37 @@
       <c r="B64" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="71">
+      <c r="C64" s="54">
         <v>651100.94499999995</v>
       </c>
-      <c r="D64" s="72">
+      <c r="D64" s="55">
         <v>10682041.8959428</v>
       </c>
-      <c r="E64" s="71">
+      <c r="E64" s="55">
         <v>5030094.9225451304</v>
       </c>
-      <c r="F64" s="73">
+      <c r="F64" s="56">
         <v>6.8982230779635101</v>
       </c>
-      <c r="G64" s="74">
+      <c r="G64" s="57">
         <v>16651.613864681101</v>
       </c>
-      <c r="H64" s="75">
+      <c r="H64" s="58">
         <v>35.337669270682397</v>
       </c>
-      <c r="I64" s="73">
+      <c r="I64" s="56">
         <v>59.629413793103502</v>
       </c>
-      <c r="J64" s="73">
+      <c r="J64" s="56">
         <v>45.6105263157895</v>
       </c>
-      <c r="K64" s="73">
+      <c r="K64" s="56">
         <v>5.26842105263158</v>
       </c>
-      <c r="L64" s="76">
+      <c r="L64" s="59">
         <v>0.74818181818181995</v>
       </c>
-      <c r="M64" s="77">
+      <c r="M64" s="60">
         <v>0.58455999999999997</v>
       </c>
     </row>
@@ -4138,40 +4082,40 @@
       <c r="A65" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="79">
+      <c r="C65" s="71">
         <v>4285356.8830000004</v>
       </c>
-      <c r="D65" s="80">
+      <c r="D65" s="72">
         <v>51387950.071407199</v>
       </c>
-      <c r="E65" s="79">
+      <c r="E65" s="72">
         <v>26782628.7430554</v>
       </c>
-      <c r="F65" s="81">
+      <c r="F65" s="73">
         <v>7.0611627187634003</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="74">
         <v>12406.833446401901</v>
       </c>
-      <c r="H65" s="83">
+      <c r="H65" s="75">
         <v>3.63988142781476</v>
       </c>
-      <c r="I65" s="81">
+      <c r="I65" s="73">
         <v>56.430199999999999</v>
       </c>
-      <c r="J65" s="81">
+      <c r="J65" s="73">
         <v>34.995238095238101</v>
       </c>
-      <c r="K65" s="81">
+      <c r="K65" s="73">
         <v>4.0285714285714302</v>
       </c>
-      <c r="L65" s="84">
+      <c r="L65" s="76">
         <v>0.67279310344828003</v>
       </c>
-      <c r="M65" s="85">
+      <c r="M65" s="77">
         <v>0.54560869565216996</v>
       </c>
     </row>
@@ -4179,40 +4123,40 @@
       <c r="A66" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="87">
+      <c r="C66" s="79">
         <v>7862249.7470000004</v>
       </c>
-      <c r="D66" s="88">
+      <c r="D66" s="80">
         <v>144353900.50475901</v>
       </c>
-      <c r="E66" s="87">
+      <c r="E66" s="80">
         <v>95751041.970923603</v>
       </c>
-      <c r="F66" s="89">
+      <c r="F66" s="81">
         <v>6.0203858005709803</v>
       </c>
-      <c r="G66" s="90">
+      <c r="G66" s="82">
         <v>18762.428107762302</v>
       </c>
-      <c r="H66" s="91">
+      <c r="H66" s="83">
         <v>6.9978387993243496</v>
       </c>
-      <c r="I66" s="89">
+      <c r="I66" s="81">
         <v>59.839398876404502</v>
       </c>
-      <c r="J66" s="89">
+      <c r="J66" s="81">
         <v>37.270748299319699</v>
       </c>
-      <c r="K66" s="89">
+      <c r="K66" s="81">
         <v>11.4068027210884</v>
       </c>
-      <c r="L66" s="92">
+      <c r="L66" s="84">
         <v>0.72128877005348002</v>
       </c>
-      <c r="M66" s="93">
+      <c r="M66" s="85">
         <v>0.59360666666666995</v>
       </c>
     </row>
@@ -4220,40 +4164,40 @@
       <c r="A67" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="79">
+      <c r="C67" s="87">
         <v>624450.01599999995</v>
       </c>
-      <c r="D67" s="80">
+      <c r="D67" s="88">
         <v>3061018.0428347001</v>
       </c>
-      <c r="E67" s="79">
+      <c r="E67" s="88">
         <v>980163.0930467</v>
       </c>
-      <c r="F67" s="81">
+      <c r="F67" s="89">
         <v>5.4247471782627397</v>
       </c>
-      <c r="G67" s="82">
+      <c r="G67" s="90">
         <v>5232.4598506686798</v>
       </c>
-      <c r="H67" s="83">
+      <c r="H67" s="91">
         <v>31.061482989403899</v>
       </c>
-      <c r="I67" s="81">
+      <c r="I67" s="89">
         <v>61.470399999999998</v>
       </c>
-      <c r="J67" s="81">
+      <c r="J67" s="89">
         <v>40.9</v>
       </c>
-      <c r="K67" s="81">
+      <c r="K67" s="89">
         <v>36.863157894736901</v>
       </c>
-      <c r="L67" s="84">
+      <c r="L67" s="92">
         <v>0.58404999999999996</v>
       </c>
-      <c r="M67" s="85">
+      <c r="M67" s="93">
         <v>0.43041176470588</v>
       </c>
     </row>
@@ -4261,40 +4205,40 @@
       <c r="A68" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="78" t="s">
+      <c r="B68" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="79">
+      <c r="C68" s="71">
         <v>669001.75</v>
       </c>
-      <c r="D68" s="80">
+      <c r="D68" s="72">
         <v>4207660.4695383999</v>
       </c>
-      <c r="E68" s="79">
+      <c r="E68" s="72">
         <v>1447541.8113776001</v>
       </c>
-      <c r="F68" s="81">
+      <c r="F68" s="73">
         <v>4.8343373489759296</v>
       </c>
-      <c r="G68" s="82">
+      <c r="G68" s="74">
         <v>6502.5001052117304</v>
       </c>
-      <c r="H68" s="83">
+      <c r="H68" s="75">
         <v>24.2555137818755</v>
       </c>
-      <c r="I68" s="81">
+      <c r="I68" s="73">
         <v>55.316479999999999</v>
       </c>
-      <c r="J68" s="81">
+      <c r="J68" s="73">
         <v>37.390909090909098</v>
       </c>
-      <c r="K68" s="81">
+      <c r="K68" s="73">
         <v>20.95</v>
       </c>
-      <c r="L68" s="84">
+      <c r="L68" s="76">
         <v>0.52875000000000005</v>
       </c>
-      <c r="M68" s="85">
+      <c r="M68" s="77">
         <v>0.34420000000000001</v>
       </c>
     </row>
@@ -4302,40 +4246,40 @@
       <c r="A69" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="79">
+      <c r="C69" s="71">
         <v>199209.09899999999</v>
       </c>
-      <c r="D69" s="80">
+      <c r="D69" s="72">
         <v>634698.49087470002</v>
       </c>
-      <c r="E69" s="79">
+      <c r="E69" s="72">
         <v>243372.55399280001</v>
       </c>
-      <c r="F69" s="81">
+      <c r="F69" s="73">
         <v>6.6739811109814404</v>
       </c>
-      <c r="G69" s="82">
+      <c r="G69" s="74">
         <v>3376.1028970347902</v>
       </c>
-      <c r="H69" s="83">
+      <c r="H69" s="75">
         <v>4.8888173860736899</v>
       </c>
-      <c r="I69" s="81">
+      <c r="I69" s="73">
         <v>75.744500000000002</v>
       </c>
-      <c r="J69" s="81">
+      <c r="J69" s="73">
         <v>41.733333333333299</v>
       </c>
-      <c r="K69" s="81">
+      <c r="K69" s="73">
         <v>50.15</v>
       </c>
-      <c r="L69" s="84">
+      <c r="L69" s="76">
         <v>0.51383333333333003</v>
       </c>
-      <c r="M69" s="85">
+      <c r="M69" s="77">
         <v>0.36749999999999999</v>
       </c>
     </row>
@@ -4343,40 +4287,40 @@
       <c r="A70" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="79">
+      <c r="C70" s="71">
         <v>216281.073</v>
       </c>
-      <c r="D70" s="80">
+      <c r="D70" s="72">
         <v>604557.22463895997</v>
       </c>
-      <c r="E70" s="79">
+      <c r="E70" s="72">
         <v>251592.19622802001</v>
       </c>
-      <c r="F70" s="81">
+      <c r="F70" s="73">
         <v>2.6586294537429702</v>
       </c>
-      <c r="G70" s="82">
+      <c r="G70" s="74">
         <v>2951.6308623822301</v>
       </c>
-      <c r="H70" s="83">
+      <c r="H70" s="75">
         <v>11.910934695498799</v>
       </c>
-      <c r="I70" s="81">
+      <c r="I70" s="73">
         <v>66.0803636363637</v>
       </c>
-      <c r="J70" s="81">
+      <c r="J70" s="73">
         <v>42.3125</v>
       </c>
-      <c r="K70" s="81">
+      <c r="K70" s="73">
         <v>36.575000000000003</v>
       </c>
-      <c r="L70" s="84">
+      <c r="L70" s="76">
         <v>0.53536363636364004</v>
       </c>
-      <c r="M70" s="85">
+      <c r="M70" s="77">
         <v>0.37709999999999999</v>
       </c>
     </row>
@@ -4384,40 +4328,40 @@
       <c r="A71" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="78" t="s">
+      <c r="B71" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="79">
+      <c r="C71" s="71">
         <v>413923.96</v>
       </c>
-      <c r="D71" s="80">
+      <c r="D71" s="72">
         <v>1857447.6977671999</v>
       </c>
-      <c r="E71" s="79">
+      <c r="E71" s="72">
         <v>727404.70136860001</v>
       </c>
-      <c r="F71" s="81">
+      <c r="F71" s="73">
         <v>4.3704888139125204</v>
       </c>
-      <c r="G71" s="82">
+      <c r="G71" s="74">
         <v>4544.3040481402104</v>
       </c>
-      <c r="H71" s="83">
+      <c r="H71" s="75">
         <v>12.8263421468506</v>
       </c>
-      <c r="I71" s="81">
+      <c r="I71" s="73">
         <v>61.852133333333299</v>
       </c>
-      <c r="J71" s="81">
+      <c r="J71" s="73">
         <v>37.9</v>
       </c>
-      <c r="K71" s="81">
+      <c r="K71" s="73">
         <v>21.866666666666699</v>
       </c>
-      <c r="L71" s="84">
+      <c r="L71" s="76">
         <v>0.50600000000000001</v>
       </c>
-      <c r="M71" s="85">
+      <c r="M71" s="77">
         <v>0.33064285714286001</v>
       </c>
     </row>
@@ -4425,40 +4369,40 @@
       <c r="A72" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="78" t="s">
+      <c r="B72" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="79">
+      <c r="C72" s="71">
         <v>297339.342</v>
       </c>
-      <c r="D72" s="80">
+      <c r="D72" s="72">
         <v>945328.26346219995</v>
       </c>
-      <c r="E72" s="79">
+      <c r="E72" s="72">
         <v>306256.3095726</v>
       </c>
-      <c r="F72" s="81">
+      <c r="F72" s="73">
         <v>5.3851833378815996</v>
       </c>
-      <c r="G72" s="82">
+      <c r="G72" s="74">
         <v>3490.5643115115499</v>
       </c>
-      <c r="H72" s="83">
+      <c r="H72" s="75">
         <v>85.336457034684301</v>
       </c>
-      <c r="I72" s="81">
+      <c r="I72" s="73">
         <v>59.5715</v>
       </c>
-      <c r="J72" s="81">
+      <c r="J72" s="73">
         <v>39.314285714285703</v>
       </c>
-      <c r="K72" s="81">
+      <c r="K72" s="73">
         <v>38.714285714285701</v>
       </c>
-      <c r="L72" s="84">
+      <c r="L72" s="76">
         <v>0.50800000000000001</v>
       </c>
-      <c r="M72" s="85">
+      <c r="M72" s="77">
         <v>0.35980000000000001</v>
       </c>
     </row>
@@ -4466,40 +4410,40 @@
       <c r="A73" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="79">
+      <c r="C73" s="71">
         <v>380546.90700000001</v>
       </c>
-      <c r="D73" s="80">
+      <c r="D73" s="72">
         <v>1737117.0066796001</v>
       </c>
-      <c r="E73" s="79">
+      <c r="E73" s="72">
         <v>768219.82300570002</v>
       </c>
-      <c r="F73" s="81">
+      <c r="F73" s="73">
         <v>4.4940795667617603</v>
       </c>
-      <c r="G73" s="82">
+      <c r="G73" s="74">
         <v>4634.2445396200601</v>
       </c>
-      <c r="H73" s="83">
+      <c r="H73" s="75">
         <v>10.331649842176599</v>
       </c>
-      <c r="I73" s="81">
+      <c r="I73" s="73">
         <v>66.611599999999996</v>
       </c>
-      <c r="J73" s="81">
+      <c r="J73" s="73">
         <v>47.84375</v>
       </c>
-      <c r="K73" s="81">
+      <c r="K73" s="73">
         <v>37.59375</v>
       </c>
-      <c r="L73" s="84">
+      <c r="L73" s="76">
         <v>0.59962499999999996</v>
       </c>
-      <c r="M73" s="85">
+      <c r="M73" s="77">
         <v>0.42593333333333</v>
       </c>
     </row>
@@ -4507,40 +4451,40 @@
       <c r="A74" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="78" t="s">
+      <c r="B74" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="79">
+      <c r="C74" s="71">
         <v>104867.75</v>
       </c>
-      <c r="D74" s="80">
+      <c r="D74" s="72">
         <v>1181522.7078249999</v>
       </c>
-      <c r="E74" s="79">
+      <c r="E74" s="72">
         <v>401317.99189770001</v>
       </c>
-      <c r="F74" s="81">
+      <c r="F74" s="73">
         <v>7.7943141075281197</v>
       </c>
-      <c r="G74" s="82">
+      <c r="G74" s="74">
         <v>11355.7886322879</v>
       </c>
-      <c r="H74" s="83">
+      <c r="H74" s="75">
         <v>4.77082373702659</v>
       </c>
-      <c r="I74" s="81">
+      <c r="I74" s="73">
         <v>44.169800000000002</v>
       </c>
-      <c r="J74" s="81">
+      <c r="J74" s="73">
         <v>34.966666666666697</v>
       </c>
-      <c r="K74" s="81">
+      <c r="K74" s="73">
         <v>2.6666666666666701</v>
       </c>
-      <c r="L74" s="84">
+      <c r="L74" s="76">
         <v>0.68879999999999997</v>
       </c>
-      <c r="M74" s="85">
+      <c r="M74" s="77">
         <v>0.52100000000000002</v>
       </c>
     </row>
@@ -4548,40 +4492,40 @@
       <c r="A75" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="86" t="s">
+      <c r="B75" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="87">
-        <v>71087.065000000002</v>
-      </c>
-      <c r="D75" s="88">
-        <v>301863.37330296001</v>
-      </c>
-      <c r="E75" s="87">
-        <v>107558.44901072</v>
-      </c>
-      <c r="F75" s="89">
-        <v>0.84267259317947996</v>
-      </c>
-      <c r="G75" s="90">
-        <v>4551.1158478468897</v>
-      </c>
-      <c r="H75" s="91">
-        <v>19.926671726233</v>
-      </c>
-      <c r="I75" s="89">
-        <v>64.25</v>
-      </c>
-      <c r="J75" s="89">
+      <c r="C75" s="79">
+        <v>69452.599000000002</v>
+      </c>
+      <c r="D75" s="80">
+        <v>276175.72104695998</v>
+      </c>
+      <c r="E75" s="80">
+        <v>95289.055669719994</v>
+      </c>
+      <c r="F75" s="81">
+        <v>1.2174721185953601</v>
+      </c>
+      <c r="G75" s="82">
+        <v>4241.9829090796102</v>
+      </c>
+      <c r="H75" s="83">
+        <v>21.7888018737675</v>
+      </c>
+      <c r="I75" s="81">
+        <v>66.1952</v>
+      </c>
+      <c r="J75" s="81">
         <v>44.64</v>
       </c>
-      <c r="K75" s="89">
+      <c r="K75" s="81">
         <v>27.52</v>
       </c>
-      <c r="L75" s="92">
-        <v>0.5665</v>
-      </c>
-      <c r="M75" s="93">
+      <c r="L75" s="84">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="M75" s="85">
         <v>0.38324999999999998</v>
       </c>
     </row>
@@ -4589,40 +4533,40 @@
       <c r="A76" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B76" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="79">
+      <c r="C76" s="87">
         <v>674475.12199999997</v>
       </c>
-      <c r="D76" s="80">
+      <c r="D76" s="88">
         <v>9072493.8132649995</v>
       </c>
-      <c r="E76" s="79">
+      <c r="E76" s="88">
         <v>3347561.2030429998</v>
       </c>
-      <c r="F76" s="81">
+      <c r="F76" s="89">
         <v>3.0649924101130899</v>
       </c>
-      <c r="G76" s="82">
+      <c r="G76" s="90">
         <v>13691.978555485999</v>
       </c>
-      <c r="H76" s="83">
+      <c r="H76" s="91">
         <v>2.0423274124095898</v>
       </c>
-      <c r="I76" s="81">
+      <c r="I76" s="89">
         <v>67.448599999999999</v>
       </c>
-      <c r="J76" s="81">
+      <c r="J76" s="89">
         <v>37.357142857142897</v>
       </c>
-      <c r="K76" s="81">
+      <c r="K76" s="89">
         <v>2.4</v>
       </c>
-      <c r="L76" s="84">
+      <c r="L76" s="92">
         <v>0.72929999999999995</v>
       </c>
-      <c r="M76" s="85">
+      <c r="M76" s="93">
         <v>0.59428571428570998</v>
       </c>
     </row>
@@ -4630,40 +4574,40 @@
       <c r="A77" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="79">
+      <c r="C77" s="71">
         <v>433952.90600000002</v>
       </c>
-      <c r="D77" s="80">
+      <c r="D77" s="72">
         <v>7058151.227554</v>
       </c>
-      <c r="E77" s="79">
+      <c r="E77" s="72">
         <v>3266965.2970782998</v>
       </c>
-      <c r="F77" s="81">
+      <c r="F77" s="73">
         <v>7.3013155974859201</v>
       </c>
-      <c r="G77" s="82">
+      <c r="G77" s="74">
         <v>16287.658900656799</v>
       </c>
-      <c r="H77" s="83">
+      <c r="H77" s="75">
         <v>50.674497192388699</v>
       </c>
-      <c r="I77" s="81">
+      <c r="I77" s="73">
         <v>58.993416666666697</v>
       </c>
-      <c r="J77" s="81">
+      <c r="J77" s="73">
         <v>45.411111111111097</v>
       </c>
-      <c r="K77" s="81">
+      <c r="K77" s="73">
         <v>3.43333333333333</v>
       </c>
-      <c r="L77" s="84">
+      <c r="L77" s="76">
         <v>0.76316666666666999</v>
       </c>
-      <c r="M77" s="85">
+      <c r="M77" s="77">
         <v>0.61175000000000002</v>
       </c>
     </row>
@@ -4671,40 +4615,40 @@
       <c r="A78" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="79">
+      <c r="C78" s="71">
         <v>445051.16899999999</v>
       </c>
-      <c r="D78" s="80">
+      <c r="D78" s="72">
         <v>21755438.878219999</v>
       </c>
-      <c r="E78" s="79">
+      <c r="E78" s="72">
         <v>17165427.274037998</v>
       </c>
-      <c r="F78" s="81">
+      <c r="F78" s="73">
         <v>5.3637666188166202</v>
       </c>
-      <c r="G78" s="82">
+      <c r="G78" s="74">
         <v>48884.648122679297</v>
       </c>
-      <c r="H78" s="83">
+      <c r="H78" s="75">
         <v>2.8962864966124902</v>
       </c>
-      <c r="I78" s="81">
+      <c r="I78" s="73">
         <v>58.557740740740698</v>
       </c>
-      <c r="J78" s="81">
+      <c r="J78" s="73">
         <v>30.9444444444444</v>
       </c>
-      <c r="K78" s="81">
+      <c r="K78" s="73">
         <v>0.38518518518519002</v>
       </c>
-      <c r="L78" s="84">
+      <c r="L78" s="76">
         <v>0.89685185185185001</v>
       </c>
-      <c r="M78" s="85">
+      <c r="M78" s="77">
         <v>0.82133333333333003</v>
       </c>
     </row>
@@ -4712,40 +4656,40 @@
       <c r="A79" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="86" t="s">
+      <c r="B79" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="87">
+      <c r="C79" s="79">
         <v>1373941.898</v>
       </c>
-      <c r="D79" s="88">
+      <c r="D79" s="80">
         <v>67586459.384270996</v>
       </c>
-      <c r="E79" s="87">
+      <c r="E79" s="80">
         <v>58092846.889211997</v>
       </c>
-      <c r="F79" s="89">
+      <c r="F79" s="81">
         <v>5.5320896535439799</v>
       </c>
-      <c r="G79" s="90">
+      <c r="G79" s="82">
         <v>49348.029373409103</v>
       </c>
-      <c r="H79" s="91">
+      <c r="H79" s="83">
         <v>4.0432528788119901</v>
       </c>
-      <c r="I79" s="89">
+      <c r="I79" s="81">
         <v>60.249236842105297</v>
       </c>
-      <c r="J79" s="89">
+      <c r="J79" s="81">
         <v>33.486486486486498</v>
       </c>
-      <c r="K79" s="89">
+      <c r="K79" s="81">
         <v>0.73783783783783996</v>
       </c>
-      <c r="L79" s="92">
+      <c r="L79" s="84">
         <v>0.90110526315788997</v>
       </c>
-      <c r="M79" s="93">
+      <c r="M79" s="85">
         <v>0.81492105263157999</v>
       </c>
     </row>
@@ -4753,40 +4697,40 @@
       <c r="A80" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B80" s="78" t="s">
+      <c r="B80" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="79">
+      <c r="C80" s="87">
         <v>331012.43300000002</v>
       </c>
-      <c r="D80" s="80">
+      <c r="D80" s="88">
         <v>2199916.0808533002</v>
       </c>
-      <c r="E80" s="79">
+      <c r="E80" s="88">
         <v>787391.82490090001</v>
       </c>
-      <c r="F80" s="81">
+      <c r="F80" s="89">
         <v>4.7510001604999399</v>
       </c>
-      <c r="G80" s="82">
+      <c r="G80" s="90">
         <v>6766.4648137224203</v>
       </c>
-      <c r="H80" s="83">
+      <c r="H80" s="91">
         <v>13.522613011187101</v>
       </c>
-      <c r="I80" s="81">
+      <c r="I80" s="89">
         <v>54.058199999999999</v>
       </c>
-      <c r="J80" s="81">
+      <c r="J80" s="89">
         <v>39.483333333333299</v>
       </c>
-      <c r="K80" s="81">
+      <c r="K80" s="89">
         <v>17.75</v>
       </c>
-      <c r="L80" s="84">
+      <c r="L80" s="92">
         <v>0.60699999999999998</v>
       </c>
-      <c r="M80" s="85">
+      <c r="M80" s="93">
         <v>0.41914285714285998</v>
       </c>
     </row>
@@ -4794,40 +4738,40 @@
       <c r="A81" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B81" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="79">
+      <c r="C81" s="71">
         <v>500911.59</v>
       </c>
-      <c r="D81" s="80">
+      <c r="D81" s="72">
         <v>11313310.5545073</v>
       </c>
-      <c r="E81" s="79">
+      <c r="E81" s="72">
         <v>5923190.9895117003</v>
       </c>
-      <c r="F81" s="81">
+      <c r="F81" s="73">
         <v>4.2602764504109203</v>
       </c>
-      <c r="G81" s="82">
+      <c r="G81" s="74">
         <v>22653.3210147258</v>
       </c>
-      <c r="H81" s="83">
+      <c r="H81" s="75">
         <v>33.579192020779701</v>
       </c>
-      <c r="I81" s="81">
+      <c r="I81" s="73">
         <v>59.270590909090899</v>
       </c>
-      <c r="J81" s="81">
+      <c r="J81" s="73">
         <v>33.955555555555598</v>
       </c>
-      <c r="K81" s="81">
+      <c r="K81" s="73">
         <v>4.0222222222222204</v>
       </c>
-      <c r="L81" s="84">
+      <c r="L81" s="76">
         <v>0.75318181818181995</v>
       </c>
-      <c r="M81" s="85">
+      <c r="M81" s="77">
         <v>0.58828571428570997</v>
       </c>
     </row>
@@ -4835,40 +4779,40 @@
       <c r="A82" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C82" s="79">
+      <c r="C82" s="71">
         <v>1060810.885</v>
       </c>
-      <c r="D82" s="80">
+      <c r="D82" s="72">
         <v>5245727.5756896604</v>
       </c>
-      <c r="E82" s="79">
+      <c r="E82" s="72">
         <v>1958812.2396607201</v>
       </c>
-      <c r="F82" s="81">
+      <c r="F82" s="73">
         <v>4.8193311068225198</v>
       </c>
-      <c r="G82" s="82">
+      <c r="G82" s="74">
         <v>5159.5942532751396</v>
       </c>
-      <c r="H82" s="83">
+      <c r="H82" s="75">
         <v>20.0788909254799</v>
       </c>
-      <c r="I82" s="81">
+      <c r="I82" s="73">
         <v>63.044930232558201</v>
       </c>
-      <c r="J82" s="81">
+      <c r="J82" s="73">
         <v>41.757142857142902</v>
       </c>
-      <c r="K82" s="81">
+      <c r="K82" s="73">
         <v>30.8642857142857</v>
       </c>
-      <c r="L82" s="84">
+      <c r="L82" s="76">
         <v>0.54997674418605003</v>
       </c>
-      <c r="M82" s="85">
+      <c r="M82" s="77">
         <v>0.38415384615385001</v>
       </c>
     </row>
@@ -4876,40 +4820,40 @@
       <c r="A83" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="86" t="s">
+      <c r="B83" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="87">
+      <c r="C83" s="79">
         <v>5969514.8389999997</v>
       </c>
-      <c r="D83" s="88">
+      <c r="D83" s="80">
         <v>125594946.29370899</v>
       </c>
-      <c r="E83" s="87">
+      <c r="E83" s="80">
         <v>87081646.916850194</v>
       </c>
-      <c r="F83" s="89">
+      <c r="F83" s="81">
         <v>6.2513314887018296</v>
       </c>
-      <c r="G83" s="90">
+      <c r="G83" s="82">
         <v>21567.4253196217</v>
       </c>
-      <c r="H83" s="91">
+      <c r="H83" s="83">
         <v>3.9428058792424401</v>
       </c>
-      <c r="I83" s="89">
+      <c r="I83" s="81">
         <v>59.183941747572902</v>
       </c>
-      <c r="J83" s="89">
+      <c r="J83" s="81">
         <v>35.3611111111111</v>
       </c>
-      <c r="K83" s="89">
+      <c r="K83" s="81">
         <v>2.64222222222222</v>
       </c>
-      <c r="L83" s="92">
+      <c r="L83" s="84">
         <v>0.79100000000000004</v>
       </c>
-      <c r="M83" s="93">
+      <c r="M83" s="85">
         <v>0.69876666666666998</v>
       </c>
     </row>
@@ -4917,40 +4861,40 @@
       <c r="A84" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="79">
+      <c r="C84" s="87">
         <v>578404.56799999997</v>
       </c>
-      <c r="D84" s="80">
+      <c r="D84" s="88">
         <v>1203406.9083407</v>
       </c>
-      <c r="E84" s="79">
+      <c r="E84" s="88">
         <v>408951.80492969998</v>
       </c>
-      <c r="F84" s="81">
+      <c r="F84" s="89">
         <v>4.4794304455690499</v>
       </c>
-      <c r="G84" s="82">
+      <c r="G84" s="90">
         <v>2222.1284983382802</v>
       </c>
-      <c r="H84" s="83">
+      <c r="H84" s="91">
         <v>68.411663369714404</v>
       </c>
-      <c r="I84" s="81">
+      <c r="I84" s="89">
         <v>67.2014347826087</v>
       </c>
-      <c r="J84" s="81">
+      <c r="J84" s="89">
         <v>39.247619047619096</v>
       </c>
-      <c r="K84" s="81">
+      <c r="K84" s="89">
         <v>42.009523809523799</v>
       </c>
-      <c r="L84" s="84">
+      <c r="L84" s="92">
         <v>0.46949999999999997</v>
       </c>
-      <c r="M84" s="85">
+      <c r="M84" s="93">
         <v>0.31980952380951999</v>
       </c>
     </row>
@@ -4958,40 +4902,40 @@
       <c r="A85" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="79">
+      <c r="C85" s="71">
         <v>120377.379</v>
       </c>
-      <c r="D85" s="80">
+      <c r="D85" s="72">
         <v>61741.868607999997</v>
       </c>
-      <c r="E85" s="79">
+      <c r="E85" s="72">
         <v>19911.279184999999</v>
       </c>
-      <c r="F85" s="81">
+      <c r="F85" s="73">
         <v>-0.99999999883769997</v>
       </c>
-      <c r="G85" s="82">
+      <c r="G85" s="74">
         <v>1997.4196283000001</v>
       </c>
-      <c r="H85" s="83">
+      <c r="H85" s="75">
         <v>45.694710826373402</v>
       </c>
-      <c r="I85" s="81">
+      <c r="I85" s="73">
         <v>50.676250000000003</v>
       </c>
-      <c r="J85" s="81">
+      <c r="J85" s="73">
         <v>36.700000000000003</v>
       </c>
-      <c r="K85" s="81">
+      <c r="K85" s="73">
         <v>19.8</v>
       </c>
-      <c r="L85" s="84">
+      <c r="L85" s="76">
         <v>0.51600000000000001</v>
       </c>
-      <c r="M85" s="85">
+      <c r="M85" s="77">
         <v>0.32100000000000001</v>
       </c>
     </row>
@@ -4999,40 +4943,40 @@
       <c r="A86" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="78" t="s">
+      <c r="B86" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="79">
+      <c r="C86" s="71">
         <v>736791.61399999994</v>
       </c>
-      <c r="D86" s="80">
+      <c r="D86" s="72">
         <v>5066409.3619056595</v>
       </c>
-      <c r="E86" s="79">
+      <c r="E86" s="72">
         <v>1804290.7777068201</v>
       </c>
-      <c r="F86" s="81">
+      <c r="F86" s="73">
         <v>4.1953413839434104</v>
       </c>
-      <c r="G86" s="82">
+      <c r="G86" s="74">
         <v>7127.5226095975004</v>
       </c>
-      <c r="H86" s="83">
+      <c r="H86" s="75">
         <v>9.4408383665657603</v>
       </c>
-      <c r="I86" s="81">
+      <c r="I86" s="73">
         <v>57.839913043478298</v>
       </c>
-      <c r="J86" s="81">
+      <c r="J86" s="73">
         <v>42.104761904761901</v>
       </c>
-      <c r="K86" s="81">
+      <c r="K86" s="73">
         <v>22.1904761904762</v>
       </c>
-      <c r="L86" s="84">
+      <c r="L86" s="76">
         <v>0.59482608695651995</v>
       </c>
-      <c r="M86" s="85">
+      <c r="M86" s="77">
         <v>0.42030000000000001</v>
       </c>
     </row>
@@ -5040,40 +4984,40 @@
       <c r="A87" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B87" s="78" t="s">
+      <c r="B87" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="79">
+      <c r="C87" s="71">
         <v>2669111.9890000001</v>
       </c>
-      <c r="D87" s="80">
+      <c r="D87" s="72">
         <v>22069119.243887</v>
       </c>
-      <c r="E87" s="79">
+      <c r="E87" s="72">
         <v>8186130.7686972199</v>
       </c>
-      <c r="F87" s="81">
+      <c r="F87" s="73">
         <v>6.25320064471663</v>
       </c>
-      <c r="G87" s="82">
+      <c r="G87" s="74">
         <v>8383.3875358335299</v>
       </c>
-      <c r="H87" s="83">
+      <c r="H87" s="75">
         <v>7.22870977121483</v>
       </c>
-      <c r="I87" s="81">
+      <c r="I87" s="73">
         <v>59.773103448275897</v>
       </c>
-      <c r="J87" s="81">
+      <c r="J87" s="73">
         <v>36.330769230769199</v>
       </c>
-      <c r="K87" s="81">
+      <c r="K87" s="73">
         <v>6.5538461538461501</v>
       </c>
-      <c r="L87" s="84">
+      <c r="L87" s="76">
         <v>0.65803225806452004</v>
       </c>
-      <c r="M87" s="85">
+      <c r="M87" s="77">
         <v>0.52612000000000003</v>
       </c>
     </row>
@@ -5081,40 +5025,40 @@
       <c r="A88" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="78" t="s">
+      <c r="B88" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="79">
+      <c r="C88" s="71">
         <v>76520.665999999997</v>
       </c>
-      <c r="D88" s="80">
+      <c r="D88" s="72">
         <v>1172691.125795</v>
       </c>
-      <c r="E88" s="79">
+      <c r="E88" s="72">
         <v>531504.36733200005</v>
       </c>
-      <c r="F88" s="81">
+      <c r="F88" s="73">
         <v>7.7275129923369601</v>
       </c>
-      <c r="G88" s="82">
+      <c r="G88" s="74">
         <v>15328.458507817701</v>
       </c>
-      <c r="H88" s="83">
+      <c r="H88" s="75">
         <v>4.1683122666784298</v>
       </c>
-      <c r="I88" s="81">
+      <c r="I88" s="73">
         <v>53.651857142857203</v>
       </c>
-      <c r="J88" s="81">
+      <c r="J88" s="73">
         <v>50.04</v>
       </c>
-      <c r="K88" s="81">
+      <c r="K88" s="73">
         <v>10.82</v>
       </c>
-      <c r="L88" s="84">
+      <c r="L88" s="76">
         <v>0.70185714285713996</v>
       </c>
-      <c r="M88" s="85">
+      <c r="M88" s="77">
         <v>0.53100000000000003</v>
       </c>
     </row>
@@ -5122,40 +5066,40 @@
       <c r="A89" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="78" t="s">
+      <c r="B89" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="79">
+      <c r="C89" s="71">
         <v>2470490.3330000001</v>
       </c>
-      <c r="D89" s="80">
+      <c r="D89" s="72">
         <v>49371800.726878598</v>
       </c>
-      <c r="E89" s="79">
+      <c r="E89" s="72">
         <v>26815976.9806091</v>
       </c>
-      <c r="F89" s="81">
+      <c r="F89" s="73">
         <v>7.3019554174475703</v>
       </c>
-      <c r="G89" s="82">
+      <c r="G89" s="74">
         <v>20262.317877912799</v>
       </c>
-      <c r="H89" s="83">
+      <c r="H89" s="75">
         <v>4.8261470450421102</v>
       </c>
-      <c r="I89" s="81">
+      <c r="I89" s="73">
         <v>56.372142857142897</v>
       </c>
-      <c r="J89" s="81">
+      <c r="J89" s="73">
         <v>38.378787878787897</v>
       </c>
-      <c r="K89" s="81">
+      <c r="K89" s="73">
         <v>2.1393939393939401</v>
       </c>
-      <c r="L89" s="84">
+      <c r="L89" s="76">
         <v>0.76788888888888995</v>
       </c>
-      <c r="M89" s="85">
+      <c r="M89" s="77">
         <v>0.64805555555556005</v>
       </c>
     </row>
@@ -5163,40 +5107,40 @@
       <c r="A90" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="86" t="s">
+      <c r="B90" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="87">
+      <c r="C90" s="79">
         <v>1182353.3319999999</v>
       </c>
-      <c r="D90" s="88">
+      <c r="D90" s="80">
         <v>65240275.5857438</v>
       </c>
-      <c r="E90" s="87">
+      <c r="E90" s="80">
         <v>57924763.459340699</v>
       </c>
-      <c r="F90" s="89">
+      <c r="F90" s="81">
         <v>5.1321993768267999</v>
       </c>
-      <c r="G90" s="90">
+      <c r="G90" s="82">
         <v>55416.017860242398</v>
       </c>
-      <c r="H90" s="91">
+      <c r="H90" s="83">
         <v>3.1713046675156602</v>
       </c>
-      <c r="I90" s="89">
+      <c r="I90" s="81">
         <v>62.154551020408199</v>
       </c>
-      <c r="J90" s="89">
+      <c r="J90" s="81">
         <v>31.81</v>
       </c>
-      <c r="K90" s="89">
+      <c r="K90" s="81">
         <v>0.34250000000000003</v>
       </c>
-      <c r="L90" s="92">
+      <c r="L90" s="84">
         <v>0.88627272727272999</v>
       </c>
-      <c r="M90" s="93">
+      <c r="M90" s="85">
         <v>0.81911904761904997</v>
       </c>
     </row>
@@ -5204,40 +5148,40 @@
       <c r="A91" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="79">
+      <c r="C91" s="87">
         <v>734890.13399999996</v>
       </c>
-      <c r="D91" s="80">
+      <c r="D91" s="88">
         <v>1835770.2419310601</v>
       </c>
-      <c r="E91" s="79">
+      <c r="E91" s="88">
         <v>638623.66039002</v>
       </c>
-      <c r="F91" s="81">
+      <c r="F91" s="89">
         <v>4.1677565289682104</v>
       </c>
-      <c r="G91" s="82">
+      <c r="G91" s="90">
         <v>2655.2819261018499</v>
       </c>
-      <c r="H91" s="83">
+      <c r="H91" s="91">
         <v>49.379296765475402</v>
       </c>
-      <c r="I91" s="81">
+      <c r="I91" s="89">
         <v>64.515060606060601</v>
       </c>
-      <c r="J91" s="81">
+      <c r="J91" s="89">
         <v>40.454838709677396</v>
       </c>
-      <c r="K91" s="81">
+      <c r="K91" s="89">
         <v>36.806451612903203</v>
       </c>
-      <c r="L91" s="84">
+      <c r="L91" s="92">
         <v>0.4955</v>
       </c>
-      <c r="M91" s="85">
+      <c r="M91" s="93">
         <v>0.33926666666666999</v>
       </c>
     </row>
@@ -5245,40 +5189,40 @@
       <c r="A92" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B92" s="78" t="s">
+      <c r="B92" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="79">
+      <c r="C92" s="71">
         <v>364678.43400000001</v>
       </c>
-      <c r="D92" s="80">
+      <c r="D92" s="72">
         <v>1794977.8548870501</v>
       </c>
-      <c r="E92" s="79">
+      <c r="E92" s="72">
         <v>609762.79933004605</v>
       </c>
-      <c r="F92" s="81">
+      <c r="F92" s="73">
         <v>2.5780035394754002</v>
       </c>
-      <c r="G92" s="82">
+      <c r="G92" s="74">
         <v>5619.1549766396902</v>
       </c>
-      <c r="H92" s="83">
+      <c r="H92" s="75">
         <v>6.5990887726341096</v>
       </c>
-      <c r="I92" s="81">
+      <c r="I92" s="73">
         <v>63.709545454545498</v>
       </c>
-      <c r="J92" s="81">
+      <c r="J92" s="73">
         <v>34.522222222222197</v>
       </c>
-      <c r="K92" s="81">
+      <c r="K92" s="73">
         <v>12.088888888888899</v>
       </c>
-      <c r="L92" s="84">
+      <c r="L92" s="76">
         <v>0.58099999999999996</v>
       </c>
-      <c r="M92" s="85">
+      <c r="M92" s="77">
         <v>0.43466666666666998</v>
       </c>
     </row>
@@ -5286,40 +5230,40 @@
       <c r="A93" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C93" s="79">
+      <c r="C93" s="71">
         <v>5098.7640000000001</v>
       </c>
-      <c r="D93" s="80">
+      <c r="D93" s="72">
         <v>44386.412161760003</v>
       </c>
-      <c r="E93" s="79">
+      <c r="E93" s="72">
         <v>18230.972205319998</v>
       </c>
-      <c r="F93" s="81">
+      <c r="F93" s="73">
         <v>4.5443981888473202</v>
       </c>
-      <c r="G93" s="82">
+      <c r="G93" s="74">
         <v>8992.0953218947107</v>
       </c>
-      <c r="H93" s="83">
+      <c r="H93" s="75">
         <v>3.9620822629702102</v>
       </c>
-      <c r="I93" s="81">
+      <c r="I93" s="73">
         <v>55.266399999999997</v>
       </c>
-      <c r="J93" s="81">
+      <c r="J93" s="73">
         <v>38.683333333333302</v>
       </c>
-      <c r="K93" s="81">
+      <c r="K93" s="73">
         <v>10.1833333333333</v>
       </c>
-      <c r="L93" s="84">
+      <c r="L93" s="76">
         <v>0.65400000000000003</v>
       </c>
-      <c r="M93" s="85">
+      <c r="M93" s="77">
         <v>0.49740000000000001</v>
       </c>
     </row>
@@ -5327,40 +5271,40 @@
       <c r="A94" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="78" t="s">
+      <c r="B94" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="79">
+      <c r="C94" s="71">
         <v>63102.027000000002</v>
       </c>
-      <c r="D94" s="80">
+      <c r="D94" s="72">
         <v>1174775.47466352</v>
       </c>
-      <c r="E94" s="79">
+      <c r="E94" s="72">
         <v>671033.23555463599</v>
       </c>
-      <c r="F94" s="81">
+      <c r="F94" s="73">
         <v>7.6268281615050002</v>
       </c>
-      <c r="G94" s="82">
+      <c r="G94" s="74">
         <v>24182.985320937099</v>
       </c>
-      <c r="H94" s="83">
+      <c r="H94" s="75">
         <v>4.2673646368251799</v>
       </c>
-      <c r="I94" s="81">
+      <c r="I94" s="73">
         <v>60.357045454545499</v>
       </c>
-      <c r="J94" s="81">
+      <c r="J94" s="73">
         <v>36.035714285714299</v>
       </c>
-      <c r="K94" s="81">
+      <c r="K94" s="73">
         <v>7.4</v>
       </c>
-      <c r="L94" s="84">
+      <c r="L94" s="76">
         <v>0.72493333333332999</v>
       </c>
-      <c r="M94" s="85">
+      <c r="M94" s="77">
         <v>0.55376923076923001</v>
       </c>
     </row>
@@ -5368,40 +5312,40 @@
       <c r="A95" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="78" t="s">
+      <c r="B95" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="79">
+      <c r="C95" s="71">
         <v>356211.99800000002</v>
       </c>
-      <c r="D95" s="80">
+      <c r="D95" s="72">
         <v>852683.79147429997</v>
       </c>
-      <c r="E95" s="79">
+      <c r="E95" s="72">
         <v>320402.4641258</v>
       </c>
-      <c r="F95" s="81">
+      <c r="F95" s="73">
         <v>5.8402621303679103</v>
       </c>
-      <c r="G95" s="82">
+      <c r="G95" s="74">
         <v>2621.1912564053</v>
       </c>
-      <c r="H95" s="83">
+      <c r="H95" s="75">
         <v>18.094132649719398</v>
       </c>
-      <c r="I95" s="81">
+      <c r="I95" s="73">
         <v>69.709500000000006</v>
       </c>
-      <c r="J95" s="81">
+      <c r="J95" s="73">
         <v>44.066666666666698</v>
       </c>
-      <c r="K95" s="81">
+      <c r="K95" s="73">
         <v>42.373333333333299</v>
       </c>
-      <c r="L95" s="84">
+      <c r="L95" s="76">
         <v>0.50149999999999995</v>
       </c>
-      <c r="M95" s="85">
+      <c r="M95" s="77">
         <v>0.33886666666666998</v>
       </c>
     </row>
@@ -5409,40 +5353,40 @@
       <c r="A96" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="86" t="s">
+      <c r="B96" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C96" s="87">
+      <c r="C96" s="79">
         <v>194634.42600000001</v>
       </c>
-      <c r="D96" s="88">
+      <c r="D96" s="80">
         <v>1755196.5626649</v>
       </c>
-      <c r="E96" s="87">
+      <c r="E96" s="80">
         <v>593555.34775329998</v>
       </c>
-      <c r="F96" s="89">
+      <c r="F96" s="81">
         <v>5.1697716567938699</v>
       </c>
-      <c r="G96" s="90">
+      <c r="G96" s="82">
         <v>11387.075976325699</v>
       </c>
-      <c r="H96" s="91">
+      <c r="H96" s="83">
         <v>7.6120714111777499</v>
       </c>
-      <c r="I96" s="89">
+      <c r="I96" s="81">
         <v>57.765749999999997</v>
       </c>
-      <c r="J96" s="89">
+      <c r="J96" s="81">
         <v>33.727272727272698</v>
       </c>
-      <c r="K96" s="89">
+      <c r="K96" s="81">
         <v>2.16363636363636</v>
       </c>
-      <c r="L96" s="92">
+      <c r="L96" s="84">
         <v>0.70274999999999999</v>
       </c>
-      <c r="M96" s="93">
+      <c r="M96" s="85">
         <v>0.60157142857142998</v>
       </c>
     </row>
@@ -5450,40 +5394,40 @@
       <c r="A97" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="78" t="s">
+      <c r="B97" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="C97" s="79">
+      <c r="C97" s="87">
         <v>1023916.94</v>
       </c>
-      <c r="D97" s="80">
+      <c r="D97" s="88">
         <v>3600554.3457566001</v>
       </c>
-      <c r="E97" s="79">
+      <c r="E97" s="88">
         <v>1338760.4495927</v>
       </c>
-      <c r="F97" s="81">
+      <c r="F97" s="89">
         <v>5.2001767875339899</v>
       </c>
-      <c r="G97" s="82">
+      <c r="G97" s="90">
         <v>3666.3421663897998</v>
       </c>
-      <c r="H97" s="83">
+      <c r="H97" s="91">
         <v>32.316879297130399</v>
       </c>
-      <c r="I97" s="81">
+      <c r="I97" s="89">
         <v>63.7965675675676</v>
       </c>
-      <c r="J97" s="81">
+      <c r="J97" s="89">
         <v>41.246875000000003</v>
       </c>
-      <c r="K97" s="81">
+      <c r="K97" s="89">
         <v>35.856250000000003</v>
       </c>
-      <c r="L97" s="84">
+      <c r="L97" s="92">
         <v>0.51280555555555996</v>
       </c>
-      <c r="M97" s="85">
+      <c r="M97" s="93">
         <v>0.34531250000000002</v>
       </c>
     </row>
@@ -5491,121 +5435,293 @@
       <c r="A98" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="86" t="s">
+      <c r="B98" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="87">
+      <c r="C98" s="79">
         <v>825197.09100000001</v>
       </c>
-      <c r="D98" s="88">
+      <c r="D98" s="80">
         <v>5401941.5414966</v>
       </c>
-      <c r="E98" s="87">
+      <c r="E98" s="80">
         <v>2937751.0331735001</v>
       </c>
-      <c r="F98" s="89">
+      <c r="F98" s="81">
         <v>4.6494179796734203</v>
       </c>
-      <c r="G98" s="90">
+      <c r="G98" s="82">
         <v>7541.8572940814702</v>
       </c>
-      <c r="H98" s="91">
+      <c r="H98" s="83">
         <v>65.406192639710497</v>
       </c>
-      <c r="I98" s="89">
+      <c r="I98" s="81">
         <v>56.401789473684197</v>
       </c>
-      <c r="J98" s="89">
+      <c r="J98" s="81">
         <v>37.961538461538503</v>
       </c>
-      <c r="K98" s="89">
+      <c r="K98" s="81">
         <v>10.5</v>
       </c>
-      <c r="L98" s="92">
+      <c r="L98" s="84">
         <v>0.60844444444444001</v>
       </c>
-      <c r="M98" s="93">
+      <c r="M98" s="85">
         <v>0.47685714285713998</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="94"/>
       <c r="B99" s="95"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="96"/>
-      <c r="E99" s="96"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="96"/>
-      <c r="H99" s="96"/>
-      <c r="I99" s="97"/>
-      <c r="J99" s="97"/>
-      <c r="K99" s="98"/>
-      <c r="L99" s="98"/>
-      <c r="M99" s="98"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="96"/>
+      <c r="G100" s="96"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+      <c r="J100" s="96"/>
+      <c r="K100" s="96"/>
+      <c r="L100" s="96"/>
+      <c r="M100" s="96"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+      <c r="J101" s="96"/>
+      <c r="K101" s="96"/>
+      <c r="L101" s="96"/>
+      <c r="M101" s="96"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="96"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="96"/>
+      <c r="K102" s="96"/>
+      <c r="L102" s="96"/>
+      <c r="M102" s="96"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="C103" s="96"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
+      <c r="G103" s="96"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="96"/>
+      <c r="J103" s="96"/>
+      <c r="K103" s="96"/>
+      <c r="L103" s="96"/>
+      <c r="M103" s="96"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="96"/>
+      <c r="G104" s="96"/>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
+      <c r="J104" s="96"/>
+      <c r="K104" s="96"/>
+      <c r="L104" s="96"/>
+      <c r="M104" s="96"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C105" s="96"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
+      <c r="G105" s="96"/>
+      <c r="H105" s="96"/>
+      <c r="I105" s="96"/>
+      <c r="J105" s="96"/>
+      <c r="K105" s="96"/>
+      <c r="L105" s="96"/>
+      <c r="M105" s="96"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="96"/>
+      <c r="H106" s="96"/>
+      <c r="I106" s="96"/>
+      <c r="J106" s="96"/>
+      <c r="K106" s="96"/>
+      <c r="L106" s="96"/>
+      <c r="M106" s="96"/>
     </row>
     <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="104" t="s">
+      <c r="B107" s="97" t="s">
         <v>171</v>
       </c>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="96"/>
+      <c r="G107" s="96"/>
+      <c r="H107" s="96"/>
+      <c r="I107" s="96"/>
+      <c r="J107" s="96"/>
+      <c r="K107" s="96"/>
+      <c r="L107" s="96"/>
+      <c r="M107" s="96"/>
     </row>
     <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="104"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="96"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="96"/>
+      <c r="G108" s="96"/>
+      <c r="H108" s="96"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="96"/>
+      <c r="K108" s="96"/>
+      <c r="L108" s="96"/>
+      <c r="M108" s="96"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="C109" s="96"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="96"/>
+      <c r="G109" s="96"/>
+      <c r="H109" s="96"/>
+      <c r="I109" s="96"/>
+      <c r="J109" s="96"/>
+      <c r="K109" s="96"/>
+      <c r="L109" s="96"/>
+      <c r="M109" s="96"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="C110" s="96"/>
+      <c r="D110" s="96"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="96"/>
+      <c r="G110" s="96"/>
+      <c r="H110" s="96"/>
+      <c r="I110" s="96"/>
+      <c r="J110" s="96"/>
+      <c r="K110" s="96"/>
+      <c r="L110" s="96"/>
+      <c r="M110" s="96"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="96"/>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="96"/>
+      <c r="K111" s="96"/>
+      <c r="L111" s="96"/>
+      <c r="M111" s="96"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="96"/>
+      <c r="H112" s="96"/>
+      <c r="I112" s="96"/>
+      <c r="J112" s="96"/>
+      <c r="K112" s="96"/>
+      <c r="L112" s="96"/>
+      <c r="M112" s="96"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="C113" s="96"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="96"/>
+      <c r="G113" s="96"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="96"/>
+      <c r="J113" s="96"/>
+      <c r="K113" s="96"/>
+      <c r="L113" s="96"/>
+      <c r="M113" s="96"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B114" s="2"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="96"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="96"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="96"/>
+      <c r="I114" s="96"/>
+      <c r="J114" s="96"/>
+      <c r="K114" s="96"/>
+      <c r="L114" s="96"/>
+      <c r="M114" s="96"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C66B33F4-A344-4E28-9308-DF94BFE25A04}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C0FDD8D8-3AA5-4FE5-A8A0-1D7F7FEFF837}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{E29A8896-B68E-469C-9413-AB8290B0CA98}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{878818FD-DF44-4E97-B2B8-82528B3CBD8E}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{AEFAC44D-62C9-4A5C-90BE-F37F8FE6FF2A}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6934FA3B-6A39-4086-98D6-FCEFD84805B8}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A480128A-CED7-4744-9FF0-94420A8F30D9}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{91EEBFC0-9699-4D81-ACB0-1EF0D0539D0D}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C6087B8F-0C10-43F5-8E47-59ABAD77A824}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C6CFD134-9828-4FD6-B55A-EF8C3DD43EA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab01.xlsx
+++ b/AfDD_2023_Annex_Table_Tab01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA67D9A7-FA8F-4265-9664-0CA99785E030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B46CCF-8D8D-42FB-999E-33A39C62C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{597C33A1-761A-4DC4-AD92-01273C8E244B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44DA3A22-634D-4C6F-9605-89533EE57500}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="177">
   <si>
     <t>Table 1: Indicators of growth, employment and inequality</t>
   </si>
@@ -69,10 +69,10 @@
     <t>Employment as a % of population 15+, 2020</t>
   </si>
   <si>
-    <t>Gini coefficient (World Bank estimate, most recent measure 2012-21)</t>
-  </si>
-  <si>
-    <t>% of population in extreme poverty ($2.15 a day, most recent measure 2012-21)(1)</t>
+    <t>Gini coefficient (World Bank estimate, most recent measure 2013-22)</t>
+  </si>
+  <si>
+    <t>% of population in extreme poverty ($2.15 a day, most recent measure 2013-22)(1)</t>
   </si>
   <si>
     <t>Human development index (HDI), 2019</t>
@@ -546,10 +546,13 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision, International Labour Organization - ILOSTAT (retrieved 26/09/2022), United Nations Development Programme Human Development Data Online (2021 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -16/09/2022), IMF World Economic Outlook Database October 2022.</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+  </si>
+  <si>
+    <t>For aggregate inflation figures, median values are taken weighted by GDP in PPP dollars.</t>
+  </si>
+  <si>
+    <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision, International Labour Organization - ILOSTAT (retrieved 26/09/2022), United Nations Development Programme Human Development Data Online (2021 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/12/2022), IMF World Economic Outlook Database April 2023.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1462,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7F8055-AAEF-4738-97AD-5B052B9562CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648EF5ED-9A5D-49F4-8DCA-AC88A1FBF586}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1547,22 +1550,22 @@
         <v>34503.773999999998</v>
       </c>
       <c r="D3" s="12">
-        <v>222765.42189</v>
+        <v>224655.61203334801</v>
       </c>
       <c r="E3" s="12">
-        <v>75179.374005999998</v>
+        <v>74790.564022787497</v>
       </c>
       <c r="F3" s="13">
-        <v>0.80412508531688998</v>
+        <v>1.09200170875581</v>
       </c>
       <c r="G3" s="14">
-        <v>6969.6360721999999</v>
+        <v>6511.0446015009002</v>
       </c>
       <c r="H3" s="15">
-        <v>25.765270174689999</v>
+        <v>25.765270173944401</v>
       </c>
       <c r="I3" s="13">
-        <v>76.147000000000006</v>
+        <v>76.459000000000003</v>
       </c>
       <c r="J3" s="13">
         <v>51.3</v>
@@ -1588,22 +1591,22 @@
         <v>2588.4229999999998</v>
       </c>
       <c r="D4" s="20">
-        <v>42199.740320999997</v>
+        <v>42567.414795943499</v>
       </c>
       <c r="E4" s="20">
-        <v>17613.908396999999</v>
+        <v>18767.689364003199</v>
       </c>
       <c r="F4" s="21">
-        <v>11.364127880950299</v>
+        <v>11.8402084705577</v>
       </c>
       <c r="G4" s="22">
-        <v>17579.241376000002</v>
+        <v>16410.113303886901</v>
       </c>
       <c r="H4" s="23">
-        <v>6.68807448441658</v>
+        <v>6.6790352504637598</v>
       </c>
       <c r="I4" s="21">
-        <v>60.72</v>
+        <v>62.686</v>
       </c>
       <c r="J4" s="21">
         <v>53.3</v>
@@ -1629,22 +1632,22 @@
         <v>1192.271</v>
       </c>
       <c r="D5" s="28">
-        <v>11600.858319999999</v>
+        <v>11652.1206325117</v>
       </c>
       <c r="E5" s="28">
-        <v>4743.6239433000001</v>
+        <v>4743.6239432546699</v>
       </c>
       <c r="F5" s="29">
-        <v>7.8833065179017501</v>
+        <v>7.8833065177182897</v>
       </c>
       <c r="G5" s="30">
-        <v>10185.3071</v>
+        <v>10230.314320788701</v>
       </c>
       <c r="H5" s="31">
-        <v>3.7187546617640601</v>
+        <v>3.7187546606876101</v>
       </c>
       <c r="I5" s="29">
-        <v>48.944000000000003</v>
+        <v>50.375</v>
       </c>
       <c r="J5" s="29">
         <v>54.6</v>
@@ -1670,22 +1673,22 @@
         <v>2281.4540000000002</v>
       </c>
       <c r="D6" s="28">
-        <v>5846.0455407999998</v>
+        <v>5994.5296549919703</v>
       </c>
       <c r="E6" s="28">
-        <v>2464.8655638</v>
+        <v>2549.7325902869002</v>
       </c>
       <c r="F6" s="29">
-        <v>2.0500739268146</v>
+        <v>2.1016989564100101</v>
       </c>
       <c r="G6" s="30">
-        <v>2801.2833897999999</v>
+        <v>2872.4333799196902</v>
       </c>
       <c r="H6" s="31">
-        <v>6.0477459191105902</v>
+        <v>6.0477459195062302</v>
       </c>
       <c r="I6" s="29">
-        <v>63.209000000000003</v>
+        <v>64.144000000000005</v>
       </c>
       <c r="J6" s="29">
         <v>44.9</v>
@@ -1711,22 +1714,22 @@
         <v>19889.741999999998</v>
       </c>
       <c r="D7" s="28">
-        <v>32443.716692999998</v>
+        <v>33341.730621460898</v>
       </c>
       <c r="E7" s="28">
-        <v>12001.331308999999</v>
+        <v>12463.357531965999</v>
       </c>
       <c r="F7" s="29">
-        <v>2.19999999935157</v>
+        <v>4.5667438343159503</v>
       </c>
       <c r="G7" s="30">
-        <v>1510.8223386</v>
+        <v>1552.64059002466</v>
       </c>
       <c r="H7" s="31">
         <v>9.3432019307927501</v>
       </c>
       <c r="I7" s="29">
-        <v>75.058999999999997</v>
+        <v>68.27</v>
       </c>
       <c r="J7" s="29">
         <v>38.5</v>
@@ -1752,22 +1755,22 @@
         <v>32077.072</v>
       </c>
       <c r="D8" s="28">
-        <v>43230.806127000003</v>
+        <v>43421.836052005703</v>
       </c>
       <c r="E8" s="28">
-        <v>15776.750936</v>
+        <v>15776.7509356145</v>
       </c>
       <c r="F8" s="29">
         <v>2.3275215190897298</v>
       </c>
       <c r="G8" s="30">
-        <v>1347.7167158</v>
+        <v>1353.6720574747501</v>
       </c>
       <c r="H8" s="31">
-        <v>5.6884869938951503</v>
+        <v>5.6884869912667204</v>
       </c>
       <c r="I8" s="29">
-        <v>78.14</v>
+        <v>78.088999999999999</v>
       </c>
       <c r="J8" s="29">
         <v>54</v>
@@ -1793,22 +1796,22 @@
         <v>2530.1509999999998</v>
       </c>
       <c r="D9" s="28">
-        <v>25399.480473</v>
+        <v>25511.716660585102</v>
       </c>
       <c r="E9" s="28">
-        <v>12307.431273</v>
+        <v>12307.431273381801</v>
       </c>
       <c r="F9" s="29">
-        <v>2.6560508226066899</v>
+        <v>2.6560508199969801</v>
       </c>
       <c r="G9" s="30">
-        <v>9959.6978751999995</v>
+        <v>10003.708165701801</v>
       </c>
       <c r="H9" s="31">
-        <v>3.6202833901294502</v>
+        <v>3.6202833870034001</v>
       </c>
       <c r="I9" s="29">
-        <v>57.994</v>
+        <v>58.167000000000002</v>
       </c>
       <c r="J9" s="29">
         <v>59.1</v>
@@ -1834,22 +1837,22 @@
         <v>59392.254999999997</v>
       </c>
       <c r="D10" s="28">
-        <v>868575.57019999996</v>
+        <v>872413.66486146301</v>
       </c>
       <c r="E10" s="28">
-        <v>418907.28902000003</v>
+        <v>418907.28902418399</v>
       </c>
       <c r="F10" s="29">
         <v>4.9130796514428301</v>
       </c>
       <c r="G10" s="30">
-        <v>14441.839785</v>
+        <v>14505.6559343808</v>
       </c>
       <c r="H10" s="31">
-        <v>4.5556051812415896</v>
+        <v>4.5556051808843199</v>
       </c>
       <c r="I10" s="29">
-        <v>50.55</v>
+        <v>54.7</v>
       </c>
       <c r="J10" s="29">
         <v>63</v>
@@ -1875,22 +1878,22 @@
         <v>19473.125</v>
       </c>
       <c r="D11" s="20">
-        <v>69244.910449999996</v>
+        <v>69550.892485829594</v>
       </c>
       <c r="E11" s="20">
-        <v>21313.366728000001</v>
+        <v>22147.649568093901</v>
       </c>
       <c r="F11" s="21">
-        <v>4.5987340470110603</v>
+        <v>4.5987340444093396</v>
       </c>
       <c r="G11" s="22">
-        <v>3559.0517295999998</v>
+        <v>3571.6348806793799</v>
       </c>
       <c r="H11" s="23">
-        <v>22.020767625831802</v>
+        <v>22.0207676245778</v>
       </c>
       <c r="I11" s="21">
-        <v>73.378</v>
+        <v>60.87</v>
       </c>
       <c r="J11" s="21">
         <v>57.1</v>
@@ -1916,22 +1919,22 @@
         <v>15993.523999999999</v>
       </c>
       <c r="D12" s="28">
-        <v>36625.952472999998</v>
+        <v>36196.036178664697</v>
       </c>
       <c r="E12" s="28">
-        <v>32867.978887999998</v>
+        <v>35967.375627026799</v>
       </c>
       <c r="F12" s="29">
-        <v>7.1588398961113002</v>
+        <v>8.4619725508283494</v>
       </c>
       <c r="G12" s="30">
-        <v>2364.1387371000001</v>
+        <v>2336.3884208104701</v>
       </c>
       <c r="H12" s="31">
-        <v>98.546224939581293</v>
+        <v>98.546224939953802</v>
       </c>
       <c r="I12" s="29">
-        <v>83.442999999999998</v>
+        <v>65.165000000000006</v>
       </c>
       <c r="J12" s="29">
         <v>50.3</v>
@@ -1957,22 +1960,22 @@
         <v>189921.791</v>
       </c>
       <c r="D13" s="37">
-        <v>1357932.5024878001</v>
+        <v>1365305.5539768001</v>
       </c>
       <c r="E13" s="37">
-        <v>613175.92006409995</v>
+        <v>618421.46388059901</v>
       </c>
       <c r="F13" s="38">
-        <v>4.3077331032828496</v>
+        <v>4.4585256814049199</v>
       </c>
       <c r="G13" s="39">
-        <v>7202.1557457109302</v>
+        <v>7128.9265582077396</v>
       </c>
       <c r="H13" s="40">
-        <v>11.659198520850801</v>
+        <v>4.5556051808843199</v>
       </c>
       <c r="I13" s="38">
-        <v>66.758399999999995</v>
+        <v>63.892499999999998</v>
       </c>
       <c r="J13" s="38">
         <v>52.61</v>
@@ -1998,22 +2001,22 @@
         <v>12551.213</v>
       </c>
       <c r="D14" s="28">
-        <v>9851.5483547000003</v>
+        <v>9895.0807500333503</v>
       </c>
       <c r="E14" s="28">
-        <v>3350.8099275</v>
+        <v>3350.8099274818301</v>
       </c>
       <c r="F14" s="29">
-        <v>3.1193023433740299</v>
+        <v>3.11930234606745</v>
       </c>
       <c r="G14" s="30">
-        <v>805.44406493999998</v>
+        <v>809.00319170509999</v>
       </c>
       <c r="H14" s="31">
-        <v>8.3134892860997205</v>
+        <v>8.3134892842137393</v>
       </c>
       <c r="I14" s="29">
-        <v>78.183999999999997</v>
+        <v>78.486999999999995</v>
       </c>
       <c r="J14" s="29">
         <v>38.6</v>
@@ -2039,22 +2042,22 @@
         <v>27198.628000000001</v>
       </c>
       <c r="D15" s="28">
-        <v>110891.26908</v>
+        <v>111381.27962556299</v>
       </c>
       <c r="E15" s="28">
-        <v>45391.496407999999</v>
+        <v>45391.496408315303</v>
       </c>
       <c r="F15" s="29">
-        <v>3.6487176666416801</v>
+        <v>3.6487176659821801</v>
       </c>
       <c r="G15" s="30">
-        <v>4073.2516122000002</v>
+        <v>4091.2506508188399</v>
       </c>
       <c r="H15" s="31">
-        <v>2.2619561472474898</v>
+        <v>2.2619561486631099</v>
       </c>
       <c r="I15" s="29">
-        <v>75.266999999999996</v>
+        <v>71.177999999999997</v>
       </c>
       <c r="J15" s="29">
         <v>46.6</v>
@@ -2080,22 +2083,22 @@
         <v>5457.1540000000005</v>
       </c>
       <c r="D16" s="28">
-        <v>5023.2268507999997</v>
+        <v>5045.4236760543699</v>
       </c>
       <c r="E16" s="28">
-        <v>2583.7589849000001</v>
+        <v>2584.6193586337699</v>
       </c>
       <c r="F16" s="29">
-        <v>0.98292343133869997</v>
+        <v>0.98292343122549997</v>
       </c>
       <c r="G16" s="30">
-        <v>1020.9810672</v>
+        <v>1025.49261708422</v>
       </c>
       <c r="H16" s="31">
-        <v>4.2643644609594098</v>
+        <v>4.2643644595907997</v>
       </c>
       <c r="I16" s="29">
-        <v>70.896000000000001</v>
+        <v>69.822000000000003</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>18</v>
@@ -2121,22 +2124,22 @@
         <v>17179.740000000002</v>
       </c>
       <c r="D17" s="45">
-        <v>27035.600169000001</v>
+        <v>27162.187522451499</v>
       </c>
       <c r="E17" s="45">
-        <v>11796.048937</v>
+        <v>11800.1917091056</v>
       </c>
       <c r="F17" s="46">
-        <v>-1.1136004058119999</v>
+        <v>-1.1022521776400001</v>
       </c>
       <c r="G17" s="47">
-        <v>1598.3210268</v>
+        <v>1605.8047604168801</v>
       </c>
       <c r="H17" s="48">
-        <v>-0.77284437338959999</v>
+        <v>-0.77284437035910003</v>
       </c>
       <c r="I17" s="46">
-        <v>57.862000000000002</v>
+        <v>59.314999999999998</v>
       </c>
       <c r="J17" s="46">
         <v>37.5</v>
@@ -2162,22 +2165,22 @@
         <v>5835.8059999999996</v>
       </c>
       <c r="D18" s="45">
-        <v>20612.680593000001</v>
+        <v>21866.3640426235</v>
       </c>
       <c r="E18" s="45">
-        <v>12641.150727</v>
+        <v>12130.855358092</v>
       </c>
       <c r="F18" s="46">
-        <v>-0.55922913133289998</v>
+        <v>1.50003178327904</v>
       </c>
       <c r="G18" s="47">
-        <v>4295.3687798000001</v>
+        <v>4556.6173218047697</v>
       </c>
       <c r="H18" s="48">
-        <v>1.9690254933154601</v>
+        <v>1.9690254939855401</v>
       </c>
       <c r="I18" s="46">
-        <v>65.715999999999994</v>
+        <v>67.180999999999997</v>
       </c>
       <c r="J18" s="46" t="s">
         <v>18</v>
@@ -2203,28 +2206,28 @@
         <v>95894.118000000002</v>
       </c>
       <c r="D19" s="20">
-        <v>113066.88544</v>
+        <v>116993.320558452</v>
       </c>
       <c r="E19" s="20">
-        <v>56553.077545</v>
+        <v>56515.786358056401</v>
       </c>
       <c r="F19" s="21">
-        <v>6.1626415376418997</v>
+        <v>6.2287371649486296</v>
       </c>
       <c r="G19" s="22">
-        <v>1206.0376583</v>
+        <v>1247.91931626427</v>
       </c>
       <c r="H19" s="23">
-        <v>8.98915089504173</v>
+        <v>8.98915089460146</v>
       </c>
       <c r="I19" s="21">
-        <v>64.814999999999998</v>
-      </c>
-      <c r="J19" s="21">
-        <v>42.1</v>
-      </c>
-      <c r="K19" s="21">
-        <v>69.7</v>
+        <v>65.307000000000002</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="L19" s="24">
         <v>0.48</v>
@@ -2244,22 +2247,22 @@
         <v>1634.4659999999999</v>
       </c>
       <c r="D20" s="45">
-        <v>25687.652256000001</v>
+        <v>25801.1618279135</v>
       </c>
       <c r="E20" s="45">
-        <v>12269.393341000001</v>
+        <v>12269.393341150801</v>
       </c>
       <c r="F20" s="46">
-        <v>-3.1869104978799001</v>
+        <v>-3.1869104987660002</v>
       </c>
       <c r="G20" s="47">
-        <v>17686.957177</v>
+        <v>17765.112974085801</v>
       </c>
       <c r="H20" s="48">
-        <v>-9.36528660432E-2</v>
+        <v>-9.3652863881600004E-2</v>
       </c>
       <c r="I20" s="46">
-        <v>54.524000000000001</v>
+        <v>54.085000000000001</v>
       </c>
       <c r="J20" s="46" t="s">
         <v>18</v>
@@ -2285,22 +2288,22 @@
         <v>2341.1790000000001</v>
       </c>
       <c r="D21" s="45">
-        <v>35527.719220999999</v>
+        <v>35684.710453441898</v>
       </c>
       <c r="E21" s="45">
-        <v>20242.226084999998</v>
+        <v>20242.226084819999</v>
       </c>
       <c r="F21" s="46">
-        <v>1.4837407013133199</v>
+        <v>1.4837407016796</v>
       </c>
       <c r="G21" s="47">
-        <v>16643.033390000001</v>
+        <v>16716.576256942899</v>
       </c>
       <c r="H21" s="48">
-        <v>1.07876045118658</v>
+        <v>1.0772871949728899</v>
       </c>
       <c r="I21" s="46">
-        <v>48.204000000000001</v>
+        <v>46.354999999999997</v>
       </c>
       <c r="J21" s="46">
         <v>38</v>
@@ -2326,22 +2329,22 @@
         <v>223.107</v>
       </c>
       <c r="D22" s="28">
-        <v>984.65164445999994</v>
+        <v>989.00266047318905</v>
       </c>
       <c r="E22" s="28">
-        <v>517.82401461999996</v>
+        <v>530.84570473784197</v>
       </c>
       <c r="F22" s="29">
-        <v>1.8787863633108</v>
+        <v>1.87878636278047</v>
       </c>
       <c r="G22" s="30">
-        <v>4415.4782262999997</v>
+        <v>4434.98950884838</v>
       </c>
       <c r="H22" s="31">
-        <v>8.1379925486819893</v>
+        <v>8.1377703837872293</v>
       </c>
       <c r="I22" s="29">
-        <v>53.112000000000002</v>
+        <v>53.536999999999999</v>
       </c>
       <c r="J22" s="29">
         <v>40.700000000000003</v>
@@ -2367,28 +2370,28 @@
         <v>168315.41099999999</v>
       </c>
       <c r="D23" s="37">
-        <v>348681.23360896</v>
+        <v>354818.53111700597</v>
       </c>
       <c r="E23" s="37">
-        <v>165345.78597001999</v>
+        <v>164816.22425039401</v>
       </c>
       <c r="F23" s="38">
-        <v>3.0633555158425598</v>
+        <v>3.2309026978242299</v>
       </c>
       <c r="G23" s="39">
-        <v>2159.6571266710998</v>
+        <v>2198.4680879939701</v>
       </c>
       <c r="H23" s="40">
-        <v>4.1130803775935503</v>
+        <v>2.2619561486631099</v>
       </c>
       <c r="I23" s="38">
-        <v>63.175555555555597</v>
+        <v>62.807444444444499</v>
       </c>
       <c r="J23" s="38">
-        <v>40.5833333333333</v>
+        <v>40.28</v>
       </c>
       <c r="K23" s="38">
-        <v>34.9166666666667</v>
+        <v>27.96</v>
       </c>
       <c r="L23" s="41">
         <v>0.52944444444444005</v>
@@ -2408,22 +2411,22 @@
         <v>821.62599999999998</v>
       </c>
       <c r="D24" s="28">
-        <v>2913.3887862000001</v>
+        <v>2927.0475817644301</v>
       </c>
       <c r="E24" s="28">
-        <v>1284.2898215</v>
+        <v>1285.3028860920199</v>
       </c>
       <c r="F24" s="29">
-        <v>2.2428566669652699</v>
+        <v>2.11219558419391</v>
       </c>
       <c r="G24" s="30">
-        <v>3162.1013521</v>
+        <v>3176.9261829542902</v>
       </c>
       <c r="H24" s="31">
-        <v>-0.17562825148950001</v>
+        <v>-1.5189063875899999E-2</v>
       </c>
       <c r="I24" s="29">
-        <v>43.17</v>
+        <v>43.677</v>
       </c>
       <c r="J24" s="29">
         <v>45.3</v>
@@ -2449,22 +2452,22 @@
         <v>1105.557</v>
       </c>
       <c r="D25" s="28">
-        <v>5967.4262848999997</v>
+        <v>5993.7953743608696</v>
       </c>
       <c r="E25" s="28">
-        <v>3372.3031867</v>
+        <v>3372.30318665919</v>
       </c>
       <c r="F25" s="29">
         <v>4.8123827665960102</v>
       </c>
       <c r="G25" s="30">
-        <v>5954.3445898</v>
+        <v>5980.6558734069904</v>
       </c>
       <c r="H25" s="31">
-        <v>1.1797637521134401</v>
+        <v>1.17976375303748</v>
       </c>
       <c r="I25" s="29">
-        <v>31.44</v>
+        <v>30.751000000000001</v>
       </c>
       <c r="J25" s="29">
         <v>41.6</v>
@@ -2490,22 +2493,22 @@
         <v>3620.3119999999999</v>
       </c>
       <c r="D26" s="28">
-        <v>6924.7510683</v>
+        <v>6955.35042084622</v>
       </c>
       <c r="E26" s="28">
-        <v>2200.8364695999999</v>
+        <v>2211.95399725579</v>
       </c>
       <c r="F26" s="29">
-        <v>2.89492517912515</v>
+        <v>2.8949251777657499</v>
       </c>
       <c r="G26" s="30">
-        <v>1923.0077945999999</v>
+        <v>1931.5052543310801</v>
       </c>
       <c r="H26" s="31">
-        <v>6.64215184054307</v>
+        <v>6.6421518407489204</v>
       </c>
       <c r="I26" s="29">
-        <v>75.183999999999997</v>
+        <v>77.046000000000006</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>18</v>
@@ -2531,22 +2534,22 @@
         <v>120283.026</v>
       </c>
       <c r="D27" s="28">
-        <v>312749.54197000002</v>
+        <v>314131.53149872401</v>
       </c>
       <c r="E27" s="28">
-        <v>99269.424776</v>
+        <v>99269.424776251704</v>
       </c>
       <c r="F27" s="29">
         <v>6.2650428413474799</v>
       </c>
       <c r="G27" s="30">
-        <v>3136.8695585999999</v>
+        <v>3082.74319429562</v>
       </c>
       <c r="H27" s="31">
-        <v>26.776402373386102</v>
+        <v>26.7940034329601</v>
       </c>
       <c r="I27" s="29">
-        <v>77.522000000000006</v>
+        <v>79.802000000000007</v>
       </c>
       <c r="J27" s="29">
         <v>35</v>
@@ -2572,22 +2575,22 @@
         <v>53005.614000000001</v>
       </c>
       <c r="D28" s="28">
-        <v>276280.61008999997</v>
+        <v>277501.449322559</v>
       </c>
       <c r="E28" s="28">
-        <v>110519.45556</v>
+        <v>110347.050865439</v>
       </c>
       <c r="F28" s="29">
         <v>7.5173668351833598</v>
       </c>
       <c r="G28" s="30">
-        <v>5547.7344088</v>
+        <v>5572.2489479217102</v>
       </c>
       <c r="H28" s="31">
-        <v>6.1093480709184496</v>
+        <v>6.10934807127735</v>
       </c>
       <c r="I28" s="29">
-        <v>73.088999999999999</v>
+        <v>73.224000000000004</v>
       </c>
       <c r="J28" s="29">
         <v>40.799999999999997</v>
@@ -2613,28 +2616,28 @@
         <v>28915.652999999998</v>
       </c>
       <c r="D29" s="28">
-        <v>46447.332069999997</v>
+        <v>47298.034457627102</v>
       </c>
       <c r="E29" s="28">
-        <v>14283.57338</v>
+        <v>14554.7541152105</v>
       </c>
       <c r="F29" s="29">
-        <v>4.2999275549758602</v>
+        <v>5.7396157374235397</v>
       </c>
       <c r="G29" s="30">
-        <v>1648.3544634</v>
+        <v>1678.5447674649399</v>
       </c>
       <c r="H29" s="31">
-        <v>5.8194278684514202</v>
+        <v>5.8194278710197196</v>
       </c>
       <c r="I29" s="29">
-        <v>84.081999999999994</v>
-      </c>
-      <c r="J29" s="29">
-        <v>42.6</v>
-      </c>
-      <c r="K29" s="29">
-        <v>80.7</v>
+        <v>84.712999999999994</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="L29" s="32">
         <v>0.52800000000000002</v>
@@ -2654,22 +2657,22 @@
         <v>1298.915</v>
       </c>
       <c r="D30" s="28">
-        <v>28157.269843999999</v>
+        <v>29235.0600593239</v>
       </c>
       <c r="E30" s="28">
-        <v>11156.637063</v>
+        <v>11478.256489633501</v>
       </c>
       <c r="F30" s="29">
-        <v>4.0441227072286301</v>
+        <v>3.4991246315849902</v>
       </c>
       <c r="G30" s="30">
-        <v>22278.295105000001</v>
+        <v>23131.052798447199</v>
       </c>
       <c r="H30" s="31">
-        <v>4.0388413021854204</v>
+        <v>4.0388413039330802</v>
       </c>
       <c r="I30" s="29">
-        <v>56.472999999999999</v>
+        <v>58.031999999999996</v>
       </c>
       <c r="J30" s="29">
         <v>36.799999999999997</v>
@@ -2695,22 +2698,22 @@
         <v>13461.888000000001</v>
       </c>
       <c r="D31" s="28">
-        <v>33110.56914</v>
+        <v>33256.879377898003</v>
       </c>
       <c r="E31" s="28">
-        <v>11067.036252</v>
+        <v>11067.036252370999</v>
       </c>
       <c r="F31" s="29">
         <v>10.873500792034401</v>
       </c>
       <c r="G31" s="30">
-        <v>2555.3299228000001</v>
+        <v>2566.6215114851602</v>
       </c>
       <c r="H31" s="31">
-        <v>0.81775706377596002</v>
+        <v>0.82795488623743996</v>
       </c>
       <c r="I31" s="29">
-        <v>82.156999999999996</v>
+        <v>56.97</v>
       </c>
       <c r="J31" s="29">
         <v>43.7</v>
@@ -2736,19 +2739,19 @@
         <v>106.47</v>
       </c>
       <c r="D32" s="28">
-        <v>3136.2605016000002</v>
+        <v>3150.1191284496999</v>
       </c>
       <c r="E32" s="28">
-        <v>1457.1145931000001</v>
+        <v>1457.1145930734799</v>
       </c>
       <c r="F32" s="29">
-        <v>7.9136979966713703</v>
+        <v>7.9136979958662597</v>
       </c>
       <c r="G32" s="30">
-        <v>31987.523401999999</v>
+        <v>32128.871083076501</v>
       </c>
       <c r="H32" s="31">
-        <v>9.7704371271623707</v>
+        <v>9.7704371245567891</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>18</v>
@@ -2777,7 +2780,7 @@
         <v>17065.580999999998</v>
       </c>
       <c r="D33" s="28">
-        <v>18904.425089</v>
+        <v>18987.9606793311</v>
       </c>
       <c r="E33" s="28">
         <v>7628</v>
@@ -2786,7 +2789,7 @@
         <v>2.9382135661517799</v>
       </c>
       <c r="G33" s="30">
-        <v>1244.6312922</v>
+        <v>1250.13111616022</v>
       </c>
       <c r="H33" s="31">
         <v>4.6197702691372502</v>
@@ -2794,11 +2797,11 @@
       <c r="I33" s="29">
         <v>33.707000000000001</v>
       </c>
-      <c r="J33" s="29">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="K33" s="29">
-        <v>70.7</v>
+      <c r="J33" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="L33" s="32" t="s">
         <v>18</v>
@@ -2818,22 +2821,22 @@
         <v>10748.272000000001</v>
       </c>
       <c r="D34" s="20">
-        <v>11947.176740000001</v>
+        <v>6192.7217701484597</v>
       </c>
       <c r="E34" s="20">
-        <v>5166.5930662999999</v>
+        <v>5935.0833610995896</v>
       </c>
       <c r="F34" s="21">
-        <v>5.3283380317676698</v>
+        <v>5.32918198855144</v>
       </c>
       <c r="G34" s="22">
-        <v>842.61193178999997</v>
+        <v>436.76103296290302</v>
       </c>
       <c r="H34" s="23">
-        <v>30.2285048603791</v>
+        <v>30.228504863262501</v>
       </c>
       <c r="I34" s="21">
-        <v>71.177000000000007</v>
+        <v>69.891999999999996</v>
       </c>
       <c r="J34" s="21">
         <v>44.1</v>
@@ -2859,22 +2862,22 @@
         <v>45657.201999999997</v>
       </c>
       <c r="D35" s="28">
-        <v>194509.11322</v>
+        <v>195368.61746448599</v>
       </c>
       <c r="E35" s="28">
-        <v>35140.247865999998</v>
+        <v>34738.390738516697</v>
       </c>
       <c r="F35" s="29">
-        <v>0.49999999901809</v>
+        <v>0.50000000000033995</v>
       </c>
       <c r="G35" s="30">
-        <v>4275.0720160000001</v>
+        <v>4293.9628663024096</v>
       </c>
       <c r="H35" s="31">
-        <v>359.09214098964401</v>
+        <v>359.09214098877902</v>
       </c>
       <c r="I35" s="29">
-        <v>47.643000000000001</v>
+        <v>48.149000000000001</v>
       </c>
       <c r="J35" s="29">
         <v>34.200000000000003</v>
@@ -2900,22 +2903,22 @@
         <v>63588.334000000003</v>
       </c>
       <c r="D36" s="28">
-        <v>185463.36755</v>
+        <v>186351.87426177901</v>
       </c>
       <c r="E36" s="28">
-        <v>70309.210539000007</v>
+        <v>69938.069501207996</v>
       </c>
       <c r="F36" s="29">
-        <v>4.9357198128512598</v>
+        <v>4.94665995282186</v>
       </c>
       <c r="G36" s="30">
-        <v>3105.0437075</v>
+        <v>3119.91916365313</v>
       </c>
       <c r="H36" s="31">
-        <v>3.6899692501946899</v>
+        <v>3.6899692502561998</v>
       </c>
       <c r="I36" s="29">
-        <v>83.05</v>
+        <v>80.39</v>
       </c>
       <c r="J36" s="29">
         <v>40.5</v>
@@ -2941,22 +2944,22 @@
         <v>45853.777999999998</v>
       </c>
       <c r="D37" s="28">
-        <v>118045.219</v>
+        <v>117880.38453202001</v>
       </c>
       <c r="E37" s="28">
-        <v>42959.448647999998</v>
+        <v>42940.920511488897</v>
       </c>
       <c r="F37" s="29">
-        <v>6.6860096397767697</v>
+        <v>6.0037077530066103</v>
       </c>
       <c r="G37" s="30">
-        <v>2780.1265093000002</v>
+        <v>2776.24443181795</v>
       </c>
       <c r="H37" s="31">
-        <v>2.2072393111433501</v>
+        <v>2.207239312914</v>
       </c>
       <c r="I37" s="29">
-        <v>66.81</v>
+        <v>69.338999999999999</v>
       </c>
       <c r="J37" s="29">
         <v>42.7</v>
@@ -2982,28 +2985,28 @@
         <v>405532.228</v>
       </c>
       <c r="D38" s="37">
-        <v>1244556.451354</v>
+        <v>1245230.82592932</v>
       </c>
       <c r="E38" s="37">
-        <v>415814.17122120003</v>
+        <v>416223.66127430002</v>
       </c>
       <c r="F38" s="38">
-        <v>5.39239049602834</v>
+        <v>5.3689830287380502</v>
       </c>
       <c r="G38" s="39">
-        <v>3334.7062390502201</v>
+        <v>3320.8249948869002</v>
       </c>
       <c r="H38" s="40">
-        <v>65.723451740943602</v>
+        <v>6.10934807127735</v>
       </c>
       <c r="I38" s="38">
-        <v>63.5003076923077</v>
+        <v>61.976307692307699</v>
       </c>
       <c r="J38" s="38">
-        <v>39.707692307692298</v>
+        <v>39.709090909090897</v>
       </c>
       <c r="K38" s="38">
-        <v>35.984615384615402</v>
+        <v>28.763636363636401</v>
       </c>
       <c r="L38" s="41">
         <v>0.56230769230768995</v>
@@ -3023,22 +3026,22 @@
         <v>44177.968999999997</v>
       </c>
       <c r="D39" s="45">
-        <v>535802.32643000002</v>
+        <v>529090.85073440801</v>
       </c>
       <c r="E39" s="45">
-        <v>162710.80995</v>
+        <v>163137.87825924001</v>
       </c>
       <c r="F39" s="46">
-        <v>3.50000000009838</v>
+        <v>3.39999999999994</v>
       </c>
       <c r="G39" s="47">
-        <v>12050.737015999999</v>
+        <v>11869.215230997999</v>
       </c>
       <c r="H39" s="48">
         <v>7.22606307415474</v>
       </c>
       <c r="I39" s="46">
-        <v>39.874000000000002</v>
+        <v>39.348999999999997</v>
       </c>
       <c r="J39" s="46" t="s">
         <v>18</v>
@@ -3064,28 +3067,28 @@
         <v>109262.178</v>
       </c>
       <c r="D40" s="28">
-        <v>1455503.0634999999</v>
+        <v>1467996.81495416</v>
       </c>
       <c r="E40" s="28">
-        <v>423145.49404000002</v>
+        <v>423300.33352745097</v>
       </c>
       <c r="F40" s="29">
-        <v>3.2818251006619499</v>
+        <v>3.30662989992154</v>
       </c>
       <c r="G40" s="30">
-        <v>14255.661738999999</v>
+        <v>14378.0295294237</v>
       </c>
       <c r="H40" s="31">
-        <v>4.5020894110223004</v>
+        <v>4.4997240400532803</v>
       </c>
       <c r="I40" s="29">
-        <v>41.215000000000003</v>
+        <v>41.54</v>
       </c>
       <c r="J40" s="29">
-        <v>31.5</v>
+        <v>31.9</v>
       </c>
       <c r="K40" s="29">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L40" s="32">
         <v>0.70699999999999996</v>
@@ -3105,22 +3108,22 @@
         <v>6735.277</v>
       </c>
       <c r="D41" s="45">
-        <v>147143.69347999999</v>
+        <v>147885.52744283501</v>
       </c>
       <c r="E41" s="45">
-        <v>39007.482152999997</v>
+        <v>39007.482152681099</v>
       </c>
       <c r="F41" s="46">
-        <v>28.291108963891499</v>
+        <v>28.334752000902999</v>
       </c>
       <c r="G41" s="47">
-        <v>21928.973114</v>
+        <v>22039.529377400799</v>
       </c>
       <c r="H41" s="48">
-        <v>2.76888654083514</v>
+        <v>2.8795052842700799</v>
       </c>
       <c r="I41" s="46">
-        <v>47.097999999999999</v>
+        <v>45.969000000000001</v>
       </c>
       <c r="J41" s="46" t="s">
         <v>18</v>
@@ -3146,22 +3149,22 @@
         <v>4614.9740000000002</v>
       </c>
       <c r="D42" s="45">
-        <v>26942.878724999999</v>
+        <v>27061.934938517301</v>
       </c>
       <c r="E42" s="45">
-        <v>9891.5557776999995</v>
+        <v>9891.5557777487193</v>
       </c>
       <c r="F42" s="46">
-        <v>2.4450405295155999</v>
+        <v>2.4450405298867199</v>
       </c>
       <c r="G42" s="47">
-        <v>6354.4091606000002</v>
+        <v>6382.4882646935503</v>
       </c>
       <c r="H42" s="48">
-        <v>3.7665502576578</v>
+        <v>3.5583029787009002</v>
       </c>
       <c r="I42" s="46">
-        <v>44.725999999999999</v>
+        <v>40.591000000000001</v>
       </c>
       <c r="J42" s="46">
         <v>32.6</v>
@@ -3187,22 +3190,22 @@
         <v>37076.584000000003</v>
       </c>
       <c r="D43" s="28">
-        <v>333242.30213000003</v>
+        <v>334714.84585101</v>
       </c>
       <c r="E43" s="28">
-        <v>142866.58312</v>
+        <v>142866.58312469599</v>
       </c>
       <c r="F43" s="29">
-        <v>7.92966793810211</v>
+        <v>7.9296679419552198</v>
       </c>
       <c r="G43" s="30">
-        <v>9176.9422006999994</v>
+        <v>9217.4936207696901</v>
       </c>
       <c r="H43" s="31">
-        <v>1.39965843015517</v>
+        <v>1.39965842550414</v>
       </c>
       <c r="I43" s="29">
-        <v>43.155999999999999</v>
+        <v>43.456000000000003</v>
       </c>
       <c r="J43" s="29">
         <v>39.5</v>
@@ -3228,22 +3231,22 @@
         <v>12262.946</v>
       </c>
       <c r="D44" s="28">
-        <v>138391.50706</v>
+        <v>140672.540097424</v>
       </c>
       <c r="E44" s="28">
-        <v>46841.560897000003</v>
+        <v>46688.412170077303</v>
       </c>
       <c r="F44" s="29">
-        <v>3.34280247653327</v>
+        <v>4.4053620608957198</v>
       </c>
       <c r="G44" s="30">
-        <v>11514.860079</v>
+        <v>11704.6533454488</v>
       </c>
       <c r="H44" s="31">
-        <v>5.7067365934038197</v>
+        <v>5.7067365931682303</v>
       </c>
       <c r="I44" s="29">
-        <v>45.994999999999997</v>
+        <v>44.554000000000002</v>
       </c>
       <c r="J44" s="29">
         <v>32.799999999999997</v>
@@ -3269,28 +3272,28 @@
         <v>214129.92800000001</v>
       </c>
       <c r="D45" s="37">
-        <v>2637025.7713250001</v>
+        <v>2647422.5140183601</v>
       </c>
       <c r="E45" s="37">
-        <v>824463.48593770002</v>
+        <v>824892.24501189496</v>
       </c>
       <c r="F45" s="38">
-        <v>5.3036514659553502</v>
+        <v>5.3574332412243004</v>
       </c>
       <c r="G45" s="39">
-        <v>12835.481146652301</v>
+        <v>12882.443529284201</v>
       </c>
       <c r="H45" s="40">
-        <v>4.6224961632045396</v>
+        <v>4.4997240400532803</v>
       </c>
       <c r="I45" s="38">
-        <v>43.677333333333301</v>
+        <v>42.576500000000003</v>
       </c>
       <c r="J45" s="38">
-        <v>34.1</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K45" s="38">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L45" s="41">
         <v>0.69183333333332997</v>
@@ -3310,22 +3313,22 @@
         <v>12996.895</v>
       </c>
       <c r="D46" s="28">
-        <v>47426.114604000002</v>
+        <v>47635.6829172465</v>
       </c>
       <c r="E46" s="28">
-        <v>17699.382258000001</v>
+        <v>17699.3822576602</v>
       </c>
       <c r="F46" s="29">
-        <v>7.1554516453328896</v>
+        <v>7.1554516458795403</v>
       </c>
       <c r="G46" s="30">
-        <v>3798.0268510000001</v>
+        <v>3652.85630732339</v>
       </c>
       <c r="H46" s="31">
         <v>1.7000000000003199</v>
       </c>
       <c r="I46" s="29">
-        <v>70.834000000000003</v>
+        <v>62.081000000000003</v>
       </c>
       <c r="J46" s="29">
         <v>37.799999999999997</v>
@@ -3351,22 +3354,22 @@
         <v>22100.683000000001</v>
       </c>
       <c r="D47" s="28">
-        <v>52998.337658999997</v>
+        <v>53435.002540109301</v>
       </c>
       <c r="E47" s="28">
-        <v>19094.891888999999</v>
+        <v>19748.086114474099</v>
       </c>
       <c r="F47" s="29">
-        <v>6.9169204479270698</v>
+        <v>6.9045617450555401</v>
       </c>
       <c r="G47" s="30">
-        <v>2462.6728499000001</v>
+        <v>2413.0113952276502</v>
       </c>
       <c r="H47" s="31">
-        <v>3.8548934231584999</v>
+        <v>3.9081280003847101</v>
       </c>
       <c r="I47" s="29">
-        <v>64.795000000000002</v>
+        <v>64.756</v>
       </c>
       <c r="J47" s="29">
         <v>47.3</v>
@@ -3392,22 +3395,22 @@
         <v>587.92499999999995</v>
       </c>
       <c r="D48" s="45">
-        <v>4330.0938893000002</v>
+        <v>4349.2278723746804</v>
       </c>
       <c r="E48" s="45">
-        <v>2112.3478341999999</v>
+        <v>2112.3478342154799</v>
       </c>
       <c r="F48" s="46">
-        <v>6.9999999970725097</v>
+        <v>6.9999999999995897</v>
       </c>
       <c r="G48" s="47">
-        <v>7685.0199491000003</v>
+        <v>7718.9788065580397</v>
       </c>
       <c r="H48" s="48">
-        <v>1.86344194608306</v>
+        <v>1.8634419465745999</v>
       </c>
       <c r="I48" s="46">
-        <v>52.987000000000002</v>
+        <v>54.249000000000002</v>
       </c>
       <c r="J48" s="46">
         <v>42.4</v>
@@ -3433,22 +3436,22 @@
         <v>27478.249</v>
       </c>
       <c r="D49" s="28">
-        <v>160647.55353</v>
+        <v>162143.42402191699</v>
       </c>
       <c r="E49" s="28">
-        <v>70080.029490999994</v>
+        <v>71712.031933781196</v>
       </c>
       <c r="F49" s="29">
-        <v>7.0000000007970602</v>
+        <v>6.9999999999999902</v>
       </c>
       <c r="G49" s="30">
-        <v>5808.2144807000004</v>
+        <v>5862.2976987328202</v>
       </c>
       <c r="H49" s="31">
-        <v>4.1591965799015203</v>
+        <v>4.1591965791182801</v>
       </c>
       <c r="I49" s="29">
-        <v>55.411000000000001</v>
+        <v>64.064999999999998</v>
       </c>
       <c r="J49" s="29">
         <v>37.200000000000003</v>
@@ -3474,28 +3477,28 @@
         <v>2639.9160000000002</v>
       </c>
       <c r="D50" s="28">
-        <v>6022.4447149999996</v>
+        <v>6049.0569220285297</v>
       </c>
       <c r="E50" s="28">
-        <v>2034.4414327</v>
+        <v>2034.44143273645</v>
       </c>
       <c r="F50" s="29">
-        <v>4.2654920878147502</v>
+        <v>4.2654920880355496</v>
       </c>
       <c r="G50" s="30">
-        <v>2416.6847604999998</v>
+        <v>2427.3636987630398</v>
       </c>
       <c r="H50" s="31">
-        <v>7.3703606663005301</v>
+        <v>7.3703606115290299</v>
       </c>
       <c r="I50" s="29">
-        <v>56.771000000000001</v>
+        <v>60.271999999999998</v>
       </c>
       <c r="J50" s="29">
-        <v>35.9</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="K50" s="29">
-        <v>13.4</v>
+        <v>17.2</v>
       </c>
       <c r="L50" s="32">
         <v>0.496</v>
@@ -3515,28 +3518,28 @@
         <v>32833.031000000003</v>
       </c>
       <c r="D51" s="20">
-        <v>196049.79702</v>
+        <v>196916.10929333101</v>
       </c>
       <c r="E51" s="20">
-        <v>79156.955298000001</v>
+        <v>79156.955298471803</v>
       </c>
       <c r="F51" s="21">
-        <v>5.3564779150509798</v>
+        <v>5.3564779177171404</v>
       </c>
       <c r="G51" s="22">
-        <v>6244.7752596</v>
+        <v>6272.3699092448196</v>
       </c>
       <c r="H51" s="23">
-        <v>9.9756858913587596</v>
+        <v>9.9756858931185306</v>
       </c>
       <c r="I51" s="21">
-        <v>68.412999999999997</v>
+        <v>68.376999999999995</v>
       </c>
       <c r="J51" s="21">
         <v>43.5</v>
       </c>
       <c r="K51" s="21">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="L51" s="24">
         <v>0.61099999999999999</v>
@@ -3556,22 +3559,22 @@
         <v>13531.906000000001</v>
       </c>
       <c r="D52" s="28">
-        <v>39195.012254000001</v>
+        <v>39573.454833086696</v>
       </c>
       <c r="E52" s="28">
-        <v>16146.434187000001</v>
+        <v>16155.314984516801</v>
       </c>
       <c r="F52" s="29">
-        <v>3.75088682678577</v>
+        <v>4.2917921205071403</v>
       </c>
       <c r="G52" s="30">
-        <v>2737.7450346999999</v>
+        <v>2764.17899229657</v>
       </c>
       <c r="H52" s="31">
-        <v>12.596573736753999</v>
+        <v>12.596573734347301</v>
       </c>
       <c r="I52" s="29">
-        <v>61.692999999999998</v>
+        <v>52.378</v>
       </c>
       <c r="J52" s="29">
         <v>29.6</v>
@@ -3597,22 +3600,22 @@
         <v>2060.721</v>
       </c>
       <c r="D53" s="28">
-        <v>4864.7474961999997</v>
+        <v>4951.3939472652801</v>
       </c>
       <c r="E53" s="28">
-        <v>1702.7588788999999</v>
+        <v>1725.46233065703</v>
       </c>
       <c r="F53" s="29">
-        <v>5.0000000001767502</v>
+        <v>6.3999999999999897</v>
       </c>
       <c r="G53" s="30">
-        <v>2622.3076627999999</v>
+        <v>2669.0138181796401</v>
       </c>
       <c r="H53" s="31">
-        <v>3.2739505917603902</v>
+        <v>3.2739505920041498</v>
       </c>
       <c r="I53" s="29">
-        <v>70.59</v>
+        <v>55.424999999999997</v>
       </c>
       <c r="J53" s="29">
         <v>34.799999999999997</v>
@@ -3638,22 +3641,22 @@
         <v>5193.4160000000002</v>
       </c>
       <c r="D54" s="28">
-        <v>7958.5107027000004</v>
+        <v>7993.5650538333402</v>
       </c>
       <c r="E54" s="28">
-        <v>3508.7034101999998</v>
+        <v>3508.8634526778201</v>
       </c>
       <c r="F54" s="29">
-        <v>5.0109751965063296</v>
+        <v>5.0109751952555301</v>
       </c>
       <c r="G54" s="30">
-        <v>1536.3920275</v>
+        <v>1543.1592768017999</v>
       </c>
       <c r="H54" s="31">
-        <v>7.8158724210470503</v>
+        <v>7.8158724211053503</v>
       </c>
       <c r="I54" s="29">
-        <v>73.974999999999994</v>
+        <v>75.951999999999998</v>
       </c>
       <c r="J54" s="29">
         <v>35.299999999999997</v>
@@ -3679,22 +3682,22 @@
         <v>21904.983</v>
       </c>
       <c r="D55" s="28">
-        <v>51033.003115</v>
+        <v>51257.746486191099</v>
       </c>
       <c r="E55" s="28">
-        <v>19150.635846000001</v>
+        <v>19656.025198198098</v>
       </c>
       <c r="F55" s="29">
-        <v>3.0563865913870698</v>
+        <v>3.0548521639981501</v>
       </c>
       <c r="G55" s="30">
-        <v>2446.6492616</v>
+        <v>2338.9398883797799</v>
       </c>
       <c r="H55" s="31">
-        <v>3.8083325792993099</v>
+        <v>3.80833257901772</v>
       </c>
       <c r="I55" s="29">
-        <v>68.403000000000006</v>
+        <v>65.92</v>
       </c>
       <c r="J55" s="29">
         <v>36.1</v>
@@ -3720,22 +3723,22 @@
         <v>25252.722000000002</v>
       </c>
       <c r="D56" s="28">
-        <v>32928.344678000001</v>
+        <v>33067.849763874903</v>
       </c>
       <c r="E56" s="28">
-        <v>14958.740970000001</v>
+        <v>14922.728893445201</v>
       </c>
       <c r="F56" s="29">
-        <v>1.3493438887676199</v>
+        <v>1.3993039513252401</v>
       </c>
       <c r="G56" s="30">
-        <v>1310.2775240999999</v>
+        <v>1315.82868013702</v>
       </c>
       <c r="H56" s="31">
         <v>3.83786802840467</v>
       </c>
       <c r="I56" s="29">
-        <v>72.793000000000006</v>
+        <v>72.778000000000006</v>
       </c>
       <c r="J56" s="29">
         <v>37.299999999999997</v>
@@ -3761,22 +3764,22 @@
         <v>213401.323</v>
       </c>
       <c r="D57" s="45">
-        <v>1154068.0142000001</v>
+        <v>1159167.65372629</v>
       </c>
       <c r="E57" s="45">
-        <v>441541.43608999997</v>
+        <v>441424.28367733402</v>
       </c>
       <c r="F57" s="46">
         <v>3.6471865038370899</v>
       </c>
       <c r="G57" s="47">
-        <v>5459.1416986000004</v>
+        <v>5483.2647609343903</v>
       </c>
       <c r="H57" s="48">
-        <v>16.952790784429599</v>
+        <v>16.952790783419601</v>
       </c>
       <c r="I57" s="46">
-        <v>53.444000000000003</v>
+        <v>58.311</v>
       </c>
       <c r="J57" s="46">
         <v>35.1</v>
@@ -3802,22 +3805,22 @@
         <v>16876.72</v>
       </c>
       <c r="D58" s="28">
-        <v>64809.128115</v>
+        <v>65095.509147623103</v>
       </c>
       <c r="E58" s="28">
-        <v>27639.683564999999</v>
+        <v>27639.683564947201</v>
       </c>
       <c r="F58" s="29">
-        <v>6.0667708644929901</v>
+        <v>6.0667708633988902</v>
       </c>
       <c r="G58" s="30">
-        <v>3767.1424493999998</v>
+        <v>3783.7888412477801</v>
       </c>
       <c r="H58" s="31">
-        <v>2.1784077337398098</v>
+        <v>2.1784077383737399</v>
       </c>
       <c r="I58" s="29">
-        <v>44.298000000000002</v>
+        <v>50.228000000000002</v>
       </c>
       <c r="J58" s="29">
         <v>38.1</v>
@@ -3843,22 +3846,22 @@
         <v>8420.6409999999996</v>
       </c>
       <c r="D59" s="28">
-        <v>14937.341355</v>
+        <v>15003.347045422999</v>
       </c>
       <c r="E59" s="28">
-        <v>4147.8705956000003</v>
+        <v>4147.8705956497397</v>
       </c>
       <c r="F59" s="29">
         <v>4.1046905067334798</v>
       </c>
       <c r="G59" s="30">
-        <v>1834.7515091</v>
+        <v>1842.8589786013199</v>
       </c>
       <c r="H59" s="31">
-        <v>11.8739588844224</v>
+        <v>11.8739588840234</v>
       </c>
       <c r="I59" s="29">
-        <v>56.036000000000001</v>
+        <v>53.298000000000002</v>
       </c>
       <c r="J59" s="29">
         <v>35.700000000000003</v>
@@ -3884,22 +3887,22 @@
         <v>8644.8289999999997</v>
       </c>
       <c r="D60" s="20">
-        <v>20179.254433999999</v>
+        <v>20268.4232884501</v>
       </c>
       <c r="E60" s="20">
-        <v>8430.3896229999991</v>
+        <v>8430.3896229531001</v>
       </c>
       <c r="F60" s="21">
-        <v>5.2589000006902298</v>
+        <v>5.2588999999999997</v>
       </c>
       <c r="G60" s="22">
-        <v>2376.8985926</v>
+        <v>2341.1327447572598</v>
       </c>
       <c r="H60" s="23">
-        <v>4.3204003616071303</v>
+        <v>4.5483174278751797</v>
       </c>
       <c r="I60" s="21">
-        <v>57.338999999999999</v>
+        <v>57.304000000000002</v>
       </c>
       <c r="J60" s="21">
         <v>42.4</v>
@@ -3925,28 +3928,28 @@
         <v>413923.96</v>
       </c>
       <c r="D61" s="37">
-        <v>1857447.6977671999</v>
+        <v>1866907.4468590501</v>
       </c>
       <c r="E61" s="37">
-        <v>727404.70136860001</v>
+        <v>730073.86719171796</v>
       </c>
       <c r="F61" s="38">
-        <v>4.3704888139125204</v>
+        <v>4.3875039817292798</v>
       </c>
       <c r="G61" s="39">
-        <v>4544.3040481402204</v>
+        <v>4551.3434618502497</v>
       </c>
       <c r="H61" s="40">
-        <v>12.8263421468506</v>
+        <v>16.952790783419601</v>
       </c>
       <c r="I61" s="38">
-        <v>61.852133333333299</v>
+        <v>61.0262666666667</v>
       </c>
       <c r="J61" s="38">
-        <v>37.9</v>
+        <v>38.093333333333298</v>
       </c>
       <c r="K61" s="38">
-        <v>21.866666666666699</v>
+        <v>22.113333333333301</v>
       </c>
       <c r="L61" s="41">
         <v>0.50600000000000001</v>
@@ -3966,28 +3969,28 @@
         <v>1391823.318</v>
       </c>
       <c r="D62" s="55">
-        <v>7445643.6565429596</v>
+        <v>7479684.8719005296</v>
       </c>
       <c r="E62" s="55">
-        <v>2746204.0645616199</v>
+        <v>2754427.4616089002</v>
       </c>
       <c r="F62" s="56">
-        <v>4.7991418049207502</v>
+        <v>4.8523047500569403</v>
       </c>
       <c r="G62" s="57">
-        <v>5541.7506138209901</v>
+        <v>5541.7256151019601</v>
       </c>
       <c r="H62" s="58">
-        <v>18.141749977091699</v>
+        <v>4.5556051808843199</v>
       </c>
       <c r="I62" s="56">
-        <v>61.349320754716999</v>
+        <v>60.013905660377397</v>
       </c>
       <c r="J62" s="56">
-        <v>41.472916666666698</v>
+        <v>41.6111111111111</v>
       </c>
       <c r="K62" s="56">
-        <v>29.225000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="L62" s="59">
         <v>0.56073584905660001</v>
@@ -4007,28 +4010,28 @@
         <v>6470426.4289999995</v>
       </c>
       <c r="D63" s="63">
-        <v>136908256.848216</v>
+        <v>138168752.01852101</v>
       </c>
       <c r="E63" s="63">
-        <v>93004837.906361893</v>
+        <v>92227592.093919605</v>
       </c>
       <c r="F63" s="64">
-        <v>6.0868021571781998</v>
+        <v>6.3546695842029601</v>
       </c>
       <c r="G63" s="65">
-        <v>21652.8680914465</v>
+        <v>21850.4879059368</v>
       </c>
       <c r="H63" s="66">
-        <v>6.39178629759824</v>
+        <v>3.2123454846075199</v>
       </c>
       <c r="I63" s="64">
-        <v>59.199192000000103</v>
+        <v>59.403128000000002</v>
       </c>
       <c r="J63" s="64">
-        <v>35.233333333333398</v>
+        <v>34.991578947368403</v>
       </c>
       <c r="K63" s="64">
-        <v>2.76767676767677</v>
+        <v>2.34</v>
       </c>
       <c r="L63" s="67">
         <v>0.78479104477612005</v>
@@ -4048,28 +4051,28 @@
         <v>651100.94499999995</v>
       </c>
       <c r="D64" s="55">
-        <v>10682041.8959428</v>
+        <v>10763828.400106501</v>
       </c>
       <c r="E64" s="55">
-        <v>5030094.9225451304</v>
+        <v>5049232.7616223805</v>
       </c>
       <c r="F64" s="56">
-        <v>6.8982230779635101</v>
+        <v>7.0118886659601198</v>
       </c>
       <c r="G64" s="57">
-        <v>16651.613864681101</v>
+        <v>16782.8874556216</v>
       </c>
       <c r="H64" s="58">
-        <v>35.337669270682397</v>
+        <v>5.6929663312506698</v>
       </c>
       <c r="I64" s="56">
-        <v>59.629413793103502</v>
+        <v>60.535103448275898</v>
       </c>
       <c r="J64" s="56">
-        <v>45.6105263157895</v>
+        <v>45.461111111111101</v>
       </c>
       <c r="K64" s="56">
-        <v>5.26842105263158</v>
+        <v>3.5833333333333299</v>
       </c>
       <c r="L64" s="59">
         <v>0.74818181818181995</v>
@@ -4089,28 +4092,28 @@
         <v>4285356.8830000004</v>
       </c>
       <c r="D65" s="72">
-        <v>51387950.071407199</v>
+        <v>51850404.541612297</v>
       </c>
       <c r="E65" s="72">
-        <v>26782628.7430554</v>
+        <v>25476740.087795202</v>
       </c>
       <c r="F65" s="73">
-        <v>7.0611627187634003</v>
+        <v>7.3388234896270497</v>
       </c>
       <c r="G65" s="74">
-        <v>12406.833446401901</v>
+        <v>12488.87507127</v>
       </c>
       <c r="H65" s="75">
-        <v>3.63988142781476</v>
+        <v>0.85250710422560005</v>
       </c>
       <c r="I65" s="73">
-        <v>56.430199999999999</v>
+        <v>54.919566666666697</v>
       </c>
       <c r="J65" s="73">
-        <v>34.995238095238101</v>
+        <v>35.174999999999997</v>
       </c>
       <c r="K65" s="73">
-        <v>4.0285714285714302</v>
+        <v>5</v>
       </c>
       <c r="L65" s="76">
         <v>0.67279310344828003</v>
@@ -4130,28 +4133,28 @@
         <v>7862249.7470000004</v>
       </c>
       <c r="D66" s="80">
-        <v>144353900.50475901</v>
+        <v>145648436.890421</v>
       </c>
       <c r="E66" s="80">
-        <v>95751041.970923603</v>
+        <v>94982019.555528596</v>
       </c>
       <c r="F66" s="81">
-        <v>6.0203858005709803</v>
+        <v>6.2775165727326696</v>
       </c>
       <c r="G66" s="82">
-        <v>18762.428107762302</v>
+        <v>18924.589148430001</v>
       </c>
       <c r="H66" s="83">
-        <v>6.9978387993243496</v>
+        <v>3.2224035973881899</v>
       </c>
       <c r="I66" s="81">
-        <v>59.839398876404502</v>
+        <v>59.584988764044901</v>
       </c>
       <c r="J66" s="81">
-        <v>37.270748299319699</v>
+        <v>37.119285714285702</v>
       </c>
       <c r="K66" s="81">
-        <v>11.4068027210884</v>
+        <v>10.047857142857101</v>
       </c>
       <c r="L66" s="84">
         <v>0.72128877005348002</v>
@@ -4171,28 +4174,28 @@
         <v>624450.01599999995</v>
       </c>
       <c r="D67" s="88">
-        <v>3061018.0428347001</v>
+        <v>3086870.2936187699</v>
       </c>
       <c r="E67" s="88">
-        <v>980163.0930467</v>
+        <v>984535.33921808004</v>
       </c>
       <c r="F67" s="89">
-        <v>5.4247471782627397</v>
+        <v>5.5152235531443896</v>
       </c>
       <c r="G67" s="90">
-        <v>5232.4598506686798</v>
+        <v>5262.8493452994198</v>
       </c>
       <c r="H67" s="91">
-        <v>31.061482989403899</v>
+        <v>4.4997240400532803</v>
       </c>
       <c r="I67" s="89">
-        <v>61.470399999999998</v>
+        <v>58.797350000000002</v>
       </c>
       <c r="J67" s="89">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="K67" s="89">
-        <v>36.863157894736901</v>
+        <v>29.893750000000001</v>
       </c>
       <c r="L67" s="92">
         <v>0.58404999999999996</v>
@@ -4212,28 +4215,28 @@
         <v>669001.75</v>
       </c>
       <c r="D68" s="72">
-        <v>4207660.4695383999</v>
+        <v>4235336.6999360798</v>
       </c>
       <c r="E68" s="72">
-        <v>1447541.8113776001</v>
+        <v>1449827.78453374</v>
       </c>
       <c r="F68" s="73">
-        <v>4.8343373489759296</v>
+        <v>4.8847830738179203</v>
       </c>
       <c r="G68" s="74">
-        <v>6502.5001052117304</v>
+        <v>6535.5576710919704</v>
       </c>
       <c r="H68" s="75">
-        <v>24.2555137818755</v>
+        <v>4.4997240400532803</v>
       </c>
       <c r="I68" s="73">
-        <v>55.316479999999999</v>
+        <v>54.550800000000002</v>
       </c>
       <c r="J68" s="73">
-        <v>37.390909090909098</v>
+        <v>37.576190476190497</v>
       </c>
       <c r="K68" s="73">
-        <v>20.95</v>
+        <v>18.709523809523802</v>
       </c>
       <c r="L68" s="76">
         <v>0.52875000000000005</v>
@@ -4253,22 +4256,22 @@
         <v>199209.09899999999</v>
       </c>
       <c r="D69" s="72">
-        <v>634698.49087470002</v>
+        <v>631078.39001443796</v>
       </c>
       <c r="E69" s="72">
-        <v>243372.55399280001</v>
+        <v>243578.970419088</v>
       </c>
       <c r="F69" s="73">
-        <v>6.6739811109814404</v>
+        <v>6.5619510723797196</v>
       </c>
       <c r="G69" s="74">
-        <v>3376.1028970347902</v>
+        <v>3365.5701821692301</v>
       </c>
       <c r="H69" s="75">
-        <v>4.8888173860736899</v>
+        <v>3.6899692502561998</v>
       </c>
       <c r="I69" s="73">
-        <v>75.744500000000002</v>
+        <v>71.383666666666699</v>
       </c>
       <c r="J69" s="73">
         <v>41.733333333333299</v>
@@ -4294,28 +4297,28 @@
         <v>216281.073</v>
       </c>
       <c r="D70" s="72">
-        <v>604557.22463895997</v>
+        <v>612731.02252825198</v>
       </c>
       <c r="E70" s="72">
-        <v>251592.19622802001</v>
+        <v>250673.82452555199</v>
       </c>
       <c r="F70" s="73">
-        <v>2.6586294537429702</v>
+        <v>2.8614956668385201</v>
       </c>
       <c r="G70" s="74">
-        <v>2951.6308623822301</v>
+        <v>2909.3772923958099</v>
       </c>
       <c r="H70" s="75">
-        <v>11.910934695498799</v>
+        <v>8.98915089460146</v>
       </c>
       <c r="I70" s="73">
-        <v>66.0803636363637</v>
+        <v>63.5178181818182</v>
       </c>
       <c r="J70" s="73">
-        <v>42.3125</v>
+        <v>42.342857142857198</v>
       </c>
       <c r="K70" s="73">
-        <v>36.575000000000003</v>
+        <v>31.842857142857099</v>
       </c>
       <c r="L70" s="76">
         <v>0.53536363636364004</v>
@@ -4335,28 +4338,28 @@
         <v>413923.96</v>
       </c>
       <c r="D71" s="72">
-        <v>1857447.6977671999</v>
+        <v>1866907.4468590501</v>
       </c>
       <c r="E71" s="72">
-        <v>727404.70136860001</v>
+        <v>730073.86719171796</v>
       </c>
       <c r="F71" s="73">
-        <v>4.3704888139125204</v>
+        <v>4.3875039817292798</v>
       </c>
       <c r="G71" s="74">
-        <v>4544.3040481402104</v>
+        <v>4551.3434618502497</v>
       </c>
       <c r="H71" s="75">
-        <v>12.8263421468506</v>
+        <v>16.952790783419601</v>
       </c>
       <c r="I71" s="73">
-        <v>61.852133333333299</v>
+        <v>61.0262666666667</v>
       </c>
       <c r="J71" s="73">
-        <v>37.9</v>
+        <v>38.093333333333298</v>
       </c>
       <c r="K71" s="73">
-        <v>21.866666666666699</v>
+        <v>22.113333333333301</v>
       </c>
       <c r="L71" s="76">
         <v>0.50600000000000001</v>
@@ -4376,28 +4379,28 @@
         <v>297339.342</v>
       </c>
       <c r="D72" s="72">
-        <v>945328.26346219995</v>
+        <v>943011.81106247497</v>
       </c>
       <c r="E72" s="72">
-        <v>306256.3095726</v>
+        <v>306443.12743671099</v>
       </c>
       <c r="F72" s="73">
-        <v>5.3851833378815996</v>
+        <v>5.2993014559947698</v>
       </c>
       <c r="G72" s="74">
-        <v>3490.5643115115499</v>
+        <v>3461.18688281184</v>
       </c>
       <c r="H72" s="75">
-        <v>85.336457034684301</v>
+        <v>26.7940034329601</v>
       </c>
       <c r="I72" s="73">
-        <v>59.5715</v>
+        <v>60.238750000000003</v>
       </c>
       <c r="J72" s="73">
-        <v>39.314285714285703</v>
+        <v>39.733333333333299</v>
       </c>
       <c r="K72" s="73">
-        <v>38.714285714285701</v>
+        <v>33.383333333333297</v>
       </c>
       <c r="L72" s="76">
         <v>0.50800000000000001</v>
@@ -4417,28 +4420,28 @@
         <v>380546.90700000001</v>
       </c>
       <c r="D73" s="72">
-        <v>1737117.0066796001</v>
+        <v>1751261.0100242</v>
       </c>
       <c r="E73" s="72">
-        <v>768219.82300570002</v>
+        <v>773650.74782387295</v>
       </c>
       <c r="F73" s="73">
-        <v>4.4940795667617603</v>
+        <v>4.6496045285146703</v>
       </c>
       <c r="G73" s="74">
-        <v>4634.2445396200601</v>
+        <v>4616.0132879095199</v>
       </c>
       <c r="H73" s="75">
-        <v>10.331649842176599</v>
+        <v>4.5556051808843199</v>
       </c>
       <c r="I73" s="73">
-        <v>66.611599999999996</v>
+        <v>64.736266666666694</v>
       </c>
       <c r="J73" s="73">
-        <v>47.84375</v>
+        <v>48.628571428571398</v>
       </c>
       <c r="K73" s="73">
-        <v>37.59375</v>
+        <v>32.221428571428604</v>
       </c>
       <c r="L73" s="76">
         <v>0.59962499999999996</v>
@@ -4458,22 +4461,22 @@
         <v>104867.75</v>
       </c>
       <c r="D74" s="72">
-        <v>1181522.7078249999</v>
+        <v>1179425.69906419</v>
       </c>
       <c r="E74" s="72">
-        <v>401317.99189770001</v>
+        <v>401591.91148444399</v>
       </c>
       <c r="F74" s="73">
-        <v>7.7943141075281197</v>
+        <v>7.9100084271970204</v>
       </c>
       <c r="G74" s="74">
-        <v>11355.7886322879</v>
+        <v>11324.1857831082</v>
       </c>
       <c r="H74" s="75">
-        <v>4.77082373702659</v>
+        <v>5.7067365931682303</v>
       </c>
       <c r="I74" s="73">
-        <v>44.169800000000002</v>
+        <v>42.783799999999999</v>
       </c>
       <c r="J74" s="73">
         <v>34.966666666666697</v>
@@ -4499,22 +4502,22 @@
         <v>69452.599000000002</v>
       </c>
       <c r="D75" s="80">
-        <v>276175.72104695998</v>
+        <v>278367.07256546698</v>
       </c>
       <c r="E75" s="80">
-        <v>95289.055669719994</v>
+        <v>94935.970828012301</v>
       </c>
       <c r="F75" s="81">
-        <v>1.2174721185953601</v>
+        <v>1.4742448067929499</v>
       </c>
       <c r="G75" s="82">
-        <v>4241.9829090796102</v>
+        <v>4018.6429615070601</v>
       </c>
       <c r="H75" s="83">
-        <v>21.7888018737675</v>
+        <v>25.765270173944401</v>
       </c>
       <c r="I75" s="81">
-        <v>66.1952</v>
+        <v>63.5518</v>
       </c>
       <c r="J75" s="81">
         <v>44.64</v>
@@ -4540,28 +4543,28 @@
         <v>674475.12199999997</v>
       </c>
       <c r="D76" s="88">
-        <v>9072493.8132649995</v>
+        <v>9127759.4906712696</v>
       </c>
       <c r="E76" s="88">
-        <v>3347561.2030429998</v>
+        <v>3378212.6471554399</v>
       </c>
       <c r="F76" s="89">
-        <v>3.0649924101130899</v>
+        <v>3.1673768086996299</v>
       </c>
       <c r="G76" s="90">
-        <v>13691.978555485999</v>
+        <v>13779.985251858399</v>
       </c>
       <c r="H76" s="91">
-        <v>2.0423274124095898</v>
+        <v>1.5600797515304301</v>
       </c>
       <c r="I76" s="89">
-        <v>67.448599999999999</v>
+        <v>65.623199999999997</v>
       </c>
       <c r="J76" s="89">
-        <v>37.357142857142897</v>
+        <v>37.314285714285703</v>
       </c>
       <c r="K76" s="89">
-        <v>2.4</v>
+        <v>2.3285714285714301</v>
       </c>
       <c r="L76" s="92">
         <v>0.72929999999999995</v>
@@ -4581,28 +4584,28 @@
         <v>433952.90600000002</v>
       </c>
       <c r="D77" s="72">
-        <v>7058151.227554</v>
+        <v>7122809.0723406496</v>
       </c>
       <c r="E77" s="72">
-        <v>3266965.2970782998</v>
+        <v>3310448.0174690099</v>
       </c>
       <c r="F77" s="73">
-        <v>7.3013155974859201</v>
+        <v>7.4975057224951103</v>
       </c>
       <c r="G77" s="74">
-        <v>16287.658900656799</v>
+        <v>16437.421429324299</v>
       </c>
       <c r="H77" s="75">
-        <v>50.674497192388699</v>
+        <v>8.3015736896473697</v>
       </c>
       <c r="I77" s="73">
-        <v>58.993416666666697</v>
+        <v>59.862166666666702</v>
       </c>
       <c r="J77" s="73">
-        <v>45.411111111111097</v>
+        <v>44.655555555555601</v>
       </c>
       <c r="K77" s="73">
-        <v>3.43333333333333</v>
+        <v>2.6</v>
       </c>
       <c r="L77" s="76">
         <v>0.76316666666666999</v>
@@ -4622,28 +4625,28 @@
         <v>445051.16899999999</v>
       </c>
       <c r="D78" s="72">
-        <v>21755438.878219999</v>
+        <v>21897662.890040401</v>
       </c>
       <c r="E78" s="72">
-        <v>17165427.274037998</v>
+        <v>17193799.329353102</v>
       </c>
       <c r="F78" s="73">
-        <v>5.3637666188166202</v>
+        <v>5.5688233784039696</v>
       </c>
       <c r="G78" s="74">
-        <v>48884.648122679297</v>
+        <v>49214.207657723397</v>
       </c>
       <c r="H78" s="75">
-        <v>2.8962864966124902</v>
+        <v>2.84249072759921</v>
       </c>
       <c r="I78" s="73">
-        <v>58.557740740740698</v>
+        <v>58.454925925925899</v>
       </c>
       <c r="J78" s="73">
-        <v>30.9444444444444</v>
+        <v>30.766666666666701</v>
       </c>
       <c r="K78" s="73">
-        <v>0.38518518518519002</v>
+        <v>0.31111111111111001</v>
       </c>
       <c r="L78" s="76">
         <v>0.89685185185185001</v>
@@ -4663,28 +4666,28 @@
         <v>1373941.898</v>
       </c>
       <c r="D79" s="80">
-        <v>67586459.384270996</v>
+        <v>68124121.305473804</v>
       </c>
       <c r="E79" s="80">
-        <v>58092846.889211997</v>
+        <v>58455215.938100196</v>
       </c>
       <c r="F79" s="81">
-        <v>5.5320896535439799</v>
+        <v>5.7436413895197296</v>
       </c>
       <c r="G79" s="82">
-        <v>49348.029373409103</v>
+        <v>49738.131253412597</v>
       </c>
       <c r="H79" s="83">
-        <v>4.0432528788119901</v>
+        <v>3.4012777608766598</v>
       </c>
       <c r="I79" s="81">
-        <v>60.249236842105297</v>
+        <v>60.308236842105302</v>
       </c>
       <c r="J79" s="81">
-        <v>33.486486486486498</v>
+        <v>33.089189189189199</v>
       </c>
       <c r="K79" s="81">
-        <v>0.73783783783783996</v>
+        <v>0.57297297297297001</v>
       </c>
       <c r="L79" s="84">
         <v>0.90110526315788997</v>
@@ -4704,22 +4707,22 @@
         <v>331012.43300000002</v>
       </c>
       <c r="D80" s="88">
-        <v>2199916.0808533002</v>
+        <v>2202725.2305942001</v>
       </c>
       <c r="E80" s="88">
-        <v>787391.82490090001</v>
+        <v>786806.77821717504</v>
       </c>
       <c r="F80" s="89">
-        <v>4.7510001604999399</v>
+        <v>4.7815438225206899</v>
       </c>
       <c r="G80" s="90">
-        <v>6766.4648137224203</v>
+        <v>6718.5897365742103</v>
       </c>
       <c r="H80" s="91">
-        <v>13.522613011187101</v>
+        <v>16.952790783419601</v>
       </c>
       <c r="I80" s="89">
-        <v>54.058199999999999</v>
+        <v>54.186399999999999</v>
       </c>
       <c r="J80" s="89">
         <v>39.483333333333299</v>
@@ -4745,28 +4748,28 @@
         <v>500911.59</v>
       </c>
       <c r="D81" s="72">
-        <v>11313310.5545073</v>
+        <v>11489164.9881438</v>
       </c>
       <c r="E81" s="72">
-        <v>5923190.9895117003</v>
+        <v>4713062.6907911403</v>
       </c>
       <c r="F81" s="73">
-        <v>4.2602764504109203</v>
+        <v>4.7158118531321502</v>
       </c>
       <c r="G81" s="74">
-        <v>22653.3210147258</v>
+        <v>23211.351773953698</v>
       </c>
       <c r="H81" s="75">
-        <v>33.579192020779701</v>
+        <v>6.6944554174957798</v>
       </c>
       <c r="I81" s="73">
-        <v>59.270590909090899</v>
+        <v>59.679136363636403</v>
       </c>
       <c r="J81" s="73">
-        <v>33.955555555555598</v>
+        <v>34.325000000000003</v>
       </c>
       <c r="K81" s="73">
-        <v>4.0222222222222204</v>
+        <v>6.1875</v>
       </c>
       <c r="L81" s="76">
         <v>0.75318181818181995</v>
@@ -4786,28 +4789,28 @@
         <v>1060810.885</v>
       </c>
       <c r="D82" s="72">
-        <v>5245727.5756896604</v>
+        <v>5276959.6413063304</v>
       </c>
       <c r="E82" s="72">
-        <v>1958812.2396607201</v>
+        <v>1967620.6833917301</v>
       </c>
       <c r="F82" s="73">
-        <v>4.8193311068225198</v>
+        <v>4.8818420008640597</v>
       </c>
       <c r="G82" s="74">
-        <v>5159.5942532751396</v>
+        <v>5174.5002579084103</v>
       </c>
       <c r="H82" s="75">
-        <v>20.0788909254799</v>
+        <v>4.4997240400532803</v>
       </c>
       <c r="I82" s="73">
-        <v>63.044930232558201</v>
+        <v>61.3691395348838</v>
       </c>
       <c r="J82" s="73">
-        <v>41.757142857142902</v>
+        <v>41.938461538461503</v>
       </c>
       <c r="K82" s="73">
-        <v>30.8642857142857</v>
+        <v>27.638461538461499</v>
       </c>
       <c r="L82" s="76">
         <v>0.54997674418605003</v>
@@ -4827,28 +4830,28 @@
         <v>5969514.8389999997</v>
       </c>
       <c r="D83" s="80">
-        <v>125594946.29370899</v>
+        <v>126679587.030377</v>
       </c>
       <c r="E83" s="80">
-        <v>87081646.916850194</v>
+        <v>87514529.403128505</v>
       </c>
       <c r="F83" s="81">
-        <v>6.2513314887018296</v>
+        <v>6.5033052666026299</v>
       </c>
       <c r="G83" s="82">
-        <v>21567.4253196217</v>
+        <v>21734.264565233902</v>
       </c>
       <c r="H83" s="83">
-        <v>3.9428058792424401</v>
+        <v>3.2123454846075199</v>
       </c>
       <c r="I83" s="81">
-        <v>59.183941747572902</v>
+        <v>59.3441747572816</v>
       </c>
       <c r="J83" s="81">
-        <v>35.3611111111111</v>
+        <v>35.052873563218398</v>
       </c>
       <c r="K83" s="81">
-        <v>2.64222222222222</v>
+        <v>1.9862068965517199</v>
       </c>
       <c r="L83" s="84">
         <v>0.79100000000000004</v>
@@ -4868,28 +4871,28 @@
         <v>578404.56799999997</v>
       </c>
       <c r="D84" s="88">
-        <v>1203406.9083407</v>
+        <v>1207530.8992618001</v>
       </c>
       <c r="E84" s="88">
-        <v>408951.80492969998</v>
+        <v>411166.26219836099</v>
       </c>
       <c r="F84" s="89">
-        <v>4.4794304455690499</v>
+        <v>4.5636666343181602</v>
       </c>
       <c r="G84" s="90">
-        <v>2222.1284983382802</v>
+        <v>2210.2992181843201</v>
       </c>
       <c r="H84" s="91">
-        <v>68.411663369714404</v>
+        <v>8.98915089460146</v>
       </c>
       <c r="I84" s="89">
-        <v>67.2014347826087</v>
+        <v>65.086565217391296</v>
       </c>
       <c r="J84" s="89">
-        <v>39.247619047619096</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="K84" s="89">
-        <v>42.009523809523799</v>
+        <v>36.938888888888897</v>
       </c>
       <c r="L84" s="92">
         <v>0.46949999999999997</v>
@@ -4909,22 +4912,22 @@
         <v>120377.379</v>
       </c>
       <c r="D85" s="72">
-        <v>61741.868607999997</v>
+        <v>62015.771661434497</v>
       </c>
       <c r="E85" s="72">
-        <v>19911.279184999999</v>
+        <v>16956.521156046001</v>
       </c>
       <c r="F85" s="73">
-        <v>-0.99999999883769997</v>
+        <v>-0.99999999999989997</v>
       </c>
       <c r="G85" s="74">
-        <v>1997.4196283000001</v>
+        <v>1899.93700741524</v>
       </c>
       <c r="H85" s="75">
-        <v>45.694710826373402</v>
+        <v>26.0218208123664</v>
       </c>
       <c r="I85" s="73">
-        <v>50.676250000000003</v>
+        <v>49.044499999999999</v>
       </c>
       <c r="J85" s="73">
         <v>36.700000000000003</v>
@@ -4950,28 +4953,28 @@
         <v>736791.61399999994</v>
       </c>
       <c r="D86" s="72">
-        <v>5066409.3619056595</v>
+        <v>5089904.5974087697</v>
       </c>
       <c r="E86" s="72">
-        <v>1804290.7777068201</v>
+        <v>1808824.31708762</v>
       </c>
       <c r="F86" s="73">
-        <v>4.1953413839434104</v>
+        <v>4.2509028253117904</v>
       </c>
       <c r="G86" s="74">
-        <v>7127.5226095975004</v>
+        <v>7132.63222266304</v>
       </c>
       <c r="H86" s="75">
-        <v>9.4408383665657603</v>
+        <v>5.7067365931682303</v>
       </c>
       <c r="I86" s="73">
-        <v>57.839913043478298</v>
+        <v>56.684869565217397</v>
       </c>
       <c r="J86" s="73">
-        <v>42.104761904761901</v>
+        <v>42.123809523809499</v>
       </c>
       <c r="K86" s="73">
-        <v>22.1904761904762</v>
+        <v>22.1380952380952</v>
       </c>
       <c r="L86" s="76">
         <v>0.59482608695651995</v>
@@ -4991,28 +4994,28 @@
         <v>2669111.9890000001</v>
       </c>
       <c r="D87" s="72">
-        <v>22069119.243887</v>
+        <v>22307340.2729045</v>
       </c>
       <c r="E87" s="72">
-        <v>8186130.7686972199</v>
+        <v>6865905.0118653905</v>
       </c>
       <c r="F87" s="73">
-        <v>6.25320064471663</v>
+        <v>6.43821276707693</v>
       </c>
       <c r="G87" s="74">
-        <v>8383.3875358335299</v>
+        <v>8428.4202352984703</v>
       </c>
       <c r="H87" s="75">
-        <v>7.22870977121483</v>
+        <v>5.5069937221637497</v>
       </c>
       <c r="I87" s="73">
-        <v>59.773103448275897</v>
+        <v>58.891517241379297</v>
       </c>
       <c r="J87" s="73">
-        <v>36.330769230769199</v>
+        <v>35.908333333333303</v>
       </c>
       <c r="K87" s="73">
-        <v>6.5538461538461501</v>
+        <v>5.4666666666666703</v>
       </c>
       <c r="L87" s="76">
         <v>0.65803225806452004</v>
@@ -5032,22 +5035,22 @@
         <v>76520.665999999997</v>
       </c>
       <c r="D88" s="72">
-        <v>1172691.125795</v>
+        <v>1179099.25610151</v>
       </c>
       <c r="E88" s="72">
-        <v>531504.36733200005</v>
+        <v>532979.76772985503</v>
       </c>
       <c r="F88" s="73">
-        <v>7.7275129923369601</v>
+        <v>7.7358398673024302</v>
       </c>
       <c r="G88" s="74">
-        <v>15328.458507817701</v>
+        <v>15368.023591216999</v>
       </c>
       <c r="H88" s="75">
-        <v>4.1683122666784298</v>
+        <v>4.5556051808843199</v>
       </c>
       <c r="I88" s="73">
-        <v>53.651857142857203</v>
+        <v>54.284857142857199</v>
       </c>
       <c r="J88" s="73">
         <v>50.04</v>
@@ -5073,28 +5076,28 @@
         <v>2470490.3330000001</v>
       </c>
       <c r="D89" s="72">
-        <v>49371800.726878598</v>
+        <v>49768341.708983101</v>
       </c>
       <c r="E89" s="72">
-        <v>26815976.9806091</v>
+        <v>26917735.884856202</v>
       </c>
       <c r="F89" s="73">
-        <v>7.3019554174475703</v>
+        <v>7.6245635184190297</v>
       </c>
       <c r="G89" s="74">
-        <v>20262.317877912799</v>
+        <v>20422.2509312533</v>
       </c>
       <c r="H89" s="75">
-        <v>4.8261470450421102</v>
+        <v>0.85250710422560005</v>
       </c>
       <c r="I89" s="73">
-        <v>56.372142857142897</v>
+        <v>57.515142857142898</v>
       </c>
       <c r="J89" s="73">
-        <v>38.378787878787897</v>
+        <v>38.421875</v>
       </c>
       <c r="K89" s="73">
-        <v>2.1393939393939401</v>
+        <v>1.8968750000000001</v>
       </c>
       <c r="L89" s="76">
         <v>0.76788888888888995</v>
@@ -5114,28 +5117,28 @@
         <v>1182353.3319999999</v>
       </c>
       <c r="D90" s="80">
-        <v>65240275.5857438</v>
+        <v>65865048.972489901</v>
       </c>
       <c r="E90" s="80">
-        <v>57924763.459340699</v>
+        <v>58371303.927981898</v>
       </c>
       <c r="F90" s="81">
-        <v>5.1321993768267999</v>
+        <v>5.3889823405144703</v>
       </c>
       <c r="G90" s="82">
-        <v>55416.017860242398</v>
+        <v>56048.667841997398</v>
       </c>
       <c r="H90" s="83">
-        <v>3.1713046675156602</v>
+        <v>3.2123454846075199</v>
       </c>
       <c r="I90" s="81">
-        <v>62.154551020408199</v>
+        <v>62.335306122448998</v>
       </c>
       <c r="J90" s="81">
-        <v>31.81</v>
+        <v>31.494871794871798</v>
       </c>
       <c r="K90" s="81">
-        <v>0.34250000000000003</v>
+        <v>0.28461538461538</v>
       </c>
       <c r="L90" s="84">
         <v>0.88627272727272999</v>
@@ -5155,28 +5158,28 @@
         <v>734890.13399999996</v>
       </c>
       <c r="D91" s="88">
-        <v>1835770.2419310601</v>
+        <v>1843786.78031773</v>
       </c>
       <c r="E91" s="88">
-        <v>638623.66039002</v>
+        <v>641011.35125858197</v>
       </c>
       <c r="F91" s="89">
-        <v>4.1677565289682104</v>
+        <v>4.2570995351535199</v>
       </c>
       <c r="G91" s="90">
-        <v>2655.2819261018499</v>
+        <v>2624.3349801566201</v>
       </c>
       <c r="H91" s="91">
-        <v>49.379296765475402</v>
+        <v>8.98915089460146</v>
       </c>
       <c r="I91" s="89">
-        <v>64.515060606060601</v>
+        <v>62.415727272727302</v>
       </c>
       <c r="J91" s="89">
-        <v>40.454838709677396</v>
+        <v>40.553571428571402</v>
       </c>
       <c r="K91" s="89">
-        <v>36.806451612903203</v>
+        <v>32.9892857142857</v>
       </c>
       <c r="L91" s="92">
         <v>0.4955</v>
@@ -5196,28 +5199,28 @@
         <v>364678.43400000001</v>
       </c>
       <c r="D92" s="72">
-        <v>1794977.8548870501</v>
+        <v>1804536.1906908399</v>
       </c>
       <c r="E92" s="72">
-        <v>609762.79933004605</v>
+        <v>608717.24431728804</v>
       </c>
       <c r="F92" s="73">
-        <v>2.5780035394754002</v>
+        <v>2.5839646968124201</v>
       </c>
       <c r="G92" s="74">
-        <v>5619.1549766396902</v>
+        <v>5635.6652049346703</v>
       </c>
       <c r="H92" s="75">
-        <v>6.5990887726341096</v>
+        <v>5.5576564158240904</v>
       </c>
       <c r="I92" s="73">
-        <v>63.709545454545498</v>
+        <v>58.820181818181801</v>
       </c>
       <c r="J92" s="73">
-        <v>34.522222222222197</v>
+        <v>33.214285714285701</v>
       </c>
       <c r="K92" s="73">
-        <v>12.088888888888899</v>
+        <v>9.9142857142857199</v>
       </c>
       <c r="L92" s="76">
         <v>0.58099999999999996</v>
@@ -5237,22 +5240,22 @@
         <v>5098.7640000000001</v>
       </c>
       <c r="D93" s="72">
-        <v>44386.412161760003</v>
+        <v>45601.851249651198</v>
       </c>
       <c r="E93" s="72">
-        <v>18230.972205319998</v>
+        <v>18589.329838409401</v>
       </c>
       <c r="F93" s="73">
-        <v>4.5443981888473202</v>
+        <v>4.3287792675260501</v>
       </c>
       <c r="G93" s="74">
-        <v>8992.0953218947107</v>
+        <v>9238.3228848237504</v>
       </c>
       <c r="H93" s="75">
-        <v>3.9620822629702102</v>
+        <v>4.0388413039330802</v>
       </c>
       <c r="I93" s="73">
-        <v>55.266399999999997</v>
+        <v>52.984000000000002</v>
       </c>
       <c r="J93" s="73">
         <v>38.683333333333302</v>
@@ -5278,28 +5281,28 @@
         <v>63102.027000000002</v>
       </c>
       <c r="D94" s="72">
-        <v>1174775.47466352</v>
+        <v>1192957.35004167</v>
       </c>
       <c r="E94" s="72">
-        <v>671033.23555463599</v>
+        <v>698590.62040724303</v>
       </c>
       <c r="F94" s="73">
-        <v>7.6268281615050002</v>
+        <v>8.2832601386794593</v>
       </c>
       <c r="G94" s="74">
-        <v>24182.985320937099</v>
+        <v>24543.115213342098</v>
       </c>
       <c r="H94" s="75">
-        <v>4.2673646368251799</v>
+        <v>2.3048595904049201</v>
       </c>
       <c r="I94" s="73">
-        <v>60.357045454545499</v>
+        <v>61.475227272727302</v>
       </c>
       <c r="J94" s="73">
-        <v>36.035714285714299</v>
+        <v>35.118181818181803</v>
       </c>
       <c r="K94" s="73">
-        <v>7.4</v>
+        <v>5.7545454545454602</v>
       </c>
       <c r="L94" s="76">
         <v>0.72493333333332999</v>
@@ -5319,22 +5322,22 @@
         <v>356211.99800000002</v>
       </c>
       <c r="D95" s="72">
-        <v>852683.79147429997</v>
+        <v>850627.53228690696</v>
       </c>
       <c r="E95" s="72">
-        <v>320402.4641258</v>
+        <v>327914.35472718102</v>
       </c>
       <c r="F95" s="73">
-        <v>5.8402621303679103</v>
+        <v>5.9190857560761696</v>
       </c>
       <c r="G95" s="74">
-        <v>2621.1912564053</v>
+        <v>2575.7272846003302</v>
       </c>
       <c r="H95" s="75">
-        <v>18.094132649719398</v>
+        <v>22.0207676245778</v>
       </c>
       <c r="I95" s="73">
-        <v>69.709500000000006</v>
+        <v>66.161937499999993</v>
       </c>
       <c r="J95" s="73">
         <v>44.066666666666698</v>
@@ -5360,28 +5363,28 @@
         <v>194634.42600000001</v>
       </c>
       <c r="D96" s="80">
-        <v>1755196.5626649</v>
+        <v>1766049.81869214</v>
       </c>
       <c r="E96" s="80">
-        <v>593555.34775329998</v>
+        <v>597964.38238594402</v>
       </c>
       <c r="F96" s="81">
-        <v>5.1697716567938699</v>
+        <v>5.1624692004160497</v>
       </c>
       <c r="G96" s="82">
-        <v>11387.075976325699</v>
+        <v>11383.6308582742</v>
       </c>
       <c r="H96" s="83">
-        <v>7.6120714111777499</v>
+        <v>8.0018662835986305</v>
       </c>
       <c r="I96" s="81">
-        <v>57.765749999999997</v>
+        <v>56.045124999999999</v>
       </c>
       <c r="J96" s="81">
-        <v>33.727272727272698</v>
+        <v>33.690909090909102</v>
       </c>
       <c r="K96" s="81">
-        <v>2.16363636363636</v>
+        <v>2</v>
       </c>
       <c r="L96" s="84">
         <v>0.70274999999999999</v>
@@ -5401,28 +5404,28 @@
         <v>1023916.94</v>
       </c>
       <c r="D97" s="88">
-        <v>3600554.3457566001</v>
+        <v>3617062.9924139101</v>
       </c>
       <c r="E97" s="88">
-        <v>1338760.4495927</v>
+        <v>1344604.63925397</v>
       </c>
       <c r="F97" s="89">
-        <v>5.2001767875339899</v>
+        <v>5.2506340834632201</v>
       </c>
       <c r="G97" s="90">
-        <v>3666.3421663897998</v>
+        <v>3654.9202197483201</v>
       </c>
       <c r="H97" s="91">
-        <v>32.316879297130399</v>
+        <v>16.952790783419601</v>
       </c>
       <c r="I97" s="89">
-        <v>63.7965675675676</v>
+        <v>62.6536756756757</v>
       </c>
       <c r="J97" s="89">
-        <v>41.246875000000003</v>
+        <v>41.424137931034501</v>
       </c>
       <c r="K97" s="89">
-        <v>35.856250000000003</v>
+        <v>32.0724137931035</v>
       </c>
       <c r="L97" s="92">
         <v>0.51280555555555996</v>
@@ -5442,28 +5445,28 @@
         <v>825197.09100000001</v>
       </c>
       <c r="D98" s="80">
-        <v>5401941.5414966</v>
+        <v>5425606.8276800402</v>
       </c>
       <c r="E98" s="80">
-        <v>2937751.0331735001</v>
+        <v>1632183.0259404799</v>
       </c>
       <c r="F98" s="81">
-        <v>4.6494179796734203</v>
+        <v>4.64333534714069</v>
       </c>
       <c r="G98" s="82">
-        <v>7541.8572940814702</v>
+        <v>7569.57103499401</v>
       </c>
       <c r="H98" s="83">
-        <v>65.406192639710497</v>
+        <v>8.9014616352852904</v>
       </c>
       <c r="I98" s="81">
-        <v>56.401789473684197</v>
+        <v>55.262631578947399</v>
       </c>
       <c r="J98" s="81">
-        <v>37.961538461538503</v>
+        <v>38.58</v>
       </c>
       <c r="K98" s="81">
-        <v>10.5</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="L98" s="84">
         <v>0.60844444444444001</v>
@@ -5568,6 +5571,9 @@
       <c r="M104" s="96"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="C105" s="96"/>
       <c r="D105" s="96"/>
       <c r="E105" s="96"/>
@@ -5595,7 +5601,7 @@
     </row>
     <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C107" s="96"/>
       <c r="D107" s="96"/>
@@ -5625,7 +5631,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C109" s="96"/>
       <c r="D109" s="96"/>
@@ -5641,7 +5647,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C110" s="96"/>
       <c r="D110" s="96"/>
@@ -5671,7 +5677,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C112" s="96"/>
       <c r="D112" s="96"/>
@@ -5687,7 +5693,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C113" s="96"/>
       <c r="D113" s="96"/>
@@ -5717,11 +5723,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6934FA3B-6A39-4086-98D6-FCEFD84805B8}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A480128A-CED7-4744-9FF0-94420A8F30D9}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{91EEBFC0-9699-4D81-ACB0-1EF0D0539D0D}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C6087B8F-0C10-43F5-8E47-59ABAD77A824}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C6CFD134-9828-4FD6-B55A-EF8C3DD43EA3}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7C15601F-3600-4AE5-AB0A-6DBE46A19165}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{777DEDB5-8EA8-4B8D-99E1-403B1BEBAF4C}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{9415CC3C-31F2-477B-ABE9-04776CAA0B6A}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9741D369-2844-47B0-980B-D8BC36DD44F6}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{FD0689D0-21CD-435A-8DB5-80AA17B767BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab01.xlsx
+++ b/AfDD_2023_Annex_Table_Tab01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35B46CCF-8D8D-42FB-999E-33A39C62C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7566E9B0-8E5E-488D-B670-0790D000A004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44DA3A22-634D-4C6F-9605-89533EE57500}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2F34194-CAA8-44B6-9BF2-4386B3DD8E1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab01'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab01'!$A$1:$L$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,25 +48,25 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Population (thousands), 2021</t>
-  </si>
-  <si>
-    <t>Nominal gross domestic product in purchasing-power-parity dollars (millions), 2021</t>
-  </si>
-  <si>
-    <t>Gross domestic product in U.S. dollars (millions), 2021</t>
-  </si>
-  <si>
-    <t>Real GDP growth (%), 2021</t>
-  </si>
-  <si>
-    <t>GDP in purchasing power parity (PPP) dollars per capita, 2021</t>
-  </si>
-  <si>
-    <t>Inflation (average consumer prices), 2021</t>
-  </si>
-  <si>
-    <t>Employment as a % of population 15+, 2020</t>
+    <t>Population (thousands), 2022</t>
+  </si>
+  <si>
+    <t>Nominal gross domestic product in purchasing-power-parity dollars (millions), 2022</t>
+  </si>
+  <si>
+    <t>Gross domestic product in U.S. dollars (millions), 2022</t>
+  </si>
+  <si>
+    <t>Real GDP growth (%), 2022</t>
+  </si>
+  <si>
+    <t>GDP in purchasing power parity (PPP) dollars per capita, 2022</t>
+  </si>
+  <si>
+    <t>Inflation (average consumer prices), 2022</t>
+  </si>
+  <si>
+    <t>Employment as a % of population 15+, 2022</t>
   </si>
   <si>
     <t>Gini coefficient (World Bank estimate, most recent measure 2013-22)</t>
@@ -270,7 +270,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -402,7 +402,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -552,7 +552,7 @@
     <t>For aggregate inflation figures, median values are taken weighted by GDP in PPP dollars.</t>
   </si>
   <si>
-    <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision, International Labour Organization - ILOSTAT (retrieved 26/09/2022), United Nations Development Programme Human Development Data Online (2021 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/12/2022), IMF World Economic Outlook Database April 2023.</t>
+    <t>Source: World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, International Labour Organization - ILOSTAT (retrieved 14/05/2023), United Nations Development Programme Human Development Data Online (2022 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/12/2022), IMF World Economic Outlook Database April 2023.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648EF5ED-9A5D-49F4-8DCA-AC88A1FBF586}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85A9277-EFA5-4650-9B23-6224F758253E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1498,7 +1498,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1547,25 +1547,25 @@
         <v>15</v>
       </c>
       <c r="C3" s="11">
-        <v>34503.773999999998</v>
+        <v>35588.987000000001</v>
       </c>
       <c r="D3" s="12">
-        <v>224655.61203334801</v>
+        <v>247224.950609733</v>
       </c>
       <c r="E3" s="12">
-        <v>74790.564022787497</v>
+        <v>121417.133472424</v>
       </c>
       <c r="F3" s="13">
-        <v>1.09200170875581</v>
+        <v>2.8414582803347099</v>
       </c>
       <c r="G3" s="14">
-        <v>6511.0446015009002</v>
+        <v>6922.8567849508499</v>
       </c>
       <c r="H3" s="15">
-        <v>25.765270173944401</v>
+        <v>21.360453653558199</v>
       </c>
       <c r="I3" s="13">
-        <v>76.459000000000003</v>
+        <v>76.873000000000005</v>
       </c>
       <c r="J3" s="13">
         <v>51.3</v>
@@ -1588,25 +1588,25 @@
         <v>17</v>
       </c>
       <c r="C4" s="19">
-        <v>2588.4229999999998</v>
+        <v>2630.2959999999998</v>
       </c>
       <c r="D4" s="20">
-        <v>42567.414795943499</v>
+        <v>48479.898169056301</v>
       </c>
       <c r="E4" s="20">
-        <v>18767.689364003199</v>
+        <v>19176.470483492001</v>
       </c>
       <c r="F4" s="21">
-        <v>11.8402084705577</v>
+        <v>6.4333233272605899</v>
       </c>
       <c r="G4" s="22">
-        <v>16410.113303886901</v>
+        <v>18346.6710449739</v>
       </c>
       <c r="H4" s="23">
-        <v>6.6790352504637598</v>
+        <v>12.1999999999999</v>
       </c>
       <c r="I4" s="21">
-        <v>62.686</v>
+        <v>64.962999999999994</v>
       </c>
       <c r="J4" s="21">
         <v>53.3</v>
@@ -1629,25 +1629,25 @@
         <v>20</v>
       </c>
       <c r="C5" s="27">
-        <v>1192.271</v>
+        <v>1201.67</v>
       </c>
       <c r="D5" s="28">
-        <v>11652.1206325117</v>
+        <v>12526.710958047899</v>
       </c>
       <c r="E5" s="28">
-        <v>4743.6239432546699</v>
+        <v>4462.1449648350199</v>
       </c>
       <c r="F5" s="29">
-        <v>7.8833065177182897</v>
+        <v>0.46742790636067</v>
       </c>
       <c r="G5" s="30">
-        <v>10230.314320788701</v>
+        <v>10881.751303593001</v>
       </c>
       <c r="H5" s="31">
-        <v>3.7187546606876101</v>
+        <v>4.8024903991432204</v>
       </c>
       <c r="I5" s="29">
-        <v>50.375</v>
+        <v>50.481999999999999</v>
       </c>
       <c r="J5" s="29">
         <v>54.6</v>
@@ -1670,25 +1670,25 @@
         <v>22</v>
       </c>
       <c r="C6" s="27">
-        <v>2281.4540000000002</v>
+        <v>2305.826</v>
       </c>
       <c r="D6" s="28">
-        <v>5994.5296549919703</v>
+        <v>6548.7506766769602</v>
       </c>
       <c r="E6" s="28">
-        <v>2549.7325902869002</v>
+        <v>2479.6443303801998</v>
       </c>
       <c r="F6" s="29">
-        <v>2.1016989564100101</v>
+        <v>2.09313565517499</v>
       </c>
       <c r="G6" s="30">
-        <v>2872.4333799196902</v>
+        <v>3100.4421408541298</v>
       </c>
       <c r="H6" s="31">
-        <v>6.0477459195062302</v>
+        <v>8.2415423642642693</v>
       </c>
       <c r="I6" s="29">
-        <v>64.144000000000005</v>
+        <v>64.334000000000003</v>
       </c>
       <c r="J6" s="29">
         <v>44.9</v>
@@ -1711,25 +1711,25 @@
         <v>24</v>
       </c>
       <c r="C7" s="27">
-        <v>19889.741999999998</v>
+        <v>20405.316999999999</v>
       </c>
       <c r="D7" s="28">
-        <v>33341.730621460898</v>
+        <v>35962.963399736203</v>
       </c>
       <c r="E7" s="28">
-        <v>12463.357531965999</v>
+        <v>12512.255012674101</v>
       </c>
       <c r="F7" s="29">
-        <v>4.5667438343159503</v>
+        <v>0.80000000000002003</v>
       </c>
       <c r="G7" s="30">
-        <v>1552.64059002466</v>
+        <v>1627.82349532951</v>
       </c>
       <c r="H7" s="31">
-        <v>9.3432019307927501</v>
+        <v>20.838714913636998</v>
       </c>
       <c r="I7" s="29">
-        <v>68.27</v>
+        <v>67.634</v>
       </c>
       <c r="J7" s="29">
         <v>38.5</v>
@@ -1752,25 +1752,25 @@
         <v>26</v>
       </c>
       <c r="C8" s="27">
-        <v>32077.072</v>
+        <v>32969.517999999996</v>
       </c>
       <c r="D8" s="28">
-        <v>43421.836052005703</v>
+        <v>48391.356503594099</v>
       </c>
       <c r="E8" s="28">
-        <v>15776.7509356145</v>
+        <v>17939.6789971465</v>
       </c>
       <c r="F8" s="29">
-        <v>2.3275215190897298</v>
+        <v>4.1484504114307104</v>
       </c>
       <c r="G8" s="30">
-        <v>1353.6720574747501</v>
+        <v>1467.7605084670699</v>
       </c>
       <c r="H8" s="31">
-        <v>5.6884869912667204</v>
+        <v>9.7697468645651302</v>
       </c>
       <c r="I8" s="29">
-        <v>78.088999999999999</v>
+        <v>78.483999999999995</v>
       </c>
       <c r="J8" s="29">
         <v>54</v>
@@ -1793,25 +1793,25 @@
         <v>28</v>
       </c>
       <c r="C9" s="27">
-        <v>2530.1509999999998</v>
+        <v>2567.0120000000002</v>
       </c>
       <c r="D9" s="28">
-        <v>25511.716660585102</v>
+        <v>28347.8191668002</v>
       </c>
       <c r="E9" s="28">
-        <v>12307.431273381801</v>
+        <v>12345.130174149201</v>
       </c>
       <c r="F9" s="29">
-        <v>2.6560508199969801</v>
+        <v>3.8420301796612901</v>
       </c>
       <c r="G9" s="30">
-        <v>10003.708165701801</v>
+        <v>10916.4895815687</v>
       </c>
       <c r="H9" s="31">
-        <v>3.6202833870034001</v>
+        <v>6.0767103716913997</v>
       </c>
       <c r="I9" s="29">
-        <v>58.167000000000002</v>
+        <v>58.866</v>
       </c>
       <c r="J9" s="29">
         <v>59.1</v>
@@ -1834,25 +1834,25 @@
         <v>30</v>
       </c>
       <c r="C10" s="27">
-        <v>59392.254999999997</v>
+        <v>59893.885000000002</v>
       </c>
       <c r="D10" s="28">
-        <v>872413.66486146301</v>
+        <v>952597.60258273</v>
       </c>
       <c r="E10" s="28">
-        <v>418907.28902418399</v>
+        <v>405704.87394958001</v>
       </c>
       <c r="F10" s="29">
-        <v>4.9130796514428301</v>
+        <v>2.0422965473819299</v>
       </c>
       <c r="G10" s="30">
-        <v>14505.6559343808</v>
+        <v>15718.394868040599</v>
       </c>
       <c r="H10" s="31">
-        <v>4.5556051808843199</v>
+        <v>6.8688594617687899</v>
       </c>
       <c r="I10" s="29">
-        <v>54.7</v>
+        <v>56.805</v>
       </c>
       <c r="J10" s="29">
         <v>63</v>
@@ -1875,25 +1875,25 @@
         <v>32</v>
       </c>
       <c r="C11" s="19">
-        <v>19473.125</v>
+        <v>20017.674999999999</v>
       </c>
       <c r="D11" s="20">
-        <v>69550.892485829594</v>
+        <v>76984.4725265171</v>
       </c>
       <c r="E11" s="20">
-        <v>22147.649568093901</v>
+        <v>28500.226436531098</v>
       </c>
       <c r="F11" s="21">
-        <v>4.5987340444093396</v>
+        <v>3.4412191944634301</v>
       </c>
       <c r="G11" s="22">
-        <v>3571.6348806793799</v>
+        <v>3845.8248785894002</v>
       </c>
       <c r="H11" s="23">
-        <v>22.0207676245778</v>
+        <v>10.9932039209135</v>
       </c>
       <c r="I11" s="21">
-        <v>60.87</v>
+        <v>60.661999999999999</v>
       </c>
       <c r="J11" s="21">
         <v>57.1</v>
@@ -1916,25 +1916,25 @@
         <v>34</v>
       </c>
       <c r="C12" s="27">
-        <v>15993.523999999999</v>
+        <v>16320.537</v>
       </c>
       <c r="D12" s="28">
-        <v>36196.036178664697</v>
+        <v>39904.955680224302</v>
       </c>
       <c r="E12" s="28">
-        <v>35967.375627026799</v>
+        <v>33020.250431407403</v>
       </c>
       <c r="F12" s="29">
-        <v>8.4619725508283494</v>
+        <v>3.02888946329487</v>
       </c>
       <c r="G12" s="30">
-        <v>2336.3884208104701</v>
+        <v>2522.9487521678502</v>
       </c>
       <c r="H12" s="31">
-        <v>98.546224939953802</v>
+        <v>193.39883631880599</v>
       </c>
       <c r="I12" s="29">
-        <v>65.165000000000006</v>
+        <v>66.061000000000007</v>
       </c>
       <c r="J12" s="29">
         <v>50.3</v>
@@ -1957,25 +1957,25 @@
         <v>36</v>
       </c>
       <c r="C13" s="36">
-        <v>189921.791</v>
+        <v>193900.723</v>
       </c>
       <c r="D13" s="37">
-        <v>1365305.5539768001</v>
+        <v>1496969.4802731201</v>
       </c>
       <c r="E13" s="37">
-        <v>618421.46388059901</v>
+        <v>657557.808252619</v>
       </c>
       <c r="F13" s="38">
-        <v>4.4585256814049199</v>
+        <v>2.4740896049250098</v>
       </c>
       <c r="G13" s="39">
-        <v>7128.9265582077396</v>
+        <v>7653.8468918975896</v>
       </c>
       <c r="H13" s="40">
-        <v>4.5556051808843199</v>
+        <v>6.8688594617687899</v>
       </c>
       <c r="I13" s="38">
-        <v>63.892499999999998</v>
+        <v>64.516400000000004</v>
       </c>
       <c r="J13" s="38">
         <v>52.61</v>
@@ -1998,25 +1998,25 @@
         <v>38</v>
       </c>
       <c r="C14" s="27">
-        <v>12551.213</v>
+        <v>12889.575999999999</v>
       </c>
       <c r="D14" s="28">
-        <v>9895.0807500333503</v>
+        <v>10781.7248667231</v>
       </c>
       <c r="E14" s="28">
-        <v>3350.8099274818301</v>
+        <v>3894.2338769605599</v>
       </c>
       <c r="F14" s="29">
-        <v>3.11930234606745</v>
+        <v>1.8268014088606701</v>
       </c>
       <c r="G14" s="30">
-        <v>809.00319170509999</v>
+        <v>855.81897777459005</v>
       </c>
       <c r="H14" s="31">
-        <v>8.3134892842137393</v>
+        <v>18.900743614614001</v>
       </c>
       <c r="I14" s="29">
-        <v>78.486999999999995</v>
+        <v>79.733999999999995</v>
       </c>
       <c r="J14" s="29">
         <v>38.6</v>
@@ -2039,25 +2039,25 @@
         <v>40</v>
       </c>
       <c r="C15" s="27">
-        <v>27198.628000000001</v>
+        <v>27914.536</v>
       </c>
       <c r="D15" s="28">
-        <v>111381.27962556299</v>
+        <v>123216.416382681</v>
       </c>
       <c r="E15" s="28">
-        <v>45391.496408315303</v>
+        <v>43716.302384920302</v>
       </c>
       <c r="F15" s="29">
-        <v>3.6487176659821801</v>
+        <v>3.3831046342539501</v>
       </c>
       <c r="G15" s="30">
-        <v>4091.2506508188399</v>
+        <v>4414.5324380006195</v>
       </c>
       <c r="H15" s="31">
-        <v>2.2619561486631099</v>
+        <v>5.2999999999999501</v>
       </c>
       <c r="I15" s="29">
-        <v>71.177999999999997</v>
+        <v>71.771000000000001</v>
       </c>
       <c r="J15" s="29">
         <v>46.6</v>
@@ -2080,25 +2080,25 @@
         <v>42</v>
       </c>
       <c r="C16" s="27">
-        <v>5457.1540000000005</v>
+        <v>5579.1440000000002</v>
       </c>
       <c r="D16" s="28">
-        <v>5045.4236760543699</v>
+        <v>5419.3084032309898</v>
       </c>
       <c r="E16" s="28">
-        <v>2584.6193586337699</v>
+        <v>2461.6891595002098</v>
       </c>
       <c r="F16" s="29">
-        <v>0.98292343122549997</v>
+        <v>0.37820501789818001</v>
       </c>
       <c r="G16" s="30">
-        <v>1025.49261708422</v>
+        <v>1080.1890379172801</v>
       </c>
       <c r="H16" s="31">
-        <v>4.2643644595907997</v>
+        <v>5.8351282449441699</v>
       </c>
       <c r="I16" s="29">
-        <v>69.822000000000003</v>
+        <v>70.584000000000003</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>18</v>
@@ -2121,25 +2121,25 @@
         <v>44</v>
       </c>
       <c r="C17" s="44">
-        <v>17179.740000000002</v>
+        <v>17723.314999999999</v>
       </c>
       <c r="D17" s="45">
-        <v>27162.187522451499</v>
+        <v>29789.984461296099</v>
       </c>
       <c r="E17" s="45">
-        <v>11800.1917091056</v>
+        <v>11909.294301079801</v>
       </c>
       <c r="F17" s="46">
-        <v>-1.1022521776400001</v>
+        <v>2.4940685448479898</v>
       </c>
       <c r="G17" s="47">
-        <v>1605.8047604168801</v>
+        <v>1710.69165391616</v>
       </c>
       <c r="H17" s="48">
-        <v>-0.77284437035910003</v>
+        <v>5.2866006432214601</v>
       </c>
       <c r="I17" s="46">
-        <v>59.314999999999998</v>
+        <v>59.561999999999998</v>
       </c>
       <c r="J17" s="46">
         <v>37.5</v>
@@ -2162,25 +2162,25 @@
         <v>46</v>
       </c>
       <c r="C18" s="44">
-        <v>5835.8059999999996</v>
+        <v>5970.424</v>
       </c>
       <c r="D18" s="45">
-        <v>21866.3640426235</v>
+        <v>24049.803468234601</v>
       </c>
       <c r="E18" s="45">
-        <v>12130.855358092</v>
+        <v>12529.5615472275</v>
       </c>
       <c r="F18" s="46">
-        <v>1.50003178327904</v>
+        <v>2.78462529926</v>
       </c>
       <c r="G18" s="47">
-        <v>4556.6173218047697</v>
+        <v>4889.3783925001198</v>
       </c>
       <c r="H18" s="48">
-        <v>1.9690254939855401</v>
+        <v>3.5000000000001301</v>
       </c>
       <c r="I18" s="46">
-        <v>67.180999999999997</v>
+        <v>67.590999999999994</v>
       </c>
       <c r="J18" s="46" t="s">
         <v>18</v>
@@ -2203,25 +2203,25 @@
         <v>48</v>
       </c>
       <c r="C19" s="19">
-        <v>95894.118000000002</v>
+        <v>99010.212</v>
       </c>
       <c r="D19" s="20">
-        <v>116993.320558452</v>
+        <v>133485.28814541901</v>
       </c>
       <c r="E19" s="20">
-        <v>56515.786358056401</v>
+        <v>62859.4195207804</v>
       </c>
       <c r="F19" s="21">
-        <v>6.2287371649486296</v>
+        <v>6.6265936629248898</v>
       </c>
       <c r="G19" s="22">
-        <v>1247.91931626427</v>
+        <v>1378.9702769791199</v>
       </c>
       <c r="H19" s="23">
-        <v>8.98915089460146</v>
+        <v>8.9955260705056901</v>
       </c>
       <c r="I19" s="21">
-        <v>65.307000000000002</v>
+        <v>66.233000000000004</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>18</v>
@@ -2244,25 +2244,25 @@
         <v>50</v>
       </c>
       <c r="C20" s="44">
-        <v>1634.4659999999999</v>
+        <v>1674.9079999999999</v>
       </c>
       <c r="D20" s="45">
-        <v>25801.1618279135</v>
+        <v>28041.5519290595</v>
       </c>
       <c r="E20" s="45">
-        <v>12269.393341150801</v>
+        <v>16451.491214006499</v>
       </c>
       <c r="F20" s="46">
-        <v>-3.1869104987660002</v>
+        <v>1.56778519823746</v>
       </c>
       <c r="G20" s="47">
-        <v>17765.112974085801</v>
+        <v>18715.741329304401</v>
       </c>
       <c r="H20" s="48">
-        <v>-9.3652863881600004E-2</v>
+        <v>5.0163336523762201</v>
       </c>
       <c r="I20" s="46">
-        <v>54.085000000000001</v>
+        <v>55.03</v>
       </c>
       <c r="J20" s="46" t="s">
         <v>18</v>
@@ -2285,25 +2285,25 @@
         <v>52</v>
       </c>
       <c r="C21" s="44">
-        <v>2341.1790000000001</v>
+        <v>2388.9920000000002</v>
       </c>
       <c r="D21" s="45">
-        <v>35684.710453441898</v>
+        <v>39272.017461327501</v>
       </c>
       <c r="E21" s="45">
-        <v>20242.226084819999</v>
+        <v>21931.254014718699</v>
       </c>
       <c r="F21" s="46">
-        <v>1.4837407016796</v>
+        <v>2.8476172288171</v>
       </c>
       <c r="G21" s="47">
-        <v>16716.576256942899</v>
+        <v>18171.232257632601</v>
       </c>
       <c r="H21" s="48">
-        <v>1.0772871949728899</v>
+        <v>4.2504192378473302</v>
       </c>
       <c r="I21" s="46">
-        <v>46.354999999999997</v>
+        <v>47.654000000000003</v>
       </c>
       <c r="J21" s="46">
         <v>38</v>
@@ -2326,25 +2326,25 @@
         <v>54</v>
       </c>
       <c r="C22" s="27">
-        <v>223.107</v>
+        <v>227.38</v>
       </c>
       <c r="D22" s="28">
-        <v>989.00266047318905</v>
+        <v>1067.71866322596</v>
       </c>
       <c r="E22" s="28">
-        <v>530.84570473784197</v>
+        <v>551.78784895912395</v>
       </c>
       <c r="F22" s="29">
-        <v>1.87878636278047</v>
+        <v>0.89103414916578005</v>
       </c>
       <c r="G22" s="30">
-        <v>4434.98950884838</v>
+        <v>4703.6064459293202</v>
       </c>
       <c r="H22" s="31">
-        <v>8.1377703837872293</v>
+        <v>17.998113634185898</v>
       </c>
       <c r="I22" s="29">
-        <v>53.536999999999999</v>
+        <v>53.765999999999998</v>
       </c>
       <c r="J22" s="29">
         <v>40.700000000000003</v>
@@ -2367,25 +2367,25 @@
         <v>55</v>
       </c>
       <c r="C23" s="36">
-        <v>168315.41099999999</v>
+        <v>173378.48699999999</v>
       </c>
       <c r="D23" s="37">
-        <v>354818.53111700597</v>
+        <v>395123.813781198</v>
       </c>
       <c r="E23" s="37">
-        <v>164816.22425039401</v>
+        <v>176305.033868153</v>
       </c>
       <c r="F23" s="38">
-        <v>3.2309026978242299</v>
+        <v>4.1029331789518704</v>
       </c>
       <c r="G23" s="39">
-        <v>2198.4680879939701</v>
+        <v>2377.2142309140299</v>
       </c>
       <c r="H23" s="40">
-        <v>2.2619561486631099</v>
+        <v>5.2999999999999501</v>
       </c>
       <c r="I23" s="38">
-        <v>62.807444444444499</v>
+        <v>63.547222222222203</v>
       </c>
       <c r="J23" s="38">
         <v>40.28</v>
@@ -2408,25 +2408,25 @@
         <v>57</v>
       </c>
       <c r="C24" s="27">
-        <v>821.62599999999998</v>
+        <v>836.774</v>
       </c>
       <c r="D24" s="28">
-        <v>2927.0475817644301</v>
+        <v>3208.2435619561002</v>
       </c>
       <c r="E24" s="28">
-        <v>1285.3028860920199</v>
+        <v>1233.22159831517</v>
       </c>
       <c r="F24" s="29">
-        <v>2.11219558419391</v>
+        <v>2.43084338007773</v>
       </c>
       <c r="G24" s="30">
-        <v>3176.9261829542902</v>
+        <v>3357.8857593604098</v>
       </c>
       <c r="H24" s="31">
-        <v>-1.5189063875899999E-2</v>
+        <v>11.9954996433035</v>
       </c>
       <c r="I24" s="29">
-        <v>43.677</v>
+        <v>44.161999999999999</v>
       </c>
       <c r="J24" s="29">
         <v>45.3</v>
@@ -2449,25 +2449,25 @@
         <v>59</v>
       </c>
       <c r="C25" s="27">
-        <v>1105.557</v>
+        <v>1120.8489999999999</v>
       </c>
       <c r="D25" s="28">
-        <v>5993.7953743608696</v>
+        <v>6574.0411103697197</v>
       </c>
       <c r="E25" s="28">
-        <v>3372.30318665919</v>
+        <v>3646.2631652760801</v>
       </c>
       <c r="F25" s="29">
-        <v>4.8123827665960102</v>
+        <v>2.4999616307214101</v>
       </c>
       <c r="G25" s="30">
-        <v>5980.6558734069904</v>
+        <v>6469.8888398261997</v>
       </c>
       <c r="H25" s="31">
-        <v>1.17976375303748</v>
+        <v>5.4648381000981701</v>
       </c>
       <c r="I25" s="29">
-        <v>30.751000000000001</v>
+        <v>31.387</v>
       </c>
       <c r="J25" s="29">
         <v>41.6</v>
@@ -2490,25 +2490,25 @@
         <v>61</v>
       </c>
       <c r="C26" s="27">
-        <v>3620.3119999999999</v>
+        <v>3684.0320000000002</v>
       </c>
       <c r="D26" s="28">
-        <v>6955.35042084622</v>
+        <v>7637.4499155499298</v>
       </c>
       <c r="E26" s="28">
-        <v>2211.95399725579</v>
+        <v>2383.2977481180001</v>
       </c>
       <c r="F26" s="29">
-        <v>2.8949251777657499</v>
+        <v>2.61776686725015</v>
       </c>
       <c r="G26" s="30">
-        <v>1931.5052543310801</v>
+        <v>2085.5952800518698</v>
       </c>
       <c r="H26" s="31">
-        <v>6.6421518407489204</v>
+        <v>7.35228697369124</v>
       </c>
       <c r="I26" s="29">
-        <v>77.046000000000006</v>
+        <v>77.596000000000004</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>18</v>
@@ -2531,25 +2531,25 @@
         <v>63</v>
       </c>
       <c r="C27" s="27">
-        <v>120283.026</v>
+        <v>123379.924</v>
       </c>
       <c r="D27" s="28">
-        <v>314131.53149872401</v>
+        <v>357508.63504967297</v>
       </c>
       <c r="E27" s="28">
-        <v>99269.424776251704</v>
+        <v>120368.52844759201</v>
       </c>
       <c r="F27" s="29">
-        <v>6.2650428413474799</v>
+        <v>6.3575204128995404</v>
       </c>
       <c r="G27" s="30">
-        <v>3082.74319429562</v>
+        <v>3434.8747626839699</v>
       </c>
       <c r="H27" s="31">
-        <v>26.7940034329601</v>
+        <v>33.937709144008799</v>
       </c>
       <c r="I27" s="29">
-        <v>79.802000000000007</v>
+        <v>80.582999999999998</v>
       </c>
       <c r="J27" s="29">
         <v>35</v>
@@ -2572,25 +2572,25 @@
         <v>65</v>
       </c>
       <c r="C28" s="27">
-        <v>53005.614000000001</v>
+        <v>54027.487000000001</v>
       </c>
       <c r="D28" s="28">
-        <v>277501.449322559</v>
+        <v>312884.35489286698</v>
       </c>
       <c r="E28" s="28">
-        <v>110347.050865439</v>
+        <v>115988.86833708599</v>
       </c>
       <c r="F28" s="29">
-        <v>7.5173668351833598</v>
+        <v>5.3687411475913001</v>
       </c>
       <c r="G28" s="30">
-        <v>5572.2489479217102</v>
+        <v>6144.1611895182295</v>
       </c>
       <c r="H28" s="31">
-        <v>6.10934807127735</v>
+        <v>7.6481322197514503</v>
       </c>
       <c r="I28" s="29">
-        <v>73.224000000000004</v>
+        <v>74.363</v>
       </c>
       <c r="J28" s="29">
         <v>40.799999999999997</v>
@@ -2613,25 +2613,25 @@
         <v>67</v>
       </c>
       <c r="C29" s="27">
-        <v>28915.652999999998</v>
+        <v>29611.714</v>
       </c>
       <c r="D29" s="28">
-        <v>47298.034457627102</v>
+        <v>52742.171864832002</v>
       </c>
       <c r="E29" s="28">
-        <v>14554.7541152105</v>
+        <v>15232.7492280263</v>
       </c>
       <c r="F29" s="29">
-        <v>5.7396157374235397</v>
+        <v>4.2096928193932097</v>
       </c>
       <c r="G29" s="30">
-        <v>1678.5447674649399</v>
+        <v>1821.12279913155</v>
       </c>
       <c r="H29" s="31">
-        <v>5.8194278710197196</v>
+        <v>8.2000000000005002</v>
       </c>
       <c r="I29" s="29">
-        <v>84.712999999999994</v>
+        <v>85.900999999999996</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>18</v>
@@ -2654,25 +2654,25 @@
         <v>69</v>
       </c>
       <c r="C30" s="27">
-        <v>1298.915</v>
+        <v>1299.4690000000001</v>
       </c>
       <c r="D30" s="28">
-        <v>29235.0600593239</v>
+        <v>33879.675931541598</v>
       </c>
       <c r="E30" s="28">
-        <v>11478.256489633501</v>
+        <v>12772.2398604434</v>
       </c>
       <c r="F30" s="29">
-        <v>3.4991246315849902</v>
+        <v>8.2999999999998906</v>
       </c>
       <c r="G30" s="30">
-        <v>23131.052798447199</v>
+        <v>26851.346166939598</v>
       </c>
       <c r="H30" s="31">
-        <v>4.0388413039330802</v>
+        <v>10.784671104117599</v>
       </c>
       <c r="I30" s="29">
-        <v>58.031999999999996</v>
+        <v>58.537999999999997</v>
       </c>
       <c r="J30" s="29">
         <v>36.799999999999997</v>
@@ -2695,25 +2695,25 @@
         <v>71</v>
       </c>
       <c r="C31" s="27">
-        <v>13461.888000000001</v>
+        <v>13776.698</v>
       </c>
       <c r="D31" s="28">
-        <v>33256.879377898003</v>
+        <v>37993.414753130302</v>
       </c>
       <c r="E31" s="28">
-        <v>11067.036252370999</v>
+        <v>12702.7710910937</v>
       </c>
       <c r="F31" s="29">
-        <v>10.873500792034401</v>
+        <v>6.7628190735003599</v>
       </c>
       <c r="G31" s="30">
-        <v>2566.6215114851602</v>
+        <v>2866.5618517817402</v>
       </c>
       <c r="H31" s="31">
-        <v>0.82795488623743996</v>
+        <v>13.8820638820642</v>
       </c>
       <c r="I31" s="29">
-        <v>56.97</v>
+        <v>54.902000000000001</v>
       </c>
       <c r="J31" s="29">
         <v>43.7</v>
@@ -2736,22 +2736,22 @@
         <v>73</v>
       </c>
       <c r="C32" s="27">
-        <v>106.47</v>
+        <v>107.11799999999999</v>
       </c>
       <c r="D32" s="28">
-        <v>3150.1191284496999</v>
+        <v>3668.7854203227798</v>
       </c>
       <c r="E32" s="28">
-        <v>1457.1145930734799</v>
+        <v>1925.5917091497599</v>
       </c>
       <c r="F32" s="29">
-        <v>7.9136979958662597</v>
+        <v>8.8400000000003391</v>
       </c>
       <c r="G32" s="30">
-        <v>32128.871083076501</v>
+        <v>37088.645958754998</v>
       </c>
       <c r="H32" s="31">
-        <v>9.7704371245567891</v>
+        <v>2.7278687702727802</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>18</v>
@@ -2777,25 +2777,25 @@
         <v>75</v>
       </c>
       <c r="C33" s="27">
-        <v>17065.580999999998</v>
+        <v>17597.510999999999</v>
       </c>
       <c r="D33" s="28">
-        <v>18987.9606793311</v>
+        <v>20663.6043230754</v>
       </c>
       <c r="E33" s="28">
-        <v>7628</v>
+        <v>8157.5289028634197</v>
       </c>
       <c r="F33" s="29">
-        <v>2.9382135661517799</v>
+        <v>1.69999999999999</v>
       </c>
       <c r="G33" s="30">
-        <v>1250.13111616022</v>
+        <v>1323.3971768260899</v>
       </c>
       <c r="H33" s="31">
-        <v>4.6197702691372502</v>
+        <v>6.8000000000000096</v>
       </c>
       <c r="I33" s="29">
-        <v>33.707000000000001</v>
+        <v>33.966999999999999</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>18</v>
@@ -2814,40 +2814,40 @@
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="19">
-        <v>10748.272000000001</v>
-      </c>
-      <c r="D34" s="20">
-        <v>6192.7217701484597</v>
-      </c>
-      <c r="E34" s="20">
-        <v>5935.0833610995896</v>
-      </c>
-      <c r="F34" s="21">
-        <v>5.32918198855144</v>
-      </c>
-      <c r="G34" s="22">
-        <v>436.76103296290302</v>
-      </c>
-      <c r="H34" s="23">
-        <v>30.228504863262501</v>
-      </c>
-      <c r="I34" s="21">
-        <v>69.891999999999996</v>
-      </c>
-      <c r="J34" s="21">
+      <c r="C34" s="44">
+        <v>10913.164000000001</v>
+      </c>
+      <c r="D34" s="45">
+        <v>7060.7241185679004</v>
+      </c>
+      <c r="E34" s="45">
+        <v>7870.6360413284801</v>
+      </c>
+      <c r="F34" s="46">
+        <v>6.5518204300205598</v>
+      </c>
+      <c r="G34" s="47">
+        <v>483.945197269527</v>
+      </c>
+      <c r="H34" s="48">
+        <v>17.5997689024362</v>
+      </c>
+      <c r="I34" s="46">
+        <v>70.929000000000002</v>
+      </c>
+      <c r="J34" s="46">
         <v>44.1</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="46">
         <v>67.3</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="49">
         <v>0.433</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="50">
         <v>0.27600000000000002</v>
       </c>
     </row>
@@ -2859,25 +2859,25 @@
         <v>79</v>
       </c>
       <c r="C35" s="27">
-        <v>45657.201999999997</v>
+        <v>46874.203999999998</v>
       </c>
       <c r="D35" s="28">
-        <v>195368.61746448599</v>
+        <v>203829.11528704499</v>
       </c>
       <c r="E35" s="28">
-        <v>34738.390738516697</v>
+        <v>49422.714286157498</v>
       </c>
       <c r="F35" s="29">
-        <v>0.50000000000033995</v>
+        <v>-2.5000000000003002</v>
       </c>
       <c r="G35" s="30">
-        <v>4293.9628663024096</v>
+        <v>4366.3881515683897</v>
       </c>
       <c r="H35" s="31">
-        <v>359.09214098877902</v>
+        <v>138.80845810775301</v>
       </c>
       <c r="I35" s="29">
-        <v>48.149000000000001</v>
+        <v>48.762999999999998</v>
       </c>
       <c r="J35" s="29">
         <v>34.200000000000003</v>
@@ -2900,25 +2900,25 @@
         <v>81</v>
       </c>
       <c r="C36" s="27">
-        <v>63588.334000000003</v>
+        <v>65497.748</v>
       </c>
       <c r="D36" s="28">
-        <v>186351.87426177901</v>
+        <v>208754.98637039299</v>
       </c>
       <c r="E36" s="28">
-        <v>69938.069501207996</v>
+        <v>77062.852251752993</v>
       </c>
       <c r="F36" s="29">
-        <v>4.94665995282186</v>
+        <v>4.6878528025308404</v>
       </c>
       <c r="G36" s="30">
-        <v>3119.91916365313</v>
+        <v>3393.8461397157898</v>
       </c>
       <c r="H36" s="31">
-        <v>3.6899692502561998</v>
+        <v>4.3502720426910102</v>
       </c>
       <c r="I36" s="29">
-        <v>80.39</v>
+        <v>82.597999999999999</v>
       </c>
       <c r="J36" s="29">
         <v>40.5</v>
@@ -2941,25 +2941,25 @@
         <v>83</v>
       </c>
       <c r="C37" s="27">
-        <v>45853.777999999998</v>
+        <v>47249.584999999999</v>
       </c>
       <c r="D37" s="28">
-        <v>117880.38453202001</v>
+        <v>132361.65361155799</v>
       </c>
       <c r="E37" s="28">
-        <v>42940.920511488897</v>
+        <v>48841.344194079502</v>
       </c>
       <c r="F37" s="29">
-        <v>6.0037077530066103</v>
+        <v>4.9334229362884896</v>
       </c>
       <c r="G37" s="30">
-        <v>2776.24443181795</v>
+        <v>3026.5030516828801</v>
       </c>
       <c r="H37" s="31">
-        <v>2.207239312914</v>
+        <v>6.7783993596976604</v>
       </c>
       <c r="I37" s="29">
-        <v>69.338999999999999</v>
+        <v>69.745999999999995</v>
       </c>
       <c r="J37" s="29">
         <v>42.7</v>
@@ -2982,25 +2982,25 @@
         <v>84</v>
       </c>
       <c r="C38" s="36">
-        <v>405532.228</v>
+        <v>415976.277</v>
       </c>
       <c r="D38" s="37">
-        <v>1245230.82592932</v>
+        <v>1388766.85621088</v>
       </c>
       <c r="E38" s="37">
-        <v>416223.66127430002</v>
+        <v>477608.60686128301</v>
       </c>
       <c r="F38" s="38">
-        <v>5.3689830287380502</v>
+        <v>4.31528091790413</v>
       </c>
       <c r="G38" s="39">
-        <v>3320.8249948869002</v>
+        <v>3616.3310934168098</v>
       </c>
       <c r="H38" s="40">
-        <v>6.10934807127735</v>
+        <v>8.2000000000005002</v>
       </c>
       <c r="I38" s="38">
-        <v>61.976307692307699</v>
+        <v>62.571923076923099</v>
       </c>
       <c r="J38" s="38">
         <v>39.709090909090897</v>
@@ -3023,25 +3023,25 @@
         <v>86</v>
       </c>
       <c r="C39" s="44">
-        <v>44177.968999999997</v>
+        <v>44903.224999999999</v>
       </c>
       <c r="D39" s="45">
-        <v>529090.85073440801</v>
+        <v>582750.81538976799</v>
       </c>
       <c r="E39" s="45">
-        <v>163137.87825924001</v>
+        <v>195414.51980656301</v>
       </c>
       <c r="F39" s="46">
-        <v>3.39999999999994</v>
+        <v>2.9309160191294699</v>
       </c>
       <c r="G39" s="47">
-        <v>11869.215230997999</v>
+        <v>12866.854398842601</v>
       </c>
       <c r="H39" s="48">
-        <v>7.22606307415474</v>
+        <v>9.2673555908850105</v>
       </c>
       <c r="I39" s="46">
-        <v>39.348999999999997</v>
+        <v>40.582000000000001</v>
       </c>
       <c r="J39" s="46" t="s">
         <v>18</v>
@@ -3064,25 +3064,25 @@
         <v>88</v>
       </c>
       <c r="C40" s="27">
-        <v>109262.178</v>
+        <v>110990.103</v>
       </c>
       <c r="D40" s="28">
-        <v>1467996.81495416</v>
+        <v>1674651.6375637299</v>
       </c>
       <c r="E40" s="28">
-        <v>423300.33352745097</v>
+        <v>475231.02560218202</v>
       </c>
       <c r="F40" s="29">
-        <v>3.30662989992154</v>
+        <v>6.6086796447144298</v>
       </c>
       <c r="G40" s="30">
-        <v>14378.0295294237</v>
+        <v>16080.4635743862</v>
       </c>
       <c r="H40" s="31">
-        <v>4.4997240400532803</v>
+        <v>8.5002678497322108</v>
       </c>
       <c r="I40" s="29">
-        <v>41.54</v>
+        <v>41.823999999999998</v>
       </c>
       <c r="J40" s="29">
         <v>31.9</v>
@@ -3105,25 +3105,25 @@
         <v>90</v>
       </c>
       <c r="C41" s="44">
-        <v>6735.277</v>
+        <v>6812.3410000000003</v>
       </c>
       <c r="D41" s="45">
-        <v>147885.52744283501</v>
+        <v>137969.65883573101</v>
       </c>
       <c r="E41" s="45">
-        <v>39007.482152681099</v>
+        <v>44065.508708707603</v>
       </c>
       <c r="F41" s="46">
-        <v>28.334752000902999</v>
+        <v>-12.813124291774001</v>
       </c>
       <c r="G41" s="47">
-        <v>22039.529377400799</v>
+        <v>20358.3772842937</v>
       </c>
       <c r="H41" s="48">
-        <v>2.8795052842700799</v>
+        <v>4.5097347225448798</v>
       </c>
       <c r="I41" s="46">
-        <v>45.969000000000001</v>
+        <v>47.470999999999997</v>
       </c>
       <c r="J41" s="46" t="s">
         <v>18</v>
@@ -3146,25 +3146,25 @@
         <v>92</v>
       </c>
       <c r="C42" s="44">
-        <v>4614.9740000000002</v>
+        <v>4736.1390000000001</v>
       </c>
       <c r="D42" s="45">
-        <v>27061.934938517301</v>
+        <v>30394.204057384799</v>
       </c>
       <c r="E42" s="45">
-        <v>9891.5557777487193</v>
+        <v>10320.9415795268</v>
       </c>
       <c r="F42" s="46">
-        <v>2.4450405298867199</v>
+        <v>4.9603158041526596</v>
       </c>
       <c r="G42" s="47">
-        <v>6382.4882646935503</v>
+        <v>7012.7683081479199</v>
       </c>
       <c r="H42" s="48">
-        <v>3.5583029787009002</v>
+        <v>9.5534917754192907</v>
       </c>
       <c r="I42" s="46">
-        <v>40.591000000000001</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="J42" s="46">
         <v>32.6</v>
@@ -3187,25 +3187,25 @@
         <v>94</v>
       </c>
       <c r="C43" s="27">
-        <v>37076.584000000003</v>
+        <v>37457.970999999998</v>
       </c>
       <c r="D43" s="28">
-        <v>334714.84585101</v>
+        <v>362227.60164380801</v>
       </c>
       <c r="E43" s="28">
-        <v>142866.58312469599</v>
+        <v>138052.26483499099</v>
       </c>
       <c r="F43" s="29">
-        <v>7.9296679419552198</v>
+        <v>1.1346007792378201</v>
       </c>
       <c r="G43" s="30">
-        <v>9217.4936207696901</v>
+        <v>9878.0365869595898</v>
       </c>
       <c r="H43" s="31">
-        <v>1.39965842550414</v>
+        <v>6.64704202759044</v>
       </c>
       <c r="I43" s="29">
-        <v>43.456000000000003</v>
+        <v>45.573</v>
       </c>
       <c r="J43" s="29">
         <v>39.5</v>
@@ -3228,25 +3228,25 @@
         <v>96</v>
       </c>
       <c r="C44" s="27">
-        <v>12262.946</v>
+        <v>12356.117</v>
       </c>
       <c r="D44" s="28">
-        <v>140672.540097424</v>
+        <v>154323.54434669</v>
       </c>
       <c r="E44" s="28">
-        <v>46688.412170077303</v>
+        <v>46601.296244937002</v>
       </c>
       <c r="F44" s="29">
-        <v>4.4053620608957198</v>
+        <v>2.5217614164711102</v>
       </c>
       <c r="G44" s="30">
-        <v>11704.6533454488</v>
+        <v>12723.4325788318</v>
       </c>
       <c r="H44" s="31">
-        <v>5.7067365931682303</v>
+        <v>8.3083508673001099</v>
       </c>
       <c r="I44" s="29">
-        <v>44.554000000000002</v>
+        <v>45.734999999999999</v>
       </c>
       <c r="J44" s="29">
         <v>32.799999999999997</v>
@@ -3269,25 +3269,25 @@
         <v>97</v>
       </c>
       <c r="C45" s="36">
-        <v>214129.92800000001</v>
+        <v>217255.89600000001</v>
       </c>
       <c r="D45" s="37">
-        <v>2647422.5140183601</v>
+        <v>2942317.4618371101</v>
       </c>
       <c r="E45" s="37">
-        <v>824892.24501189496</v>
+        <v>909685.55677690695</v>
       </c>
       <c r="F45" s="38">
-        <v>5.3574332412243004</v>
+        <v>4.06425322444061</v>
       </c>
       <c r="G45" s="39">
-        <v>12882.443529284201</v>
+        <v>14092.416851456701</v>
       </c>
       <c r="H45" s="40">
-        <v>4.4997240400532803</v>
+        <v>8.5002678497322108</v>
       </c>
       <c r="I45" s="38">
-        <v>42.576500000000003</v>
+        <v>43.670833333333299</v>
       </c>
       <c r="J45" s="38">
         <v>34.200000000000003</v>
@@ -3310,25 +3310,25 @@
         <v>99</v>
       </c>
       <c r="C46" s="27">
-        <v>12996.895</v>
+        <v>13352.864</v>
       </c>
       <c r="D46" s="28">
-        <v>47635.6829172465</v>
+        <v>54041.930929501003</v>
       </c>
       <c r="E46" s="28">
-        <v>17699.3822576602</v>
+        <v>17412.911802697901</v>
       </c>
       <c r="F46" s="29">
-        <v>7.1554516458795403</v>
+        <v>6.0209427666138504</v>
       </c>
       <c r="G46" s="30">
-        <v>3652.85630732339</v>
+        <v>4024.0335567326701</v>
       </c>
       <c r="H46" s="31">
-        <v>1.7000000000003199</v>
+        <v>1.49999999999999</v>
       </c>
       <c r="I46" s="29">
-        <v>62.081000000000003</v>
+        <v>62.588000000000001</v>
       </c>
       <c r="J46" s="29">
         <v>37.799999999999997</v>
@@ -3351,25 +3351,25 @@
         <v>101</v>
       </c>
       <c r="C47" s="27">
-        <v>22100.683000000001</v>
+        <v>22673.761999999999</v>
       </c>
       <c r="D47" s="28">
-        <v>53435.002540109301</v>
+        <v>58592.626818385601</v>
       </c>
       <c r="E47" s="28">
-        <v>19748.086114474099</v>
+        <v>19567.653953586501</v>
       </c>
       <c r="F47" s="29">
-        <v>6.9045617450555401</v>
+        <v>2.47320834214442</v>
       </c>
       <c r="G47" s="30">
-        <v>2413.0113952276502</v>
+        <v>2573.6665475589002</v>
       </c>
       <c r="H47" s="31">
-        <v>3.9081280003847101</v>
+        <v>14.069999999999901</v>
       </c>
       <c r="I47" s="29">
-        <v>64.756</v>
+        <v>65.552999999999997</v>
       </c>
       <c r="J47" s="29">
         <v>47.3</v>
@@ -3392,25 +3392,25 @@
         <v>103</v>
       </c>
       <c r="C48" s="44">
-        <v>587.92499999999995</v>
+        <v>593.15</v>
       </c>
       <c r="D48" s="45">
-        <v>4349.2278723746804</v>
+        <v>5142.5821866106198</v>
       </c>
       <c r="E48" s="45">
-        <v>2112.3478342154799</v>
+        <v>2223.9418382109002</v>
       </c>
       <c r="F48" s="46">
-        <v>6.9999999999995897</v>
+        <v>10.5</v>
       </c>
       <c r="G48" s="47">
-        <v>7718.9788065580397</v>
+        <v>9019.49948883859</v>
       </c>
       <c r="H48" s="48">
-        <v>1.8634419465745999</v>
+        <v>7.9303437994021202</v>
       </c>
       <c r="I48" s="46">
-        <v>54.249000000000002</v>
+        <v>56.131</v>
       </c>
       <c r="J48" s="46">
         <v>42.4</v>
@@ -3433,25 +3433,25 @@
         <v>105</v>
       </c>
       <c r="C49" s="27">
-        <v>27478.249</v>
+        <v>28160.542000000001</v>
       </c>
       <c r="D49" s="28">
-        <v>162143.42402191699</v>
+        <v>185127.33949520701</v>
       </c>
       <c r="E49" s="28">
-        <v>71712.031933781196</v>
+        <v>70046.154793624301</v>
       </c>
       <c r="F49" s="29">
-        <v>6.9999999999999902</v>
+        <v>6.69999999999997</v>
       </c>
       <c r="G49" s="30">
-        <v>5862.2976987328202</v>
+        <v>6523.6661549486098</v>
       </c>
       <c r="H49" s="31">
-        <v>4.1591965791182801</v>
+        <v>5.2076980912691102</v>
       </c>
       <c r="I49" s="29">
-        <v>64.064999999999998</v>
+        <v>65.453999999999994</v>
       </c>
       <c r="J49" s="29">
         <v>37.200000000000003</v>
@@ -3474,25 +3474,25 @@
         <v>107</v>
       </c>
       <c r="C50" s="27">
-        <v>2639.9160000000002</v>
+        <v>2705.9920000000002</v>
       </c>
       <c r="D50" s="28">
-        <v>6049.0569220285297</v>
+        <v>6760.3118560281</v>
       </c>
       <c r="E50" s="28">
-        <v>2034.44143273645</v>
+        <v>2132.5288667117302</v>
       </c>
       <c r="F50" s="29">
-        <v>4.2654920880355496</v>
+        <v>4.4412975618026298</v>
       </c>
       <c r="G50" s="30">
-        <v>2427.3636987630398</v>
+        <v>2633.5873699962199</v>
       </c>
       <c r="H50" s="31">
-        <v>7.3703606115290299</v>
+        <v>11.513261849563399</v>
       </c>
       <c r="I50" s="29">
-        <v>60.271999999999998</v>
+        <v>61.484000000000002</v>
       </c>
       <c r="J50" s="29">
         <v>38.799999999999997</v>
@@ -3515,25 +3515,25 @@
         <v>109</v>
       </c>
       <c r="C51" s="19">
-        <v>32833.031000000003</v>
+        <v>33475.870000000003</v>
       </c>
       <c r="D51" s="20">
-        <v>196916.10929333101</v>
+        <v>217493.668230079</v>
       </c>
       <c r="E51" s="20">
-        <v>79156.955298471803</v>
+        <v>72839.133683367501</v>
       </c>
       <c r="F51" s="21">
-        <v>5.3564779177171404</v>
+        <v>3.2187442692547701</v>
       </c>
       <c r="G51" s="22">
-        <v>6272.3699092448196</v>
+        <v>6779.3199746833898</v>
       </c>
       <c r="H51" s="23">
-        <v>9.9756858931185306</v>
+        <v>31.892900449721999</v>
       </c>
       <c r="I51" s="21">
-        <v>68.376999999999995</v>
+        <v>68.83</v>
       </c>
       <c r="J51" s="21">
         <v>43.5</v>
@@ -3556,25 +3556,25 @@
         <v>111</v>
       </c>
       <c r="C52" s="27">
-        <v>13531.906000000001</v>
+        <v>13859.34</v>
       </c>
       <c r="D52" s="28">
-        <v>39573.454833086696</v>
+        <v>44164.2015156013</v>
       </c>
       <c r="E52" s="28">
-        <v>16155.314984516801</v>
+        <v>20468.685140477901</v>
       </c>
       <c r="F52" s="29">
-        <v>4.2917921205071403</v>
+        <v>4.29406997369182</v>
       </c>
       <c r="G52" s="30">
-        <v>2764.17899229657</v>
+        <v>3009.5995472125801</v>
       </c>
       <c r="H52" s="31">
-        <v>12.596573734347301</v>
+        <v>10.493065636370901</v>
       </c>
       <c r="I52" s="29">
-        <v>52.378</v>
+        <v>52.366999999999997</v>
       </c>
       <c r="J52" s="29">
         <v>29.6</v>
@@ -3597,25 +3597,25 @@
         <v>113</v>
       </c>
       <c r="C53" s="27">
-        <v>2060.721</v>
+        <v>2105.5659999999998</v>
       </c>
       <c r="D53" s="28">
-        <v>4951.3939472652801</v>
+        <v>5483.71192212195</v>
       </c>
       <c r="E53" s="28">
-        <v>1725.46233065703</v>
+        <v>1704.71802515226</v>
       </c>
       <c r="F53" s="29">
-        <v>6.3999999999999897</v>
+        <v>3.4999999999999898</v>
       </c>
       <c r="G53" s="30">
-        <v>2669.0138181796401</v>
+        <v>2891.6663998158901</v>
       </c>
       <c r="H53" s="31">
-        <v>3.2739505920041498</v>
+        <v>7.9184772635718499</v>
       </c>
       <c r="I53" s="29">
-        <v>55.424999999999997</v>
+        <v>55.920999999999999</v>
       </c>
       <c r="J53" s="29">
         <v>34.799999999999997</v>
@@ -3638,25 +3638,25 @@
         <v>115</v>
       </c>
       <c r="C54" s="27">
-        <v>5193.4160000000002</v>
+        <v>5302.6809999999996</v>
       </c>
       <c r="D54" s="28">
-        <v>7993.5650538333402</v>
+        <v>8965.04494007414</v>
       </c>
       <c r="E54" s="28">
-        <v>3508.8634526778201</v>
+        <v>3974.4386275654801</v>
       </c>
       <c r="F54" s="29">
-        <v>5.0109751952555301</v>
+        <v>4.8105878190939402</v>
       </c>
       <c r="G54" s="30">
-        <v>1543.1592768017999</v>
+        <v>1689.9236456313199</v>
       </c>
       <c r="H54" s="31">
-        <v>7.8158724211053503</v>
+        <v>7.59300328920882</v>
       </c>
       <c r="I54" s="29">
-        <v>75.951999999999998</v>
+        <v>76.591999999999999</v>
       </c>
       <c r="J54" s="29">
         <v>35.299999999999997</v>
@@ -3679,25 +3679,25 @@
         <v>117</v>
       </c>
       <c r="C55" s="27">
-        <v>21904.983</v>
+        <v>22593.59</v>
       </c>
       <c r="D55" s="28">
-        <v>51257.746486191099</v>
+        <v>56880.246789069301</v>
       </c>
       <c r="E55" s="28">
-        <v>19656.025198198098</v>
+        <v>19048.483766719801</v>
       </c>
       <c r="F55" s="29">
-        <v>3.0548521639981501</v>
+        <v>3.7039175399279398</v>
       </c>
       <c r="G55" s="30">
-        <v>2338.9398883797799</v>
+        <v>2514.45246854888</v>
       </c>
       <c r="H55" s="31">
-        <v>3.80833257901772</v>
+        <v>10.0770358341888</v>
       </c>
       <c r="I55" s="29">
-        <v>65.92</v>
+        <v>67.503</v>
       </c>
       <c r="J55" s="29">
         <v>36.1</v>
@@ -3720,25 +3720,25 @@
         <v>119</v>
       </c>
       <c r="C56" s="27">
-        <v>25252.722000000002</v>
+        <v>26207.976999999999</v>
       </c>
       <c r="D56" s="28">
-        <v>33067.849763874903</v>
+        <v>39316.0363076008</v>
       </c>
       <c r="E56" s="28">
-        <v>14922.728893445201</v>
+        <v>15222.0098145256</v>
       </c>
       <c r="F56" s="29">
-        <v>1.3993039513252401</v>
+        <v>11.110978205669699</v>
       </c>
       <c r="G56" s="30">
-        <v>1315.82868013702</v>
+        <v>1507.3051982582499</v>
       </c>
       <c r="H56" s="31">
-        <v>3.83786802840467</v>
+        <v>4.2262179191636697</v>
       </c>
       <c r="I56" s="29">
-        <v>72.778000000000006</v>
+        <v>73.454999999999998</v>
       </c>
       <c r="J56" s="29">
         <v>37.299999999999997</v>
@@ -3757,40 +3757,40 @@
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="44">
-        <v>213401.323</v>
-      </c>
-      <c r="D57" s="45">
-        <v>1159167.65372629</v>
-      </c>
-      <c r="E57" s="45">
-        <v>441424.28367733402</v>
-      </c>
-      <c r="F57" s="46">
-        <v>3.6471865038370899</v>
-      </c>
-      <c r="G57" s="47">
-        <v>5483.2647609343903</v>
-      </c>
-      <c r="H57" s="48">
-        <v>16.952790783419601</v>
-      </c>
-      <c r="I57" s="46">
-        <v>58.311</v>
-      </c>
-      <c r="J57" s="46">
+      <c r="C57" s="27">
+        <v>218541.212</v>
+      </c>
+      <c r="D57" s="28">
+        <v>1280708.19111737</v>
+      </c>
+      <c r="E57" s="28">
+        <v>477375.80296052399</v>
+      </c>
+      <c r="F57" s="29">
+        <v>3.2516814576655002</v>
+      </c>
+      <c r="G57" s="30">
+        <v>5908.7700919383697</v>
+      </c>
+      <c r="H57" s="31">
+        <v>18.846844823714299</v>
+      </c>
+      <c r="I57" s="29">
+        <v>58.866999999999997</v>
+      </c>
+      <c r="J57" s="29">
         <v>35.1</v>
       </c>
-      <c r="K57" s="46">
+      <c r="K57" s="29">
         <v>30.9</v>
       </c>
-      <c r="L57" s="49">
+      <c r="L57" s="32">
         <v>0.53900000000000003</v>
       </c>
-      <c r="M57" s="50">
+      <c r="M57" s="33">
         <v>0.34799999999999998</v>
       </c>
     </row>
@@ -3802,25 +3802,25 @@
         <v>123</v>
       </c>
       <c r="C58" s="27">
-        <v>16876.72</v>
+        <v>17316.449000000001</v>
       </c>
       <c r="D58" s="28">
-        <v>65095.509147623103</v>
+        <v>72935.963289091495</v>
       </c>
       <c r="E58" s="28">
-        <v>27639.683564947201</v>
+        <v>27461.5816842686</v>
       </c>
       <c r="F58" s="29">
-        <v>6.0667708633988902</v>
+        <v>4.7089716657253504</v>
       </c>
       <c r="G58" s="30">
-        <v>3783.7888412477801</v>
+        <v>4126.20547224242</v>
       </c>
       <c r="H58" s="31">
-        <v>2.1784077383737399</v>
+        <v>9.6885582576777605</v>
       </c>
       <c r="I58" s="29">
-        <v>50.228000000000002</v>
+        <v>51.276000000000003</v>
       </c>
       <c r="J58" s="29">
         <v>38.1</v>
@@ -3843,25 +3843,25 @@
         <v>125</v>
       </c>
       <c r="C59" s="27">
-        <v>8420.6409999999996</v>
+        <v>8605.7180000000008</v>
       </c>
       <c r="D59" s="28">
-        <v>15003.347045422999</v>
+        <v>16498.4178745877</v>
       </c>
       <c r="E59" s="28">
-        <v>4147.8705956497397</v>
+        <v>3938.9931679122801</v>
       </c>
       <c r="F59" s="29">
-        <v>4.1046905067334798</v>
+        <v>2.7655009464614602</v>
       </c>
       <c r="G59" s="30">
-        <v>1842.8589786013199</v>
+        <v>1985.5872261450399</v>
       </c>
       <c r="H59" s="31">
-        <v>11.8739588840234</v>
+        <v>27.208749885616701</v>
       </c>
       <c r="I59" s="29">
-        <v>53.298000000000002</v>
+        <v>53.331000000000003</v>
       </c>
       <c r="J59" s="29">
         <v>35.700000000000003</v>
@@ -3884,25 +3884,25 @@
         <v>127</v>
       </c>
       <c r="C60" s="19">
-        <v>8644.8289999999997</v>
+        <v>8848.6980000000003</v>
       </c>
       <c r="D60" s="20">
-        <v>20268.4232884501</v>
+        <v>22859.3946127413</v>
       </c>
       <c r="E60" s="20">
-        <v>8430.3896229531001</v>
+        <v>8173.3079521514401</v>
       </c>
       <c r="F60" s="21">
-        <v>5.2588999999999997</v>
+        <v>5.3993563246323601</v>
       </c>
       <c r="G60" s="22">
-        <v>2341.1327447572598</v>
+        <v>2576.78617675242</v>
       </c>
       <c r="H60" s="23">
-        <v>4.5483174278751797</v>
+        <v>7.6155561849115898</v>
       </c>
       <c r="I60" s="21">
-        <v>57.304000000000002</v>
+        <v>58.024000000000001</v>
       </c>
       <c r="J60" s="21">
         <v>42.4</v>
@@ -3925,25 +3925,25 @@
         <v>128</v>
       </c>
       <c r="C61" s="36">
-        <v>413923.96</v>
+        <v>424343.41100000002</v>
       </c>
       <c r="D61" s="37">
-        <v>1866907.4468590501</v>
+        <v>2074969.66788407</v>
       </c>
       <c r="E61" s="37">
-        <v>730073.86719171796</v>
+        <v>761590.346077497</v>
       </c>
       <c r="F61" s="38">
-        <v>4.3875039817292798</v>
+        <v>3.8897778357443502</v>
       </c>
       <c r="G61" s="39">
-        <v>4551.3434618502497</v>
+        <v>4927.4746233839196</v>
       </c>
       <c r="H61" s="40">
-        <v>16.952790783419601</v>
+        <v>18.846844823714299</v>
       </c>
       <c r="I61" s="38">
-        <v>61.0262666666667</v>
+        <v>61.8250666666667</v>
       </c>
       <c r="J61" s="38">
         <v>38.093333333333298</v>
@@ -3966,25 +3966,25 @@
         <v>129</v>
       </c>
       <c r="C62" s="54">
-        <v>1391823.318</v>
+        <v>1424854.794</v>
       </c>
       <c r="D62" s="55">
-        <v>7479684.8719005296</v>
+        <v>8298147.2799863704</v>
       </c>
       <c r="E62" s="55">
-        <v>2754427.4616089002</v>
+        <v>2982747.3518364602</v>
       </c>
       <c r="F62" s="56">
-        <v>4.8523047500569403</v>
+        <v>3.7776163217294898</v>
       </c>
       <c r="G62" s="57">
-        <v>5541.7256151019601</v>
+        <v>6002.8251808733103</v>
       </c>
       <c r="H62" s="58">
-        <v>4.5556051808843199</v>
+        <v>8.5002678497322108</v>
       </c>
       <c r="I62" s="56">
-        <v>60.013905660377397</v>
+        <v>60.753301886792499</v>
       </c>
       <c r="J62" s="56">
         <v>41.6111111111111</v>
@@ -4007,25 +4007,25 @@
         <v>130</v>
       </c>
       <c r="C63" s="62">
-        <v>6470426.4289999995</v>
+        <v>6503015.0650000004</v>
       </c>
       <c r="D63" s="63">
-        <v>138168752.01852101</v>
+        <v>152777784.12760699</v>
       </c>
       <c r="E63" s="63">
-        <v>92227592.093919605</v>
+        <v>95921147.220673695</v>
       </c>
       <c r="F63" s="64">
-        <v>6.3546695842029601</v>
+        <v>3.4457617736489699</v>
       </c>
       <c r="G63" s="65">
-        <v>21850.4879059368</v>
+        <v>24033.907194080199</v>
       </c>
       <c r="H63" s="66">
-        <v>3.2123454846075199</v>
+        <v>6.7965164175591202</v>
       </c>
       <c r="I63" s="64">
-        <v>59.403128000000002</v>
+        <v>60.798785123967001</v>
       </c>
       <c r="J63" s="64">
         <v>34.991578947368403</v>
@@ -4048,25 +4048,25 @@
         <v>131</v>
       </c>
       <c r="C64" s="54">
-        <v>651100.94499999995</v>
+        <v>655268.07900000003</v>
       </c>
       <c r="D64" s="55">
-        <v>10763828.400106501</v>
+        <v>11964145.7508967</v>
       </c>
       <c r="E64" s="55">
-        <v>5049232.7616223805</v>
+        <v>5760452.0931056496</v>
       </c>
       <c r="F64" s="56">
-        <v>7.0118886659601198</v>
+        <v>3.9629023683766702</v>
       </c>
       <c r="G64" s="57">
-        <v>16782.8874556216</v>
+        <v>18498.305018098999</v>
       </c>
       <c r="H64" s="58">
-        <v>5.6929663312506698</v>
+        <v>9.2799363723163495</v>
       </c>
       <c r="I64" s="56">
-        <v>60.535103448275898</v>
+        <v>62.818068965517298</v>
       </c>
       <c r="J64" s="56">
         <v>45.461111111111101</v>
@@ -4089,25 +4089,25 @@
         <v>132</v>
       </c>
       <c r="C65" s="71">
-        <v>4285356.8830000004</v>
+        <v>4312340.6320000002</v>
       </c>
       <c r="D65" s="72">
-        <v>51850404.541612297</v>
+        <v>57895494.009401202</v>
       </c>
       <c r="E65" s="72">
-        <v>25476740.087795202</v>
+        <v>26514133.212551799</v>
       </c>
       <c r="F65" s="73">
-        <v>7.3388234896270497</v>
+        <v>4.4158711795563601</v>
       </c>
       <c r="G65" s="74">
-        <v>12488.87507127</v>
+        <v>13848.217010926701</v>
       </c>
       <c r="H65" s="75">
-        <v>0.85250710422560005</v>
+        <v>1.87569202293811</v>
       </c>
       <c r="I65" s="73">
-        <v>54.919566666666697</v>
+        <v>55.938749999999999</v>
       </c>
       <c r="J65" s="73">
         <v>35.174999999999997</v>
@@ -4130,25 +4130,25 @@
         <v>133</v>
       </c>
       <c r="C66" s="79">
-        <v>7862249.7470000004</v>
+        <v>7927869.8590000002</v>
       </c>
       <c r="D66" s="80">
-        <v>145648436.890421</v>
+        <v>161075931.40759301</v>
       </c>
       <c r="E66" s="80">
-        <v>94982019.555528596</v>
+        <v>98903894.572510302</v>
       </c>
       <c r="F66" s="81">
-        <v>6.2775165727326696</v>
+        <v>3.4628579213567101</v>
       </c>
       <c r="G66" s="82">
-        <v>18924.589148430001</v>
+        <v>20749.269838252501</v>
       </c>
       <c r="H66" s="83">
-        <v>3.2224035973881899</v>
+        <v>7.6481322197514503</v>
       </c>
       <c r="I66" s="81">
-        <v>59.584988764044901</v>
+        <v>60.784931034482803</v>
       </c>
       <c r="J66" s="81">
         <v>37.119285714285702</v>
@@ -4171,25 +4171,25 @@
         <v>134</v>
       </c>
       <c r="C67" s="87">
-        <v>624450.01599999995</v>
+        <v>639568.91299999994</v>
       </c>
       <c r="D67" s="88">
-        <v>3086870.2936187699</v>
+        <v>3449542.1020447402</v>
       </c>
       <c r="E67" s="88">
-        <v>984535.33921808004</v>
+        <v>1103821.4793672201</v>
       </c>
       <c r="F67" s="89">
-        <v>5.5152235531443896</v>
+        <v>4.6328727241583296</v>
       </c>
       <c r="G67" s="90">
-        <v>5262.8493452994198</v>
+        <v>5737.3429485686202</v>
       </c>
       <c r="H67" s="91">
-        <v>4.4997240400532803</v>
+        <v>8.5002678497322108</v>
       </c>
       <c r="I67" s="89">
-        <v>58.797350000000002</v>
+        <v>59.287199999999999</v>
       </c>
       <c r="J67" s="89">
         <v>41</v>
@@ -4212,25 +4212,25 @@
         <v>135</v>
       </c>
       <c r="C68" s="71">
-        <v>669001.75</v>
+        <v>684216.08</v>
       </c>
       <c r="D68" s="72">
-        <v>4235336.6999360798</v>
+        <v>4697550.4342672499</v>
       </c>
       <c r="E68" s="72">
-        <v>1449827.78453374</v>
+        <v>1548877.01174337</v>
       </c>
       <c r="F68" s="73">
-        <v>4.8847830738179203</v>
+        <v>3.80421805367792</v>
       </c>
       <c r="G68" s="74">
-        <v>6535.5576710919704</v>
+        <v>7077.5562906833902</v>
       </c>
       <c r="H68" s="75">
-        <v>4.4997240400532803</v>
+        <v>8.5002678497322108</v>
       </c>
       <c r="I68" s="73">
-        <v>54.550800000000002</v>
+        <v>55.284680000000002</v>
       </c>
       <c r="J68" s="73">
         <v>37.576190476190497</v>
@@ -4253,25 +4253,25 @@
         <v>136</v>
       </c>
       <c r="C69" s="71">
-        <v>199209.09899999999</v>
+        <v>303364.46999999997</v>
       </c>
       <c r="D69" s="72">
-        <v>631078.39001443796</v>
+        <v>843322.146758658</v>
       </c>
       <c r="E69" s="72">
-        <v>243578.970419088</v>
+        <v>329220.12531308201</v>
       </c>
       <c r="F69" s="73">
-        <v>6.5619510723797196</v>
+        <v>5.3583981101594702</v>
       </c>
       <c r="G69" s="74">
-        <v>3365.5701821692301</v>
+        <v>2932.3812859578802</v>
       </c>
       <c r="H69" s="75">
-        <v>3.6899692502561998</v>
+        <v>7.6481322197514503</v>
       </c>
       <c r="I69" s="73">
-        <v>71.383666666666699</v>
+        <v>71.215000000000003</v>
       </c>
       <c r="J69" s="73">
         <v>41.733333333333299</v>
@@ -4280,10 +4280,10 @@
         <v>50.15</v>
       </c>
       <c r="L69" s="76">
-        <v>0.51383333333333003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="M69" s="77">
-        <v>0.36749999999999999</v>
+        <v>0.36285714285713999</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -4294,25 +4294,25 @@
         <v>137</v>
       </c>
       <c r="C70" s="71">
-        <v>216281.073</v>
+        <v>222744.17199999999</v>
       </c>
       <c r="D70" s="72">
-        <v>612731.02252825198</v>
+        <v>680342.17914406199</v>
       </c>
       <c r="E70" s="72">
-        <v>250673.82452555199</v>
+        <v>310424.93843167101</v>
       </c>
       <c r="F70" s="73">
-        <v>2.8614956668385201</v>
+        <v>3.7930745107980202</v>
       </c>
       <c r="G70" s="74">
-        <v>2909.3772923958099</v>
+        <v>3133.7611099586402</v>
       </c>
       <c r="H70" s="75">
-        <v>8.98915089460146</v>
+        <v>8.9955260705056901</v>
       </c>
       <c r="I70" s="73">
-        <v>63.5178181818182</v>
+        <v>63.972727272727298</v>
       </c>
       <c r="J70" s="73">
         <v>42.342857142857198</v>
@@ -4335,25 +4335,25 @@
         <v>138</v>
       </c>
       <c r="C71" s="71">
-        <v>413923.96</v>
+        <v>424343.41100000002</v>
       </c>
       <c r="D71" s="72">
-        <v>1866907.4468590501</v>
+        <v>2074969.66788407</v>
       </c>
       <c r="E71" s="72">
-        <v>730073.86719171796</v>
+        <v>761590.34607749595</v>
       </c>
       <c r="F71" s="73">
-        <v>4.3875039817292798</v>
+        <v>3.8897778357443502</v>
       </c>
       <c r="G71" s="74">
-        <v>4551.3434618502497</v>
+        <v>4927.4746233839196</v>
       </c>
       <c r="H71" s="75">
-        <v>16.952790783419601</v>
+        <v>18.846844823714299</v>
       </c>
       <c r="I71" s="73">
-        <v>61.0262666666667</v>
+        <v>61.8250666666667</v>
       </c>
       <c r="J71" s="73">
         <v>38.093333333333298</v>
@@ -4376,25 +4376,25 @@
         <v>139</v>
       </c>
       <c r="C72" s="71">
-        <v>297339.342</v>
+        <v>304846.75599999999</v>
       </c>
       <c r="D72" s="72">
-        <v>943011.81106247497</v>
+        <v>1048519.57830871</v>
       </c>
       <c r="E72" s="72">
-        <v>306443.12743671099</v>
+        <v>356679.18112250202</v>
       </c>
       <c r="F72" s="73">
-        <v>5.2993014559947698</v>
+        <v>4.0189077154026798</v>
       </c>
       <c r="G72" s="74">
-        <v>3461.18688281184</v>
+        <v>3762.3008065845602</v>
       </c>
       <c r="H72" s="75">
-        <v>26.7940034329601</v>
+        <v>33.937709144008799</v>
       </c>
       <c r="I72" s="73">
-        <v>60.238750000000003</v>
+        <v>60.91675</v>
       </c>
       <c r="J72" s="73">
         <v>39.733333333333299</v>
@@ -4417,25 +4417,25 @@
         <v>140</v>
       </c>
       <c r="C73" s="71">
-        <v>380546.90700000001</v>
+        <v>390263.75799999997</v>
       </c>
       <c r="D73" s="72">
-        <v>1751261.0100242</v>
+        <v>1932708.6315675799</v>
       </c>
       <c r="E73" s="72">
-        <v>773650.74782387295</v>
+        <v>828643.88242108701</v>
       </c>
       <c r="F73" s="73">
-        <v>4.6496045285146703</v>
+        <v>3.16150215081564</v>
       </c>
       <c r="G73" s="74">
-        <v>4616.0132879095199</v>
+        <v>4967.1780623316499</v>
       </c>
       <c r="H73" s="75">
-        <v>4.5556051808843199</v>
+        <v>6.8688594617687899</v>
       </c>
       <c r="I73" s="73">
-        <v>64.736266666666694</v>
+        <v>65.506399999999999</v>
       </c>
       <c r="J73" s="73">
         <v>48.628571428571398</v>
@@ -4458,25 +4458,25 @@
         <v>141</v>
       </c>
       <c r="C74" s="71">
-        <v>104867.75</v>
+        <v>106265.79300000001</v>
       </c>
       <c r="D74" s="72">
-        <v>1179425.69906419</v>
+        <v>1267665.82427338</v>
       </c>
       <c r="E74" s="72">
-        <v>401591.91148444399</v>
+        <v>434454.53117472498</v>
       </c>
       <c r="F74" s="73">
-        <v>7.9100084271970204</v>
+        <v>0.70293528892366997</v>
       </c>
       <c r="G74" s="74">
-        <v>11324.1857831082</v>
+        <v>12015.9865692608</v>
       </c>
       <c r="H74" s="75">
-        <v>5.7067365931682303</v>
+        <v>8.3083508673001099</v>
       </c>
       <c r="I74" s="73">
-        <v>42.783799999999999</v>
+        <v>44.040199999999999</v>
       </c>
       <c r="J74" s="73">
         <v>34.966666666666697</v>
@@ -4499,25 +4499,25 @@
         <v>142</v>
       </c>
       <c r="C75" s="79">
-        <v>69452.599000000002</v>
+        <v>71484.600999999995</v>
       </c>
       <c r="D75" s="80">
-        <v>278367.07256546698</v>
+        <v>307310.31988528598</v>
       </c>
       <c r="E75" s="80">
-        <v>94935.970828012301</v>
+        <v>143837.26018189301</v>
       </c>
       <c r="F75" s="81">
-        <v>1.4742448067929499</v>
+        <v>3.1804008555739398</v>
       </c>
       <c r="G75" s="82">
-        <v>4018.6429615070601</v>
+        <v>4298.5038587030303</v>
       </c>
       <c r="H75" s="83">
-        <v>25.765270173944401</v>
+        <v>21.360453653558199</v>
       </c>
       <c r="I75" s="81">
-        <v>63.5518</v>
+        <v>64.234999999999999</v>
       </c>
       <c r="J75" s="81">
         <v>44.64</v>
@@ -4540,25 +4540,25 @@
         <v>143</v>
       </c>
       <c r="C76" s="87">
-        <v>674475.12199999997</v>
+        <v>679783.76899999997</v>
       </c>
       <c r="D76" s="88">
-        <v>9127759.4906712696</v>
+        <v>10316111.256154601</v>
       </c>
       <c r="E76" s="88">
-        <v>3378212.6471554399</v>
+        <v>3657635.5634789299</v>
       </c>
       <c r="F76" s="89">
-        <v>3.1673768086996299</v>
+        <v>5.6612511571201702</v>
       </c>
       <c r="G76" s="90">
-        <v>13779.985251858399</v>
+        <v>15397.842524490599</v>
       </c>
       <c r="H76" s="91">
-        <v>1.5600797515304301</v>
+        <v>4.2094560244026802</v>
       </c>
       <c r="I76" s="89">
-        <v>65.623199999999997</v>
+        <v>66.647666666666694</v>
       </c>
       <c r="J76" s="89">
         <v>37.314285714285703</v>
@@ -4581,25 +4581,25 @@
         <v>144</v>
       </c>
       <c r="C77" s="71">
-        <v>433952.90600000002</v>
+        <v>408206.57500000001</v>
       </c>
       <c r="D77" s="72">
-        <v>7122809.0723406496</v>
+        <v>7733445.3375835903</v>
       </c>
       <c r="E77" s="72">
-        <v>3310448.0174690099</v>
+        <v>3734234.33376113</v>
       </c>
       <c r="F77" s="73">
-        <v>7.4975057224951103</v>
+        <v>4.0522489200520804</v>
       </c>
       <c r="G77" s="74">
-        <v>16437.421429324299</v>
+        <v>18915.644540703299</v>
       </c>
       <c r="H77" s="75">
-        <v>8.3015736896473697</v>
+        <v>9.2799363723163495</v>
       </c>
       <c r="I77" s="73">
-        <v>59.862166666666702</v>
+        <v>63.0251818181818</v>
       </c>
       <c r="J77" s="73">
         <v>44.655555555555601</v>
@@ -4608,10 +4608,10 @@
         <v>2.6</v>
       </c>
       <c r="L77" s="76">
-        <v>0.76316666666666999</v>
+        <v>0.76790909090908999</v>
       </c>
       <c r="M77" s="77">
-        <v>0.61175000000000002</v>
+        <v>0.61390909090908996</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -4622,25 +4622,25 @@
         <v>145</v>
       </c>
       <c r="C78" s="71">
-        <v>445051.16899999999</v>
+        <v>447315.89</v>
       </c>
       <c r="D78" s="72">
-        <v>21897662.890040401</v>
+        <v>24284899.8355284</v>
       </c>
       <c r="E78" s="72">
-        <v>17193799.329353102</v>
+        <v>16642597.971017599</v>
       </c>
       <c r="F78" s="73">
-        <v>5.5688233784039696</v>
+        <v>3.67851934210475</v>
       </c>
       <c r="G78" s="74">
-        <v>49214.207657723397</v>
+        <v>54393.905081680197</v>
       </c>
       <c r="H78" s="75">
-        <v>2.84249072759921</v>
+        <v>8.6658021206798193</v>
       </c>
       <c r="I78" s="73">
-        <v>58.454925925925899</v>
+        <v>59.615259259259297</v>
       </c>
       <c r="J78" s="73">
         <v>30.766666666666701</v>
@@ -4663,25 +4663,25 @@
         <v>146</v>
       </c>
       <c r="C79" s="79">
-        <v>1373941.898</v>
+        <v>1379532.811</v>
       </c>
       <c r="D79" s="80">
-        <v>68124121.305473804</v>
+        <v>75041215.298448294</v>
       </c>
       <c r="E79" s="80">
-        <v>58455215.938100196</v>
+        <v>59621457.899512999</v>
       </c>
       <c r="F79" s="81">
-        <v>5.7436413895197296</v>
+        <v>2.96739555518361</v>
       </c>
       <c r="G79" s="82">
-        <v>49738.131253412597</v>
+        <v>54539.417313196798</v>
       </c>
       <c r="H79" s="83">
-        <v>3.4012777608766598</v>
+        <v>7.9864819690388398</v>
       </c>
       <c r="I79" s="81">
-        <v>60.308236842105302</v>
+        <v>61.667236842105297</v>
       </c>
       <c r="J79" s="81">
         <v>33.089189189189199</v>
@@ -4704,37 +4704,37 @@
         <v>147</v>
       </c>
       <c r="C80" s="87">
-        <v>331012.43300000002</v>
+        <v>131304.64499999999</v>
       </c>
       <c r="D80" s="88">
-        <v>2202725.2305942001</v>
+        <v>1131696.29251771</v>
       </c>
       <c r="E80" s="88">
-        <v>786806.77821717504</v>
+        <v>444134.28252379299</v>
       </c>
       <c r="F80" s="89">
-        <v>4.7815438225206899</v>
+        <v>1.05216922765319</v>
       </c>
       <c r="G80" s="90">
-        <v>6718.5897365742103</v>
+        <v>8689.2777017440094</v>
       </c>
       <c r="H80" s="91">
-        <v>16.952790783419601</v>
+        <v>9.2673555908850105</v>
       </c>
       <c r="I80" s="89">
-        <v>54.186399999999999</v>
+        <v>56.266300000000001</v>
       </c>
       <c r="J80" s="89">
-        <v>39.483333333333299</v>
+        <v>40.983333333333299</v>
       </c>
       <c r="K80" s="89">
-        <v>17.75</v>
+        <v>23.816666666666698</v>
       </c>
       <c r="L80" s="92">
-        <v>0.60699999999999998</v>
+        <v>0.59640000000000004</v>
       </c>
       <c r="M80" s="93">
-        <v>0.41914285714285998</v>
+        <v>0.40885714285713998</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4745,25 +4745,25 @@
         <v>148</v>
       </c>
       <c r="C81" s="71">
-        <v>500911.59</v>
+        <v>504916.65</v>
       </c>
       <c r="D81" s="72">
-        <v>11489164.9881438</v>
+        <v>12618889.511619801</v>
       </c>
       <c r="E81" s="72">
-        <v>4713062.6907911403</v>
+        <v>5807227.01955433</v>
       </c>
       <c r="F81" s="73">
-        <v>4.7158118531321502</v>
+        <v>2.8305886507113902</v>
       </c>
       <c r="G81" s="74">
-        <v>23211.351773953698</v>
+        <v>25310.918235754401</v>
       </c>
       <c r="H81" s="75">
-        <v>6.6944554174957798</v>
+        <v>13.773903689558001</v>
       </c>
       <c r="I81" s="73">
-        <v>59.679136363636403</v>
+        <v>60.311523809523798</v>
       </c>
       <c r="J81" s="73">
         <v>34.325000000000003</v>
@@ -4786,37 +4786,37 @@
         <v>149</v>
       </c>
       <c r="C82" s="71">
-        <v>1060810.885</v>
+        <v>1293550.149</v>
       </c>
       <c r="D82" s="72">
-        <v>5276959.6413063304</v>
+        <v>7166450.9874686599</v>
       </c>
       <c r="E82" s="72">
-        <v>1967620.6833917301</v>
+        <v>2538613.0693126698</v>
       </c>
       <c r="F82" s="73">
-        <v>4.8818420008640597</v>
+        <v>4.2080076517215304</v>
       </c>
       <c r="G82" s="74">
-        <v>5174.5002579084103</v>
+        <v>5730.1309255829501</v>
       </c>
       <c r="H82" s="75">
-        <v>4.4997240400532803</v>
+        <v>8.5002678497322108</v>
       </c>
       <c r="I82" s="73">
-        <v>61.3691395348838</v>
+        <v>61.796790697674403</v>
       </c>
       <c r="J82" s="73">
-        <v>41.938461538461503</v>
+        <v>41.707692307692298</v>
       </c>
       <c r="K82" s="73">
-        <v>27.638461538461499</v>
+        <v>26.705128205128201</v>
       </c>
       <c r="L82" s="76">
-        <v>0.54997674418605003</v>
+        <v>0.55244186046512</v>
       </c>
       <c r="M82" s="77">
-        <v>0.38415384615385001</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4827,25 +4827,25 @@
         <v>150</v>
       </c>
       <c r="C83" s="79">
-        <v>5969514.8389999997</v>
+        <v>5998098.415</v>
       </c>
       <c r="D83" s="80">
-        <v>126679587.030377</v>
+        <v>140158894.615987</v>
       </c>
       <c r="E83" s="80">
-        <v>87514529.403128505</v>
+        <v>90113920.201119393</v>
       </c>
       <c r="F83" s="81">
-        <v>6.5033052666026299</v>
+        <v>3.5011474963327598</v>
       </c>
       <c r="G83" s="82">
-        <v>21734.264565233902</v>
+        <v>23924.473311205202</v>
       </c>
       <c r="H83" s="83">
-        <v>3.2123454846075199</v>
+        <v>6.7965164175591202</v>
       </c>
       <c r="I83" s="81">
-        <v>59.3441747572816</v>
+        <v>60.901110000000003</v>
       </c>
       <c r="J83" s="81">
         <v>35.052873563218398</v>
@@ -4868,37 +4868,37 @@
         <v>151</v>
       </c>
       <c r="C84" s="87">
-        <v>578404.56799999997</v>
+        <v>614584.91299999994</v>
       </c>
       <c r="D84" s="88">
-        <v>1207530.8992618001</v>
+        <v>1420131.85986616</v>
       </c>
       <c r="E84" s="88">
-        <v>411166.26219836099</v>
+        <v>499287.18655873497</v>
       </c>
       <c r="F84" s="89">
-        <v>4.5636666343181602</v>
+        <v>4.0243822590984504</v>
       </c>
       <c r="G84" s="90">
-        <v>2210.2992181843201</v>
+        <v>2444.0620699318301</v>
       </c>
       <c r="H84" s="91">
-        <v>8.98915089460146</v>
+        <v>13.8820638820642</v>
       </c>
       <c r="I84" s="89">
-        <v>65.086565217391296</v>
+        <v>65.396249999999995</v>
       </c>
       <c r="J84" s="89">
-        <v>39.200000000000003</v>
+        <v>40.142105263157902</v>
       </c>
       <c r="K84" s="89">
-        <v>36.938888888888897</v>
+        <v>38.226315789473702</v>
       </c>
       <c r="L84" s="92">
-        <v>0.46949999999999997</v>
+        <v>0.47447826086957001</v>
       </c>
       <c r="M84" s="93">
-        <v>0.31980952380951999</v>
+        <v>0.32350000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4909,25 +4909,25 @@
         <v>152</v>
       </c>
       <c r="C85" s="71">
-        <v>120377.379</v>
+        <v>123020.05</v>
       </c>
       <c r="D85" s="72">
-        <v>62015.771661434497</v>
+        <v>67355.799388708299</v>
       </c>
       <c r="E85" s="72">
-        <v>16956.521156046001</v>
+        <v>20644.845213516001</v>
       </c>
       <c r="F85" s="73">
-        <v>-0.99999999999989997</v>
+        <v>1.4999999999999001</v>
       </c>
       <c r="G85" s="74">
-        <v>1899.93700741524</v>
+        <v>2021.34177234258</v>
       </c>
       <c r="H85" s="75">
-        <v>26.0218208123664</v>
+        <v>29.072008378331802</v>
       </c>
       <c r="I85" s="73">
-        <v>49.044499999999999</v>
+        <v>52.508000000000003</v>
       </c>
       <c r="J85" s="73">
         <v>36.700000000000003</v>
@@ -4950,37 +4950,37 @@
         <v>153</v>
       </c>
       <c r="C86" s="71">
-        <v>736791.61399999994</v>
+        <v>732895.86</v>
       </c>
       <c r="D86" s="72">
-        <v>5089904.5974087697</v>
+        <v>5605758.4106236398</v>
       </c>
       <c r="E86" s="72">
-        <v>1808824.31708762</v>
+        <v>1949087.6051634799</v>
       </c>
       <c r="F86" s="73">
-        <v>4.2509028253117904</v>
+        <v>4.3819531135838998</v>
       </c>
       <c r="G86" s="74">
-        <v>7132.63222266304</v>
+        <v>7887.9463951380803</v>
       </c>
       <c r="H86" s="75">
-        <v>5.7067365931682303</v>
+        <v>8.5002678497322108</v>
       </c>
       <c r="I86" s="73">
-        <v>56.684869565217397</v>
+        <v>57.322181818181797</v>
       </c>
       <c r="J86" s="73">
-        <v>42.123809523809499</v>
+        <v>41.375</v>
       </c>
       <c r="K86" s="73">
-        <v>22.1380952380952</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="L86" s="76">
-        <v>0.59482608695651995</v>
+        <v>0.59531818181817997</v>
       </c>
       <c r="M86" s="77">
-        <v>0.42030000000000001</v>
+        <v>0.42131578947367998</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4991,25 +4991,25 @@
         <v>154</v>
       </c>
       <c r="C87" s="71">
-        <v>2669111.9890000001</v>
+        <v>2693951.3429999999</v>
       </c>
       <c r="D87" s="72">
-        <v>22307340.2729045</v>
+        <v>25045726.9521905</v>
       </c>
       <c r="E87" s="72">
-        <v>6865905.0118653905</v>
+        <v>7376003.3280542502</v>
       </c>
       <c r="F87" s="73">
-        <v>6.43821276707693</v>
+        <v>5.3641190302633701</v>
       </c>
       <c r="G87" s="74">
-        <v>8428.4202352984703</v>
+        <v>9382.8269911838506</v>
       </c>
       <c r="H87" s="75">
-        <v>5.5069937221637497</v>
+        <v>6.6725219405401299</v>
       </c>
       <c r="I87" s="73">
-        <v>58.891517241379297</v>
+        <v>59.125481481481501</v>
       </c>
       <c r="J87" s="73">
         <v>35.908333333333303</v>
@@ -5018,10 +5018,10 @@
         <v>5.4666666666666703</v>
       </c>
       <c r="L87" s="76">
-        <v>0.65803225806452004</v>
+        <v>0.65893548387097001</v>
       </c>
       <c r="M87" s="77">
-        <v>0.52612000000000003</v>
+        <v>0.52495833333332997</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -5032,25 +5032,25 @@
         <v>155</v>
       </c>
       <c r="C88" s="71">
-        <v>76520.665999999997</v>
+        <v>77266.903000000006</v>
       </c>
       <c r="D88" s="72">
-        <v>1179099.25610151</v>
+        <v>1268588.2240762501</v>
       </c>
       <c r="E88" s="72">
-        <v>532979.76772985503</v>
+        <v>532446.96840509702</v>
       </c>
       <c r="F88" s="73">
-        <v>7.7358398673024302</v>
+        <v>0.81623062422228998</v>
       </c>
       <c r="G88" s="74">
-        <v>15368.023591216999</v>
+        <v>16385.4689946504</v>
       </c>
       <c r="H88" s="75">
-        <v>4.5556051808843199</v>
+        <v>6.8688594617687899</v>
       </c>
       <c r="I88" s="73">
-        <v>54.284857142857199</v>
+        <v>55.6181428571429</v>
       </c>
       <c r="J88" s="73">
         <v>50.04</v>
@@ -5073,37 +5073,37 @@
         <v>156</v>
       </c>
       <c r="C89" s="71">
-        <v>2470490.3330000001</v>
+        <v>2446950.415</v>
       </c>
       <c r="D89" s="72">
-        <v>49768341.708983101</v>
+        <v>53965527.465994999</v>
       </c>
       <c r="E89" s="72">
-        <v>26917735.884856202</v>
+        <v>28256239.878986601</v>
       </c>
       <c r="F89" s="73">
-        <v>7.6245635184190297</v>
+        <v>3.0340622859026398</v>
       </c>
       <c r="G89" s="74">
-        <v>20422.2509312533</v>
+        <v>22319.675335828699</v>
       </c>
       <c r="H89" s="75">
-        <v>0.85250710422560005</v>
+        <v>1.87569202293811</v>
       </c>
       <c r="I89" s="73">
-        <v>57.515142857142898</v>
+        <v>59.518205128205203</v>
       </c>
       <c r="J89" s="73">
-        <v>38.421875</v>
+        <v>38.133333333333297</v>
       </c>
       <c r="K89" s="73">
-        <v>1.8968750000000001</v>
+        <v>1.94</v>
       </c>
       <c r="L89" s="76">
-        <v>0.76788888888888995</v>
+        <v>0.76613636363635995</v>
       </c>
       <c r="M89" s="77">
-        <v>0.64805555555556005</v>
+        <v>0.64317142857142995</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5114,37 +5114,37 @@
         <v>157</v>
       </c>
       <c r="C90" s="79">
-        <v>1182353.3319999999</v>
+        <v>1210898.679</v>
       </c>
       <c r="D90" s="80">
-        <v>65865048.972489901</v>
+        <v>73507442.376978502</v>
       </c>
       <c r="E90" s="80">
-        <v>58371303.927981898</v>
+        <v>60177073.566705503</v>
       </c>
       <c r="F90" s="81">
-        <v>5.3889823405144703</v>
+        <v>3.0844536650847099</v>
       </c>
       <c r="G90" s="82">
-        <v>56048.667841997398</v>
+        <v>61018.824725553102</v>
       </c>
       <c r="H90" s="83">
-        <v>3.2123454846075199</v>
+        <v>7.9864819690388398</v>
       </c>
       <c r="I90" s="81">
-        <v>62.335306122448998</v>
+        <v>63.3095490196079</v>
       </c>
       <c r="J90" s="81">
-        <v>31.494871794871798</v>
+        <v>32.0439024390244</v>
       </c>
       <c r="K90" s="81">
-        <v>0.28461538461538</v>
+        <v>0.33170731707317003</v>
       </c>
       <c r="L90" s="84">
-        <v>0.88627272727272999</v>
+        <v>0.88503571428571004</v>
       </c>
       <c r="M90" s="85">
-        <v>0.81911904761904997</v>
+        <v>0.81309090909090997</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -5155,25 +5155,25 @@
         <v>158</v>
       </c>
       <c r="C91" s="87">
-        <v>734890.13399999996</v>
+        <v>755567.929</v>
       </c>
       <c r="D91" s="88">
-        <v>1843786.78031773</v>
+        <v>2050882.6491344899</v>
       </c>
       <c r="E91" s="88">
-        <v>641011.35125858197</v>
+        <v>760873.52429233596</v>
       </c>
       <c r="F91" s="89">
-        <v>4.2570995351535199</v>
+        <v>4.0249691959295903</v>
       </c>
       <c r="G91" s="90">
-        <v>2624.3349801566201</v>
+        <v>2842.1370501770898</v>
       </c>
       <c r="H91" s="91">
-        <v>8.98915089460146</v>
+        <v>10.9932039209135</v>
       </c>
       <c r="I91" s="89">
-        <v>62.415727272727302</v>
+        <v>62.9495151515152</v>
       </c>
       <c r="J91" s="89">
         <v>40.553571428571402</v>
@@ -5196,25 +5196,25 @@
         <v>159</v>
       </c>
       <c r="C92" s="71">
-        <v>364678.43400000001</v>
+        <v>369611.52299999999</v>
       </c>
       <c r="D92" s="72">
-        <v>1804536.1906908399</v>
+        <v>2028266.7819099801</v>
       </c>
       <c r="E92" s="72">
-        <v>608717.24431728804</v>
+        <v>650317.32857838704</v>
       </c>
       <c r="F92" s="73">
-        <v>2.5839646968124201</v>
+        <v>5.7040676362039298</v>
       </c>
       <c r="G92" s="74">
-        <v>5635.6652049346703</v>
+        <v>6262.14679641161</v>
       </c>
       <c r="H92" s="75">
-        <v>5.5576564158240904</v>
+        <v>6.1496770018373104</v>
       </c>
       <c r="I92" s="73">
-        <v>58.820181818181801</v>
+        <v>61.083111111111101</v>
       </c>
       <c r="J92" s="73">
         <v>33.214285714285701</v>
@@ -5237,25 +5237,25 @@
         <v>160</v>
       </c>
       <c r="C93" s="71">
-        <v>5098.7640000000001</v>
+        <v>5169.4570000000003</v>
       </c>
       <c r="D93" s="72">
-        <v>45601.851249651198</v>
+        <v>52450.717685778996</v>
       </c>
       <c r="E93" s="72">
-        <v>18589.329838409401</v>
+        <v>20411.5008802306</v>
       </c>
       <c r="F93" s="73">
-        <v>4.3287792675260501</v>
+        <v>7.5418146195629703</v>
       </c>
       <c r="G93" s="74">
-        <v>9238.3228848237504</v>
+        <v>10481.4029091826</v>
       </c>
       <c r="H93" s="75">
-        <v>4.0388413039330802</v>
+        <v>10.784671104117599</v>
       </c>
       <c r="I93" s="73">
-        <v>52.984000000000002</v>
+        <v>53.703600000000002</v>
       </c>
       <c r="J93" s="73">
         <v>38.683333333333302</v>
@@ -5278,25 +5278,25 @@
         <v>161</v>
       </c>
       <c r="C94" s="71">
-        <v>63102.027000000002</v>
+        <v>62153.894999999997</v>
       </c>
       <c r="D94" s="72">
-        <v>1192957.35004167</v>
+        <v>1250498.23917993</v>
       </c>
       <c r="E94" s="72">
-        <v>698590.62040724303</v>
+        <v>742742.73698393698</v>
       </c>
       <c r="F94" s="73">
-        <v>8.2832601386794593</v>
+        <v>5.6846660690341597</v>
       </c>
       <c r="G94" s="74">
-        <v>24543.115213342098</v>
+        <v>25923.3447077214</v>
       </c>
       <c r="H94" s="75">
-        <v>2.3048595904049201</v>
+        <v>6.1210600403941502</v>
       </c>
       <c r="I94" s="73">
-        <v>61.475227272727302</v>
+        <v>62.391428571428598</v>
       </c>
       <c r="J94" s="73">
         <v>35.118181818181803</v>
@@ -5305,7 +5305,7 @@
         <v>5.7545454545454602</v>
       </c>
       <c r="L94" s="76">
-        <v>0.72493333333332999</v>
+        <v>0.72055172413793001</v>
       </c>
       <c r="M94" s="77">
         <v>0.55376923076923001</v>
@@ -5319,25 +5319,25 @@
         <v>162</v>
       </c>
       <c r="C95" s="71">
-        <v>356211.99800000002</v>
+        <v>365868.05599999998</v>
       </c>
       <c r="D95" s="72">
-        <v>850627.53228690696</v>
+        <v>956112.10658949404</v>
       </c>
       <c r="E95" s="72">
-        <v>327914.35472718102</v>
+        <v>362037.63630578603</v>
       </c>
       <c r="F95" s="73">
-        <v>5.9190857560761696</v>
+        <v>5.0867997918863797</v>
       </c>
       <c r="G95" s="74">
-        <v>2575.7272846003302</v>
+        <v>2824.7158520913099</v>
       </c>
       <c r="H95" s="75">
-        <v>22.0207676245778</v>
+        <v>14.069999999999901</v>
       </c>
       <c r="I95" s="73">
-        <v>66.161937499999993</v>
+        <v>66.667937499999994</v>
       </c>
       <c r="J95" s="73">
         <v>44.066666666666698</v>
@@ -5360,25 +5360,25 @@
         <v>163</v>
       </c>
       <c r="C96" s="79">
-        <v>194634.42600000001</v>
+        <v>197936.46799999999</v>
       </c>
       <c r="D96" s="80">
-        <v>1766049.81869214</v>
+        <v>1963349.33452417</v>
       </c>
       <c r="E96" s="80">
-        <v>597964.38238594402</v>
+        <v>682649.31383138394</v>
       </c>
       <c r="F96" s="81">
-        <v>5.1624692004160497</v>
+        <v>3.9574856219347501</v>
       </c>
       <c r="G96" s="82">
-        <v>11383.6308582742</v>
+        <v>12470.034362062799</v>
       </c>
       <c r="H96" s="83">
-        <v>8.0018662835986305</v>
+        <v>13.804048920275299</v>
       </c>
       <c r="I96" s="81">
-        <v>56.045124999999999</v>
+        <v>57.250533333333301</v>
       </c>
       <c r="J96" s="81">
         <v>33.690909090909102</v>
@@ -5401,37 +5401,37 @@
         <v>164</v>
       </c>
       <c r="C97" s="87">
-        <v>1023916.94</v>
+        <v>1064465.7420000001</v>
       </c>
       <c r="D97" s="88">
-        <v>3617062.9924139101</v>
+        <v>4047351.5717887301</v>
       </c>
       <c r="E97" s="88">
-        <v>1344604.63925397</v>
+        <v>1525301.21399768</v>
       </c>
       <c r="F97" s="89">
-        <v>5.2506340834632201</v>
+        <v>3.35921216316344</v>
       </c>
       <c r="G97" s="90">
-        <v>3654.9202197483201</v>
+        <v>3932.3773692926302</v>
       </c>
       <c r="H97" s="91">
-        <v>16.952790783419601</v>
+        <v>18.846844823714299</v>
       </c>
       <c r="I97" s="89">
-        <v>62.6536756756757</v>
+        <v>63.338052631578897</v>
       </c>
       <c r="J97" s="89">
-        <v>41.424137931034501</v>
+        <v>41.303333333333299</v>
       </c>
       <c r="K97" s="89">
-        <v>32.0724137931035</v>
+        <v>31.6666666666667</v>
       </c>
       <c r="L97" s="92">
-        <v>0.51280555555555996</v>
+        <v>0.51367567567567995</v>
       </c>
       <c r="M97" s="93">
-        <v>0.34531250000000002</v>
+        <v>0.34524242424242002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5442,37 +5442,37 @@
         <v>165</v>
       </c>
       <c r="C98" s="79">
-        <v>825197.09100000001</v>
+        <v>845258.19400000002</v>
       </c>
       <c r="D98" s="80">
-        <v>5425606.8276800402</v>
+        <v>6216700.0004686797</v>
       </c>
       <c r="E98" s="80">
-        <v>1632183.0259404799</v>
+        <v>1960657.3365559001</v>
       </c>
       <c r="F98" s="81">
-        <v>4.64333534714069</v>
+        <v>5.0749431628383697</v>
       </c>
       <c r="G98" s="82">
-        <v>7569.57103499401</v>
+        <v>8461.4046268345191</v>
       </c>
       <c r="H98" s="83">
-        <v>8.9014616352852904</v>
+        <v>12.1478738272284</v>
       </c>
       <c r="I98" s="81">
-        <v>55.262631578947399</v>
+        <v>56.732315789473702</v>
       </c>
       <c r="J98" s="81">
-        <v>38.58</v>
+        <v>37.681818181818201</v>
       </c>
       <c r="K98" s="81">
-        <v>8.0500000000000007</v>
+        <v>9.5363636363636406</v>
       </c>
       <c r="L98" s="84">
-        <v>0.60844444444444001</v>
+        <v>0.61365000000000003</v>
       </c>
       <c r="M98" s="85">
-        <v>0.47685714285713998</v>
+        <v>0.48112500000000002</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -5723,11 +5723,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7C15601F-3600-4AE5-AB0A-6DBE46A19165}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{777DEDB5-8EA8-4B8D-99E1-403B1BEBAF4C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{9415CC3C-31F2-477B-ABE9-04776CAA0B6A}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9741D369-2844-47B0-980B-D8BC36DD44F6}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{FD0689D0-21CD-435A-8DB5-80AA17B767BA}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8F4D9BEC-BDFB-4B9F-B471-DD1D179ECC6F}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EEBEADCA-11ED-4CAE-993A-2F31A152DF59}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{E7985938-03BB-4143-8AC5-ED508C6B5DF2}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{97B3C0E9-3511-4188-B440-0A7210EAF183}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C5318448-7534-4031-95C1-7E0BE71AF58C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab01.xlsx
+++ b/AfDD_2023_Annex_Table_Tab01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7566E9B0-8E5E-488D-B670-0790D000A004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD008879-B1D6-4865-A180-0B65D969CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2F34194-CAA8-44B6-9BF2-4386B3DD8E1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D73BE879-9059-49CB-9CA6-DF8266058C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85A9277-EFA5-4650-9B23-6224F758253E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8A94BD-A2B1-434C-AAE5-74148BBF03B4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4028,10 +4028,10 @@
         <v>60.798785123967001</v>
       </c>
       <c r="J63" s="64">
-        <v>34.991578947368403</v>
+        <v>34.976190476190503</v>
       </c>
       <c r="K63" s="64">
-        <v>2.34</v>
+        <v>2.3285714285714301</v>
       </c>
       <c r="L63" s="67">
         <v>0.78479104477612005</v>
@@ -4110,10 +4110,10 @@
         <v>55.938749999999999</v>
       </c>
       <c r="J65" s="73">
-        <v>35.174999999999997</v>
+        <v>35.105128205128203</v>
       </c>
       <c r="K65" s="73">
-        <v>5</v>
+        <v>5.0128205128205101</v>
       </c>
       <c r="L65" s="76">
         <v>0.67279310344828003</v>
@@ -4151,10 +4151,10 @@
         <v>60.784931034482803</v>
       </c>
       <c r="J66" s="81">
-        <v>37.119285714285702</v>
+        <v>37.116487455197102</v>
       </c>
       <c r="K66" s="81">
-        <v>10.047857142857101</v>
+        <v>10.0677419354839</v>
       </c>
       <c r="L66" s="84">
         <v>0.72128877005348002</v>
@@ -4561,10 +4561,10 @@
         <v>66.647666666666694</v>
       </c>
       <c r="J76" s="89">
-        <v>37.314285714285703</v>
+        <v>37.269230769230802</v>
       </c>
       <c r="K76" s="89">
-        <v>2.3285714285714301</v>
+        <v>2.1615384615384601</v>
       </c>
       <c r="L76" s="92">
         <v>0.72929999999999995</v>
@@ -4848,10 +4848,10 @@
         <v>60.901110000000003</v>
       </c>
       <c r="J83" s="81">
-        <v>35.052873563218398</v>
+        <v>35.036416184971102</v>
       </c>
       <c r="K83" s="81">
-        <v>1.9862068965517199</v>
+        <v>1.97167630057803</v>
       </c>
       <c r="L83" s="84">
         <v>0.79100000000000004</v>
@@ -5012,10 +5012,10 @@
         <v>59.125481481481501</v>
       </c>
       <c r="J87" s="73">
-        <v>35.908333333333303</v>
+        <v>35.865957446808501</v>
       </c>
       <c r="K87" s="73">
-        <v>5.4666666666666703</v>
+        <v>5.4872340425531902</v>
       </c>
       <c r="L87" s="76">
         <v>0.65893548387097001</v>
@@ -5094,7 +5094,7 @@
         <v>59.518205128205203</v>
       </c>
       <c r="J89" s="73">
-        <v>38.133333333333297</v>
+        <v>38.133333333333397</v>
       </c>
       <c r="K89" s="73">
         <v>1.94</v>
@@ -5723,11 +5723,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8F4D9BEC-BDFB-4B9F-B471-DD1D179ECC6F}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EEBEADCA-11ED-4CAE-993A-2F31A152DF59}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E7985938-03BB-4143-8AC5-ED508C6B5DF2}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{97B3C0E9-3511-4188-B440-0A7210EAF183}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C5318448-7534-4031-95C1-7E0BE71AF58C}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CC7BDE7E-3B35-4DD4-97B2-0CF5998087E4}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{79ABC8DB-E35B-4914-AB5B-A866BFCA9CF1}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{E8356A25-D999-4959-BDD4-05A10F30A6EC}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{28690A9C-8E3C-47CA-910A-BC11F5D3E5B0}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7FBE0080-2830-4F60-8071-0A80883D8F60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab01.xlsx
+++ b/AfDD_2023_Annex_Table_Tab01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD008879-B1D6-4865-A180-0B65D969CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9542C50-4563-4703-AC94-8FB8D17A0DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D73BE879-9059-49CB-9CA6-DF8266058C1D}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{36D80265-8BB1-4A8E-8387-8DE0A1EACA01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>For aggregate inflation figures, median values are taken weighted by GDP in PPP dollars.</t>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8A94BD-A2B1-434C-AAE5-74148BBF03B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC132AD-7837-4072-A2FC-6A502A5B25F7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1498,7 +1498,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4028,10 +4028,10 @@
         <v>60.798785123967001</v>
       </c>
       <c r="J63" s="64">
-        <v>34.976190476190503</v>
+        <v>34.991578947368403</v>
       </c>
       <c r="K63" s="64">
-        <v>2.3285714285714301</v>
+        <v>2.3294736842105301</v>
       </c>
       <c r="L63" s="67">
         <v>0.78479104477612005</v>
@@ -4110,10 +4110,10 @@
         <v>55.938749999999999</v>
       </c>
       <c r="J65" s="73">
-        <v>35.105128205128203</v>
+        <v>35.174999999999997</v>
       </c>
       <c r="K65" s="73">
-        <v>5.0128205128205101</v>
+        <v>4.95</v>
       </c>
       <c r="L65" s="76">
         <v>0.67279310344828003</v>
@@ -4151,10 +4151,10 @@
         <v>60.784931034482803</v>
       </c>
       <c r="J66" s="81">
-        <v>37.116487455197102</v>
+        <v>37.119285714285702</v>
       </c>
       <c r="K66" s="81">
-        <v>10.0677419354839</v>
+        <v>10.0407142857143</v>
       </c>
       <c r="L66" s="84">
         <v>0.72128877005348002</v>
@@ -4561,10 +4561,10 @@
         <v>66.647666666666694</v>
       </c>
       <c r="J76" s="89">
-        <v>37.269230769230802</v>
+        <v>37.314285714285703</v>
       </c>
       <c r="K76" s="89">
-        <v>2.1615384615384601</v>
+        <v>2.1857142857142899</v>
       </c>
       <c r="L76" s="92">
         <v>0.72929999999999995</v>
@@ -4848,10 +4848,10 @@
         <v>60.901110000000003</v>
       </c>
       <c r="J83" s="81">
-        <v>35.036416184971102</v>
+        <v>35.052873563218398</v>
       </c>
       <c r="K83" s="81">
-        <v>1.97167630057803</v>
+        <v>1.9747126436781599</v>
       </c>
       <c r="L83" s="84">
         <v>0.79100000000000004</v>
@@ -5012,10 +5012,10 @@
         <v>59.125481481481501</v>
       </c>
       <c r="J87" s="73">
-        <v>35.865957446808501</v>
+        <v>35.908333333333303</v>
       </c>
       <c r="K87" s="73">
-        <v>5.4872340425531902</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="L87" s="76">
         <v>0.65893548387097001</v>
@@ -5094,7 +5094,7 @@
         <v>59.518205128205203</v>
       </c>
       <c r="J89" s="73">
-        <v>38.133333333333397</v>
+        <v>38.133333333333297</v>
       </c>
       <c r="K89" s="73">
         <v>1.94</v>
@@ -5401,37 +5401,37 @@
         <v>164</v>
       </c>
       <c r="C97" s="87">
-        <v>1064465.7420000001</v>
+        <v>842549.25199999998</v>
       </c>
       <c r="D97" s="88">
-        <v>4047351.5717887301</v>
+        <v>3576593.0168705201</v>
       </c>
       <c r="E97" s="88">
-        <v>1525301.21399768</v>
+        <v>1347361.3473996599</v>
       </c>
       <c r="F97" s="89">
-        <v>3.35921216316344</v>
+        <v>3.6103000928228699</v>
       </c>
       <c r="G97" s="90">
-        <v>3932.3773692926302</v>
+        <v>4392.0388032063001</v>
       </c>
       <c r="H97" s="91">
         <v>18.846844823714299</v>
       </c>
       <c r="I97" s="89">
-        <v>63.338052631578897</v>
+        <v>63.459178571428602</v>
       </c>
       <c r="J97" s="89">
-        <v>41.303333333333299</v>
+        <v>41.719230769230798</v>
       </c>
       <c r="K97" s="89">
-        <v>31.6666666666667</v>
+        <v>29.669230769230801</v>
       </c>
       <c r="L97" s="92">
-        <v>0.51367567567567995</v>
+        <v>0.52607142857142997</v>
       </c>
       <c r="M97" s="93">
-        <v>0.34524242424242002</v>
+        <v>0.35523076923077002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5442,37 +5442,37 @@
         <v>165</v>
       </c>
       <c r="C98" s="79">
-        <v>845258.19400000002</v>
+        <v>692226.44200000004</v>
       </c>
       <c r="D98" s="80">
-        <v>6216700.0004686797</v>
+        <v>5590629.0987125896</v>
       </c>
       <c r="E98" s="80">
-        <v>1960657.3365559001</v>
+        <v>1649113.1550898999</v>
       </c>
       <c r="F98" s="81">
-        <v>5.0749431628383697</v>
+        <v>4.8789750798261302</v>
       </c>
       <c r="G98" s="82">
-        <v>8461.4046268345191</v>
+        <v>8621.4504622752502</v>
       </c>
       <c r="H98" s="83">
         <v>12.1478738272284</v>
       </c>
       <c r="I98" s="81">
-        <v>56.732315789473702</v>
+        <v>59.288333333333298</v>
       </c>
       <c r="J98" s="81">
-        <v>37.681818181818201</v>
+        <v>37.78</v>
       </c>
       <c r="K98" s="81">
-        <v>9.5363636363636406</v>
+        <v>8.51</v>
       </c>
       <c r="L98" s="84">
-        <v>0.61365000000000003</v>
+        <v>0.63606666666667</v>
       </c>
       <c r="M98" s="85">
-        <v>0.48112500000000002</v>
+        <v>0.50253846153846005</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -5723,11 +5723,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CC7BDE7E-3B35-4DD4-97B2-0CF5998087E4}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{79ABC8DB-E35B-4914-AB5B-A866BFCA9CF1}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E8356A25-D999-4959-BDD4-05A10F30A6EC}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{28690A9C-8E3C-47CA-910A-BC11F5D3E5B0}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7FBE0080-2830-4F60-8071-0A80883D8F60}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{992429C0-CE9A-41DB-BBD3-4CB938DFDFFD}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7F6CA267-2054-4194-BB22-7C98AEF293DD}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{81B70101-EAD8-4DFA-B761-64D55A4A91DA}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0FAA6967-B536-4181-806C-4C76C3D105F8}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{8B0EA832-42A0-4897-ACD2-7CDDDC3B3F72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab01.xlsx
+++ b/AfDD_2023_Annex_Table_Tab01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9542C50-4563-4703-AC94-8FB8D17A0DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66052C0C-F0FD-4A12-8DEA-7FFC9322E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{36D80265-8BB1-4A8E-8387-8DE0A1EACA01}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{60682B1B-251C-4EB3-B0EC-1E9ABC88BDC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>Table 1: Indicators of growth, employment and inequality</t>
   </si>
@@ -558,16 +558,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC132AD-7837-4072-A2FC-6A502A5B25F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EB9FD1-D330-4616-897A-FE743DC5EDFE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5631,7 +5634,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C109" s="96"/>
       <c r="D109" s="96"/>
@@ -5647,7 +5650,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C110" s="96"/>
       <c r="D110" s="96"/>
@@ -5662,7 +5665,9 @@
       <c r="M110" s="96"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="C111" s="96"/>
       <c r="D111" s="96"/>
       <c r="E111" s="96"/>
@@ -5677,7 +5682,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C112" s="96"/>
       <c r="D112" s="96"/>
@@ -5693,7 +5698,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C113" s="96"/>
       <c r="D113" s="96"/>
@@ -5723,13 +5728,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{992429C0-CE9A-41DB-BBD3-4CB938DFDFFD}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7F6CA267-2054-4194-BB22-7C98AEF293DD}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{81B70101-EAD8-4DFA-B761-64D55A4A91DA}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0FAA6967-B536-4181-806C-4C76C3D105F8}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{8B0EA832-42A0-4897-ACD2-7CDDDC3B3F72}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{82819E02-8093-4EA1-B9E0-D5ADD723BA8A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{18710B32-7543-4C57-994A-A39EA40FB54B}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{8A48AF2A-EEC1-433D-803F-7284E03A5E17}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{BF0055A4-2FAA-4D0C-AB25-F8EFB108E34D}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{7271DB3C-3FF6-444C-8B6F-9E10F907B642}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{CE30B26A-D7DF-4958-9BA0-525930C210C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab01.xlsx
+++ b/AfDD_2023_Annex_Table_Tab01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66052C0C-F0FD-4A12-8DEA-7FFC9322E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DC382F-A100-4527-9B95-A14C1999A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{60682B1B-251C-4EB3-B0EC-1E9ABC88BDC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{73CBCB22-6185-4AA0-9A32-200F7D070035}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab01'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab01'!$A$1:$L$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="178">
   <si>
     <t>Table 1: Indicators of growth, employment and inequality</t>
   </si>
@@ -552,7 +552,7 @@
     <t>For aggregate inflation figures, median values are taken weighted by GDP in PPP dollars.</t>
   </si>
   <si>
-    <t>Source: World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, International Labour Organization - ILOSTAT (retrieved 14/05/2023), United Nations Development Programme Human Development Data Online (2022 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -22/12/2022), IMF World Economic Outlook Database April 2023.</t>
+    <t>Source: World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, International Labour Organization - ILOSTAT (retrieved 14/05/2023), United Nations Development Programme Human Development Data Online (2022 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -10/10/2023), IMF World Economic Outlook Database October 2023.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EB9FD1-D330-4616-897A-FE743DC5EDFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459A966B-6D7E-4FC2-8DE8-689F204B3680}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1476,16 +1476,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.36328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="12.36328125" style="98" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="12.33203125" style="98" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1501,7 +1501,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1553,19 +1553,19 @@
         <v>35588.987000000001</v>
       </c>
       <c r="D3" s="12">
-        <v>247224.950609733</v>
+        <v>247977</v>
       </c>
       <c r="E3" s="12">
-        <v>121417.133472424</v>
+        <v>122781</v>
       </c>
       <c r="F3" s="13">
-        <v>2.8414582803347099</v>
+        <v>3.04573793371017</v>
       </c>
       <c r="G3" s="14">
-        <v>6922.8567849508499</v>
+        <v>6943.9120000000003</v>
       </c>
       <c r="H3" s="15">
-        <v>21.360453653558199</v>
+        <v>21.360453152485402</v>
       </c>
       <c r="I3" s="13">
         <v>76.873000000000005</v>
@@ -1583,7 +1583,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1594,19 +1594,19 @@
         <v>2630.2959999999998</v>
       </c>
       <c r="D4" s="20">
-        <v>48479.898169056301</v>
+        <v>48194</v>
       </c>
       <c r="E4" s="20">
-        <v>19176.470483492001</v>
+        <v>20352</v>
       </c>
       <c r="F4" s="21">
-        <v>6.4333233272605899</v>
+        <v>5.7826881772007601</v>
       </c>
       <c r="G4" s="22">
-        <v>18346.6710449739</v>
+        <v>18322.822</v>
       </c>
       <c r="H4" s="23">
-        <v>12.1999999999999</v>
+        <v>12.2001823183647</v>
       </c>
       <c r="I4" s="21">
         <v>64.962999999999994</v>
@@ -1624,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1635,19 +1635,19 @@
         <v>1201.67</v>
       </c>
       <c r="D5" s="28">
-        <v>12526.710958047899</v>
+        <v>12913</v>
       </c>
       <c r="E5" s="28">
-        <v>4462.1449648350199</v>
+        <v>4837</v>
       </c>
       <c r="F5" s="29">
-        <v>0.46742790636067</v>
+        <v>3.5639735448572898</v>
       </c>
       <c r="G5" s="30">
-        <v>10881.751303593001</v>
+        <v>11216.932000000001</v>
       </c>
       <c r="H5" s="31">
-        <v>4.8024903991432204</v>
+        <v>4.8024183409274999</v>
       </c>
       <c r="I5" s="29">
         <v>50.481999999999999</v>
@@ -1665,7 +1665,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -1676,19 +1676,19 @@
         <v>2305.826</v>
       </c>
       <c r="D6" s="28">
-        <v>6548.7506766769602</v>
+        <v>6531</v>
       </c>
       <c r="E6" s="28">
-        <v>2479.6443303801998</v>
+        <v>2463</v>
       </c>
       <c r="F6" s="29">
-        <v>2.09313565517499</v>
+        <v>2.1209320426132301</v>
       </c>
       <c r="G6" s="30">
-        <v>3100.4421408541298</v>
+        <v>3091.864</v>
       </c>
       <c r="H6" s="31">
-        <v>8.2415423642642693</v>
+        <v>8.2413637002232196</v>
       </c>
       <c r="I6" s="29">
         <v>64.334000000000003</v>
@@ -1706,7 +1706,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1717,19 +1717,19 @@
         <v>20405.316999999999</v>
       </c>
       <c r="D7" s="28">
-        <v>35962.963399736203</v>
+        <v>35963</v>
       </c>
       <c r="E7" s="28">
-        <v>12512.255012674101</v>
+        <v>12537</v>
       </c>
       <c r="F7" s="29">
-        <v>0.80000000000002003</v>
+        <v>0.80000537801019</v>
       </c>
       <c r="G7" s="30">
-        <v>1627.82349532951</v>
+        <v>1627.8130000000001</v>
       </c>
       <c r="H7" s="31">
-        <v>20.838714913636998</v>
+        <v>20.838999999999999</v>
       </c>
       <c r="I7" s="29">
         <v>67.634</v>
@@ -1747,7 +1747,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1758,28 +1758,28 @@
         <v>32969.517999999996</v>
       </c>
       <c r="D8" s="28">
-        <v>48391.356503594099</v>
+        <v>48425</v>
       </c>
       <c r="E8" s="28">
-        <v>17939.6789971465</v>
+        <v>19157</v>
       </c>
       <c r="F8" s="29">
-        <v>4.1484504114307104</v>
+        <v>4.1905907417487498</v>
       </c>
       <c r="G8" s="30">
-        <v>1467.7605084670699</v>
+        <v>1468.7940000000001</v>
       </c>
       <c r="H8" s="31">
-        <v>9.7697468645651302</v>
+        <v>9.7702564561741099</v>
       </c>
       <c r="I8" s="29">
         <v>78.483999999999995</v>
       </c>
       <c r="J8" s="29">
-        <v>54</v>
+        <v>50.5</v>
       </c>
       <c r="K8" s="29">
-        <v>64.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="L8" s="32">
         <v>0.45600000000000002</v>
@@ -1788,7 +1788,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -1799,19 +1799,19 @@
         <v>2567.0120000000002</v>
       </c>
       <c r="D9" s="28">
-        <v>28347.8191668002</v>
+        <v>28765</v>
       </c>
       <c r="E9" s="28">
-        <v>12345.130174149201</v>
+        <v>12602</v>
       </c>
       <c r="F9" s="29">
-        <v>3.8420301796612901</v>
+        <v>4.5599651744903102</v>
       </c>
       <c r="G9" s="30">
-        <v>10916.4895815687</v>
+        <v>11080.286</v>
       </c>
       <c r="H9" s="31">
-        <v>6.0767103716913997</v>
+        <v>6.0761613264066501</v>
       </c>
       <c r="I9" s="29">
         <v>58.866</v>
@@ -1829,7 +1829,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1840,19 +1840,19 @@
         <v>59893.885000000002</v>
       </c>
       <c r="D10" s="28">
-        <v>952597.60258273</v>
+        <v>953209</v>
       </c>
       <c r="E10" s="28">
-        <v>405704.87394958001</v>
+        <v>405106</v>
       </c>
       <c r="F10" s="29">
-        <v>2.0422965473819299</v>
+        <v>1.9103957329022401</v>
       </c>
       <c r="G10" s="30">
-        <v>15718.394868040599</v>
+        <v>15728.48</v>
       </c>
       <c r="H10" s="31">
-        <v>6.8688594617687899</v>
+        <v>6.8688359885997796</v>
       </c>
       <c r="I10" s="29">
         <v>56.805</v>
@@ -1870,7 +1870,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -1881,28 +1881,28 @@
         <v>20017.674999999999</v>
       </c>
       <c r="D11" s="20">
-        <v>76984.4725265171</v>
+        <v>77948</v>
       </c>
       <c r="E11" s="20">
-        <v>28500.226436531098</v>
+        <v>29742</v>
       </c>
       <c r="F11" s="21">
-        <v>3.4412191944634301</v>
+        <v>4.7373169546810896</v>
       </c>
       <c r="G11" s="22">
-        <v>3845.8248785894002</v>
+        <v>3893.9780000000001</v>
       </c>
       <c r="H11" s="23">
-        <v>10.9932039209135</v>
+        <v>10.9931581819695</v>
       </c>
       <c r="I11" s="21">
         <v>60.661999999999999</v>
       </c>
       <c r="J11" s="21">
-        <v>57.1</v>
+        <v>55.9</v>
       </c>
       <c r="K11" s="21">
-        <v>61.4</v>
+        <v>60.8</v>
       </c>
       <c r="L11" s="24">
         <v>0.58399999999999996</v>
@@ -1911,7 +1911,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1922,19 +1922,19 @@
         <v>16320.537</v>
       </c>
       <c r="D12" s="28">
-        <v>39904.955680224302</v>
+        <v>41168</v>
       </c>
       <c r="E12" s="28">
-        <v>33020.250431407403</v>
+        <v>31490</v>
       </c>
       <c r="F12" s="29">
-        <v>3.02888946329487</v>
+        <v>6.2229722603101001</v>
       </c>
       <c r="G12" s="30">
-        <v>2522.9487521678502</v>
+        <v>2602.7809999999999</v>
       </c>
       <c r="H12" s="31">
-        <v>193.39883631880599</v>
+        <v>193.398882553569</v>
       </c>
       <c r="I12" s="29">
         <v>66.061000000000007</v>
@@ -1952,7 +1952,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>35</v>
       </c>
@@ -1963,28 +1963,28 @@
         <v>193900.723</v>
       </c>
       <c r="D13" s="37">
-        <v>1496969.4802731201</v>
+        <v>1501093</v>
       </c>
       <c r="E13" s="37">
-        <v>657557.808252619</v>
+        <v>661067</v>
       </c>
       <c r="F13" s="38">
-        <v>2.4740896049250098</v>
+        <v>2.60021376799267</v>
       </c>
       <c r="G13" s="39">
-        <v>7653.8468918975896</v>
+        <v>7676.5120160813003</v>
       </c>
       <c r="H13" s="40">
-        <v>6.8688594617687899</v>
+        <v>6.8688359885997796</v>
       </c>
       <c r="I13" s="38">
         <v>64.516400000000004</v>
       </c>
       <c r="J13" s="38">
-        <v>52.61</v>
+        <v>52.14</v>
       </c>
       <c r="K13" s="38">
-        <v>38.700000000000003</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="L13" s="41">
         <v>0.59030000000000005</v>
@@ -1993,7 +1993,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
@@ -2004,19 +2004,19 @@
         <v>12889.575999999999</v>
       </c>
       <c r="D14" s="28">
-        <v>10781.7248667231</v>
+        <v>10782</v>
       </c>
       <c r="E14" s="28">
-        <v>3894.2338769605599</v>
+        <v>3918</v>
       </c>
       <c r="F14" s="29">
-        <v>1.8268014088606701</v>
+        <v>1.82678546997597</v>
       </c>
       <c r="G14" s="30">
-        <v>855.81897777459005</v>
+        <v>855.81399999999996</v>
       </c>
       <c r="H14" s="31">
-        <v>18.900743614614001</v>
+        <v>18.901002062874301</v>
       </c>
       <c r="I14" s="29">
         <v>79.733999999999995</v>
@@ -2034,7 +2034,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -2045,19 +2045,19 @@
         <v>27914.536</v>
       </c>
       <c r="D15" s="28">
-        <v>123216.416382681</v>
+        <v>123683</v>
       </c>
       <c r="E15" s="28">
-        <v>43716.302384920302</v>
+        <v>44322</v>
       </c>
       <c r="F15" s="29">
-        <v>3.3831046342539501</v>
+        <v>3.7750993449458701</v>
       </c>
       <c r="G15" s="30">
-        <v>4414.5324380006195</v>
+        <v>4431.2430000000004</v>
       </c>
       <c r="H15" s="31">
-        <v>5.2999999999999501</v>
+        <v>6.2522214448464304</v>
       </c>
       <c r="I15" s="29">
         <v>71.771000000000001</v>
@@ -2075,7 +2075,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -2086,28 +2086,28 @@
         <v>5579.1440000000002</v>
       </c>
       <c r="D16" s="28">
-        <v>5419.3084032309898</v>
+        <v>5424</v>
       </c>
       <c r="E16" s="28">
-        <v>2461.6891595002098</v>
+        <v>2463</v>
       </c>
       <c r="F16" s="29">
-        <v>0.37820501789818001</v>
+        <v>0.47224818680095998</v>
       </c>
       <c r="G16" s="30">
-        <v>1080.1890379172801</v>
+        <v>1081.194</v>
       </c>
       <c r="H16" s="31">
-        <v>5.8351282449441699</v>
+        <v>5.8076760668897496</v>
       </c>
       <c r="I16" s="29">
         <v>70.584000000000003</v>
       </c>
-      <c r="J16" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>18</v>
+      <c r="J16" s="29">
+        <v>43</v>
+      </c>
+      <c r="K16" s="29">
+        <v>65.7</v>
       </c>
       <c r="L16" s="32">
         <v>0.39700000000000002</v>
@@ -2116,7 +2116,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2127,19 +2127,19 @@
         <v>17723.314999999999</v>
       </c>
       <c r="D17" s="45">
-        <v>29789.984461296099</v>
+        <v>30026</v>
       </c>
       <c r="E17" s="45">
-        <v>11909.294301079801</v>
+        <v>12096</v>
       </c>
       <c r="F17" s="46">
-        <v>2.4940685448479898</v>
+        <v>3.3943309917919602</v>
       </c>
       <c r="G17" s="47">
-        <v>1710.69165391616</v>
+        <v>1724.23</v>
       </c>
       <c r="H17" s="48">
-        <v>5.2866006432214601</v>
+        <v>5.7947641868179298</v>
       </c>
       <c r="I17" s="46">
         <v>59.561999999999998</v>
@@ -2157,7 +2157,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -2168,19 +2168,19 @@
         <v>5970.424</v>
       </c>
       <c r="D18" s="45">
-        <v>24049.803468234601</v>
+        <v>25954</v>
       </c>
       <c r="E18" s="45">
-        <v>12529.5615472275</v>
+        <v>13961</v>
       </c>
       <c r="F18" s="46">
-        <v>2.78462529926</v>
+        <v>1.74993607174898</v>
       </c>
       <c r="G18" s="47">
-        <v>4889.3783925001198</v>
+        <v>5276.4989999999998</v>
       </c>
       <c r="H18" s="48">
-        <v>3.5000000000001301</v>
+        <v>3.02554368249135</v>
       </c>
       <c r="I18" s="46">
         <v>67.590999999999994</v>
@@ -2198,7 +2198,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -2209,19 +2209,19 @@
         <v>99010.212</v>
       </c>
       <c r="D19" s="20">
-        <v>133485.28814541901</v>
+        <v>136349</v>
       </c>
       <c r="E19" s="20">
-        <v>62859.4195207804</v>
+        <v>65784</v>
       </c>
       <c r="F19" s="21">
-        <v>6.6265936629248898</v>
+        <v>8.9172974587968596</v>
       </c>
       <c r="G19" s="22">
-        <v>1378.9702769791199</v>
+        <v>1408.557</v>
       </c>
       <c r="H19" s="23">
-        <v>8.9955260705056901</v>
+        <v>9.2663253846584794</v>
       </c>
       <c r="I19" s="21">
         <v>66.233000000000004</v>
@@ -2239,7 +2239,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -2250,19 +2250,19 @@
         <v>1674.9079999999999</v>
       </c>
       <c r="D20" s="45">
-        <v>28041.5519290595</v>
+        <v>29165</v>
       </c>
       <c r="E20" s="45">
-        <v>16451.491214006499</v>
+        <v>11767</v>
       </c>
       <c r="F20" s="46">
-        <v>1.56778519823746</v>
+        <v>3.2458290470905</v>
       </c>
       <c r="G20" s="47">
-        <v>18715.741329304401</v>
+        <v>19465.316999999999</v>
       </c>
       <c r="H20" s="48">
-        <v>5.0163336523762201</v>
+        <v>4.8688440893598797</v>
       </c>
       <c r="I20" s="46">
         <v>55.03</v>
@@ -2280,7 +2280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -2291,19 +2291,19 @@
         <v>2388.9920000000002</v>
       </c>
       <c r="D21" s="45">
-        <v>39272.017461327501</v>
+        <v>39348</v>
       </c>
       <c r="E21" s="45">
-        <v>21931.254014718699</v>
+        <v>21117</v>
       </c>
       <c r="F21" s="46">
-        <v>2.8476172288171</v>
+        <v>3.0369801422510698</v>
       </c>
       <c r="G21" s="47">
-        <v>18171.232257632601</v>
+        <v>18206.498</v>
       </c>
       <c r="H21" s="48">
-        <v>4.2504192378473302</v>
+        <v>4.2506114716319701</v>
       </c>
       <c r="I21" s="46">
         <v>47.654000000000003</v>
@@ -2321,7 +2321,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>53</v>
       </c>
@@ -2332,19 +2332,19 @@
         <v>227.38</v>
       </c>
       <c r="D22" s="28">
-        <v>1067.71866322596</v>
+        <v>923</v>
       </c>
       <c r="E22" s="28">
-        <v>551.78784895912395</v>
+        <v>548</v>
       </c>
       <c r="F22" s="29">
-        <v>0.89103414916578005</v>
+        <v>7.2271741748969998E-2</v>
       </c>
       <c r="G22" s="30">
-        <v>4703.6064459293202</v>
+        <v>4067.21</v>
       </c>
       <c r="H22" s="31">
-        <v>17.998113634185898</v>
+        <v>18.005844643068698</v>
       </c>
       <c r="I22" s="29">
         <v>53.765999999999998</v>
@@ -2362,7 +2362,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
         <v>35</v>
       </c>
@@ -2373,28 +2373,28 @@
         <v>173378.48699999999</v>
       </c>
       <c r="D23" s="37">
-        <v>395123.813781198</v>
+        <v>401654</v>
       </c>
       <c r="E23" s="37">
-        <v>176305.033868153</v>
+        <v>175976</v>
       </c>
       <c r="F23" s="38">
-        <v>4.1029331789518704</v>
+        <v>5.14523571873295</v>
       </c>
       <c r="G23" s="39">
-        <v>2377.2142309140299</v>
+        <v>2418.4398331888201</v>
       </c>
       <c r="H23" s="40">
-        <v>5.2999999999999501</v>
+        <v>6.2522214448464304</v>
       </c>
       <c r="I23" s="38">
         <v>63.547222222222203</v>
       </c>
       <c r="J23" s="38">
-        <v>40.28</v>
+        <v>40.733333333333299</v>
       </c>
       <c r="K23" s="38">
-        <v>27.96</v>
+        <v>34.25</v>
       </c>
       <c r="L23" s="41">
         <v>0.52944444444444005</v>
@@ -2403,7 +2403,7 @@
         <v>0.37337500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
@@ -2414,19 +2414,19 @@
         <v>836.774</v>
       </c>
       <c r="D24" s="28">
-        <v>3208.2435619561002</v>
+        <v>3213</v>
       </c>
       <c r="E24" s="28">
-        <v>1233.22159831517</v>
+        <v>1237</v>
       </c>
       <c r="F24" s="29">
-        <v>2.43084338007773</v>
+        <v>2.5982700150045002</v>
       </c>
       <c r="G24" s="30">
-        <v>3357.8857593604098</v>
+        <v>3363.36</v>
       </c>
       <c r="H24" s="31">
-        <v>11.9954996433035</v>
+        <v>12.443395480672599</v>
       </c>
       <c r="I24" s="29">
         <v>44.161999999999999</v>
@@ -2444,7 +2444,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
@@ -2455,19 +2455,19 @@
         <v>1120.8489999999999</v>
       </c>
       <c r="D25" s="28">
-        <v>6574.0411103697197</v>
+        <v>6607</v>
       </c>
       <c r="E25" s="28">
-        <v>3646.2631652760801</v>
+        <v>3662</v>
       </c>
       <c r="F25" s="29">
-        <v>2.4999616307214101</v>
+        <v>3.1852709252694802</v>
       </c>
       <c r="G25" s="30">
-        <v>6469.8888398261997</v>
+        <v>6502.4210000000003</v>
       </c>
       <c r="H25" s="31">
-        <v>5.4648381000981701</v>
+        <v>5.1697586132798596</v>
       </c>
       <c r="I25" s="29">
         <v>31.387</v>
@@ -2485,7 +2485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -2495,20 +2495,20 @@
       <c r="C26" s="27">
         <v>3684.0320000000002</v>
       </c>
-      <c r="D26" s="28">
-        <v>7637.4499155499298</v>
-      </c>
-      <c r="E26" s="28">
-        <v>2383.2977481180001</v>
-      </c>
-      <c r="F26" s="29">
-        <v>2.61776686725015</v>
-      </c>
-      <c r="G26" s="30">
-        <v>2085.5952800518698</v>
-      </c>
-      <c r="H26" s="31">
-        <v>7.35228697369124</v>
+      <c r="D26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="29">
         <v>77.596000000000004</v>
@@ -2526,7 +2526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
@@ -2537,19 +2537,19 @@
         <v>123379.924</v>
       </c>
       <c r="D27" s="28">
-        <v>357508.63504967297</v>
+        <v>357506</v>
       </c>
       <c r="E27" s="28">
-        <v>120368.52844759201</v>
+        <v>120369</v>
       </c>
       <c r="F27" s="29">
-        <v>6.3575204128995404</v>
+        <v>6.3575514281538403</v>
       </c>
       <c r="G27" s="30">
-        <v>3434.8747626839699</v>
+        <v>3434.8530000000001</v>
       </c>
       <c r="H27" s="31">
-        <v>33.937709144008799</v>
+        <v>33.937657461838697</v>
       </c>
       <c r="I27" s="29">
         <v>80.582999999999998</v>
@@ -2567,7 +2567,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
@@ -2578,28 +2578,28 @@
         <v>54027.487000000001</v>
       </c>
       <c r="D28" s="28">
-        <v>312884.35489286698</v>
+        <v>311473</v>
       </c>
       <c r="E28" s="28">
-        <v>115988.86833708599</v>
+        <v>113701</v>
       </c>
       <c r="F28" s="29">
-        <v>5.3687411475913001</v>
+        <v>4.8466454986631398</v>
       </c>
       <c r="G28" s="30">
-        <v>6144.1611895182295</v>
+        <v>6150.75</v>
       </c>
       <c r="H28" s="31">
-        <v>7.6481322197514503</v>
+        <v>7.6484068768415403</v>
       </c>
       <c r="I28" s="29">
         <v>74.363</v>
       </c>
       <c r="J28" s="29">
-        <v>40.799999999999997</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K28" s="29">
-        <v>29.4</v>
+        <v>36.1</v>
       </c>
       <c r="L28" s="32">
         <v>0.60099999999999998</v>
@@ -2608,7 +2608,7 @@
         <v>0.443</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
@@ -2619,19 +2619,19 @@
         <v>29611.714</v>
       </c>
       <c r="D29" s="28">
-        <v>52742.171864832002</v>
+        <v>52636</v>
       </c>
       <c r="E29" s="28">
-        <v>15232.7492280263</v>
+        <v>15149</v>
       </c>
       <c r="F29" s="29">
-        <v>4.2096928193932097</v>
+        <v>3.9998769396090799</v>
       </c>
       <c r="G29" s="30">
-        <v>1821.12279913155</v>
+        <v>1817.4449999999999</v>
       </c>
       <c r="H29" s="31">
-        <v>8.2000000000005002</v>
+        <v>8.1564441078593397</v>
       </c>
       <c r="I29" s="29">
         <v>85.900999999999996</v>
@@ -2649,7 +2649,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -2660,19 +2660,19 @@
         <v>1299.4690000000001</v>
       </c>
       <c r="D30" s="28">
-        <v>33879.675931541598</v>
+        <v>33969</v>
       </c>
       <c r="E30" s="28">
-        <v>12772.2398604434</v>
+        <v>12898</v>
       </c>
       <c r="F30" s="29">
-        <v>8.2999999999998906</v>
+        <v>8.6906855483924996</v>
       </c>
       <c r="G30" s="30">
-        <v>26851.346166939598</v>
+        <v>26933.901000000002</v>
       </c>
       <c r="H30" s="31">
-        <v>10.784671104117599</v>
+        <v>10.785031688771999</v>
       </c>
       <c r="I30" s="29">
         <v>58.537999999999997</v>
@@ -2690,7 +2690,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>70</v>
       </c>
@@ -2701,19 +2701,19 @@
         <v>13776.698</v>
       </c>
       <c r="D31" s="28">
-        <v>37993.414753130302</v>
+        <v>38470</v>
       </c>
       <c r="E31" s="28">
-        <v>12702.7710910937</v>
+        <v>13309</v>
       </c>
       <c r="F31" s="29">
-        <v>6.7628190735003599</v>
+        <v>8.1580559526240695</v>
       </c>
       <c r="G31" s="30">
-        <v>2866.5618517817402</v>
+        <v>2904.1909999999998</v>
       </c>
       <c r="H31" s="31">
-        <v>13.8820638820642</v>
+        <v>13.891755577109601</v>
       </c>
       <c r="I31" s="29">
         <v>54.902000000000001</v>
@@ -2731,7 +2731,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -2742,19 +2742,19 @@
         <v>107.11799999999999</v>
       </c>
       <c r="D32" s="28">
-        <v>3668.7854203227798</v>
+        <v>3866</v>
       </c>
       <c r="E32" s="28">
-        <v>1925.5917091497599</v>
+        <v>1977</v>
       </c>
       <c r="F32" s="29">
-        <v>8.8400000000003391</v>
+        <v>8.9102826710364607</v>
       </c>
       <c r="G32" s="30">
-        <v>37088.645958754998</v>
+        <v>39078.625999999997</v>
       </c>
       <c r="H32" s="31">
-        <v>2.7278687702727802</v>
+        <v>2.62560569230026</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>18</v>
@@ -2772,7 +2772,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -2783,19 +2783,19 @@
         <v>17597.510999999999</v>
       </c>
       <c r="D33" s="28">
-        <v>20663.6043230754</v>
+        <v>30097</v>
       </c>
       <c r="E33" s="28">
-        <v>8157.5289028634197</v>
+        <v>10420</v>
       </c>
       <c r="F33" s="29">
-        <v>1.69999999999999</v>
+        <v>2.43806527723163</v>
       </c>
       <c r="G33" s="30">
-        <v>1323.3971768260899</v>
+        <v>1927.587</v>
       </c>
       <c r="H33" s="31">
-        <v>6.8000000000000096</v>
+        <v>6.7847411444141903</v>
       </c>
       <c r="I33" s="29">
         <v>33.966999999999999</v>
@@ -2813,7 +2813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
@@ -2824,19 +2824,19 @@
         <v>10913.164000000001</v>
       </c>
       <c r="D34" s="45">
-        <v>7060.7241185679004</v>
+        <v>6658</v>
       </c>
       <c r="E34" s="45">
-        <v>7870.6360413284801</v>
+        <v>8535</v>
       </c>
       <c r="F34" s="46">
-        <v>6.5518204300205598</v>
+        <v>0.47440699126093</v>
       </c>
       <c r="G34" s="47">
-        <v>483.945197269527</v>
+        <v>456.346</v>
       </c>
       <c r="H34" s="48">
-        <v>17.5997689024362</v>
+        <v>-3.2102877296029</v>
       </c>
       <c r="I34" s="46">
         <v>70.929000000000002</v>
@@ -2854,7 +2854,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -2865,19 +2865,19 @@
         <v>46874.203999999998</v>
       </c>
       <c r="D35" s="28">
-        <v>203829.11528704499</v>
+        <v>203828</v>
       </c>
       <c r="E35" s="28">
-        <v>49422.714286157498</v>
+        <v>33752</v>
       </c>
       <c r="F35" s="29">
-        <v>-2.5000000000003002</v>
+        <v>-2.5004753755467002</v>
       </c>
       <c r="G35" s="30">
-        <v>4366.3881515683897</v>
+        <v>4366.3609999999999</v>
       </c>
       <c r="H35" s="31">
-        <v>138.80845810775301</v>
+        <v>138.80845392792801</v>
       </c>
       <c r="I35" s="29">
         <v>48.762999999999998</v>
@@ -2895,7 +2895,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -2906,19 +2906,19 @@
         <v>65497.748</v>
       </c>
       <c r="D36" s="28">
-        <v>208754.98637039299</v>
+        <v>208759</v>
       </c>
       <c r="E36" s="28">
-        <v>77062.852251752993</v>
+        <v>77065</v>
       </c>
       <c r="F36" s="29">
-        <v>4.6878528025308404</v>
+        <v>4.6907538273215801</v>
       </c>
       <c r="G36" s="30">
-        <v>3393.8461397157898</v>
+        <v>3393.9189999999999</v>
       </c>
       <c r="H36" s="31">
-        <v>4.3502720426910102</v>
+        <v>4.3504615756023499</v>
       </c>
       <c r="I36" s="29">
         <v>82.597999999999999</v>
@@ -2936,7 +2936,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>82</v>
       </c>
@@ -2947,19 +2947,19 @@
         <v>47249.584999999999</v>
       </c>
       <c r="D37" s="28">
-        <v>132361.65361155799</v>
+        <v>133892</v>
       </c>
       <c r="E37" s="28">
-        <v>48841.344194079502</v>
+        <v>48244</v>
       </c>
       <c r="F37" s="29">
-        <v>4.9334229362884896</v>
+        <v>6.43367752184274</v>
       </c>
       <c r="G37" s="30">
-        <v>3026.5030516828801</v>
+        <v>3061.5039999999999</v>
       </c>
       <c r="H37" s="31">
-        <v>6.7783993596976604</v>
+        <v>7.19253229516901</v>
       </c>
       <c r="I37" s="29">
         <v>69.745999999999995</v>
@@ -2977,7 +2977,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>35</v>
       </c>
@@ -2988,28 +2988,28 @@
         <v>415976.277</v>
       </c>
       <c r="D38" s="37">
-        <v>1388766.85621088</v>
+        <v>1390974</v>
       </c>
       <c r="E38" s="37">
-        <v>477608.60686128301</v>
+        <v>460318</v>
       </c>
       <c r="F38" s="38">
-        <v>4.31528091790413</v>
+        <v>4.3663069853732299</v>
       </c>
       <c r="G38" s="39">
-        <v>3616.3310934168098</v>
+        <v>3661.8130978417298</v>
       </c>
       <c r="H38" s="40">
-        <v>8.2000000000005002</v>
+        <v>7.6484068768415403</v>
       </c>
       <c r="I38" s="38">
         <v>62.571923076923099</v>
       </c>
       <c r="J38" s="38">
-        <v>39.709090909090897</v>
+        <v>39.518181818181802</v>
       </c>
       <c r="K38" s="38">
-        <v>28.763636363636401</v>
+        <v>29.3727272727273</v>
       </c>
       <c r="L38" s="41">
         <v>0.56230769230768995</v>
@@ -3018,7 +3018,7 @@
         <v>0.42181818181817998</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -3029,16 +3029,16 @@
         <v>44903.224999999999</v>
       </c>
       <c r="D39" s="45">
-        <v>582750.81538976799</v>
+        <v>584271</v>
       </c>
       <c r="E39" s="45">
-        <v>195414.51980656301</v>
+        <v>195060</v>
       </c>
       <c r="F39" s="46">
-        <v>2.9309160191294699</v>
+        <v>3.1999915678034401</v>
       </c>
       <c r="G39" s="47">
-        <v>12866.854398842601</v>
+        <v>12900.41</v>
       </c>
       <c r="H39" s="48">
         <v>9.2673555908850105</v>
@@ -3059,7 +3059,7 @@
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
@@ -3070,19 +3070,19 @@
         <v>110990.103</v>
       </c>
       <c r="D40" s="28">
-        <v>1674651.6375637299</v>
+        <v>1675593</v>
       </c>
       <c r="E40" s="28">
-        <v>475231.02560218202</v>
+        <v>475231</v>
       </c>
       <c r="F40" s="29">
-        <v>6.6086796447144298</v>
+        <v>6.65279534358723</v>
       </c>
       <c r="G40" s="30">
-        <v>16080.4635743862</v>
+        <v>16173.679</v>
       </c>
       <c r="H40" s="31">
-        <v>8.5002678497322108</v>
+        <v>8.4999275677241801</v>
       </c>
       <c r="I40" s="29">
         <v>41.823999999999998</v>
@@ -3100,7 +3100,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>89</v>
       </c>
@@ -3111,19 +3111,19 @@
         <v>6812.3410000000003</v>
       </c>
       <c r="D41" s="45">
-        <v>137969.65883573101</v>
+        <v>143021</v>
       </c>
       <c r="E41" s="45">
-        <v>44065.508708707603</v>
+        <v>37796</v>
       </c>
       <c r="F41" s="46">
-        <v>-12.813124291774001</v>
+        <v>-9.6196570876600003</v>
       </c>
       <c r="G41" s="47">
-        <v>20358.3772842937</v>
+        <v>21103.782999999999</v>
       </c>
       <c r="H41" s="48">
-        <v>4.5097347225448798</v>
+        <v>4.5098468789597703</v>
       </c>
       <c r="I41" s="46">
         <v>47.470999999999997</v>
@@ -3141,7 +3141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
@@ -3152,19 +3152,19 @@
         <v>4736.1390000000001</v>
       </c>
       <c r="D42" s="45">
-        <v>30394.204057384799</v>
+        <v>30829</v>
       </c>
       <c r="E42" s="45">
-        <v>10320.9415795268</v>
+        <v>9903</v>
       </c>
       <c r="F42" s="46">
-        <v>4.9603158041526596</v>
+        <v>6.4612612612612601</v>
       </c>
       <c r="G42" s="47">
-        <v>7012.7683081479199</v>
+        <v>7113.0159999999996</v>
       </c>
       <c r="H42" s="48">
-        <v>9.5534917754192907</v>
+        <v>9.5531653482206398</v>
       </c>
       <c r="I42" s="46">
         <v>40.840000000000003</v>
@@ -3182,7 +3182,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>93</v>
       </c>
@@ -3193,19 +3193,19 @@
         <v>37457.970999999998</v>
       </c>
       <c r="D43" s="28">
-        <v>362227.60164380801</v>
+        <v>363011</v>
       </c>
       <c r="E43" s="28">
-        <v>138052.26483499099</v>
+        <v>130913</v>
       </c>
       <c r="F43" s="29">
-        <v>1.1346007792378201</v>
+        <v>1.2585927419561</v>
       </c>
       <c r="G43" s="30">
-        <v>9878.0365869595898</v>
+        <v>9899.6669999999995</v>
       </c>
       <c r="H43" s="31">
-        <v>6.64704202759044</v>
+        <v>6.6410009624638997</v>
       </c>
       <c r="I43" s="29">
         <v>45.573</v>
@@ -3223,7 +3223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>95</v>
       </c>
@@ -3234,19 +3234,19 @@
         <v>12356.117</v>
       </c>
       <c r="D44" s="28">
-        <v>154323.54434669</v>
+        <v>154323</v>
       </c>
       <c r="E44" s="28">
-        <v>46601.296244937002</v>
+        <v>46361</v>
       </c>
       <c r="F44" s="29">
-        <v>2.5217614164711102</v>
+        <v>2.52113608491333</v>
       </c>
       <c r="G44" s="30">
-        <v>12723.4325788318</v>
+        <v>12723.352999999999</v>
       </c>
       <c r="H44" s="31">
-        <v>8.3083508673001099</v>
+        <v>8.3078951516975401</v>
       </c>
       <c r="I44" s="29">
         <v>45.734999999999999</v>
@@ -3264,7 +3264,7 @@
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>35</v>
       </c>
@@ -3275,19 +3275,19 @@
         <v>217255.89600000001</v>
       </c>
       <c r="D45" s="37">
-        <v>2942317.4618371101</v>
+        <v>2951048</v>
       </c>
       <c r="E45" s="37">
-        <v>909685.55677690695</v>
+        <v>895264</v>
       </c>
       <c r="F45" s="38">
-        <v>4.06425322444061</v>
+        <v>4.2989382492019601</v>
       </c>
       <c r="G45" s="39">
-        <v>14092.416851456701</v>
+        <v>14176.256865720999</v>
       </c>
       <c r="H45" s="40">
-        <v>8.5002678497322108</v>
+        <v>8.4999275677241801</v>
       </c>
       <c r="I45" s="38">
         <v>43.670833333333299</v>
@@ -3305,7 +3305,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>98</v>
       </c>
@@ -3316,28 +3316,28 @@
         <v>13352.864</v>
       </c>
       <c r="D46" s="28">
-        <v>54041.930929501003</v>
+        <v>54160</v>
       </c>
       <c r="E46" s="28">
-        <v>17412.911802697901</v>
+        <v>17439</v>
       </c>
       <c r="F46" s="29">
-        <v>6.0209427666138504</v>
+        <v>6.2532432917123799</v>
       </c>
       <c r="G46" s="30">
-        <v>4024.0335567326701</v>
+        <v>4047.8510000000001</v>
       </c>
       <c r="H46" s="31">
-        <v>1.49999999999999</v>
+        <v>1.3998225444110901</v>
       </c>
       <c r="I46" s="29">
         <v>62.588000000000001</v>
       </c>
       <c r="J46" s="29">
-        <v>37.799999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="K46" s="29">
-        <v>19.899999999999999</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L46" s="32">
         <v>0.54500000000000004</v>
@@ -3346,7 +3346,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>100</v>
       </c>
@@ -3357,28 +3357,28 @@
         <v>22673.761999999999</v>
       </c>
       <c r="D47" s="28">
-        <v>58592.626818385601</v>
+        <v>58025</v>
       </c>
       <c r="E47" s="28">
-        <v>19567.653953586501</v>
+        <v>18934</v>
       </c>
       <c r="F47" s="29">
-        <v>2.47320834214442</v>
+        <v>1.4806613827783801</v>
       </c>
       <c r="G47" s="30">
-        <v>2573.6665475589002</v>
+        <v>2548.7220000000002</v>
       </c>
       <c r="H47" s="31">
-        <v>14.069999999999901</v>
+        <v>14.069892075694799</v>
       </c>
       <c r="I47" s="29">
         <v>65.552999999999997</v>
       </c>
       <c r="J47" s="29">
-        <v>47.3</v>
+        <v>43</v>
       </c>
       <c r="K47" s="29">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="L47" s="32">
         <v>0.45200000000000001</v>
@@ -3387,7 +3387,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>102</v>
       </c>
@@ -3398,19 +3398,19 @@
         <v>593.15</v>
       </c>
       <c r="D48" s="45">
-        <v>5142.5821866106198</v>
+        <v>5282</v>
       </c>
       <c r="E48" s="45">
-        <v>2223.9418382109002</v>
+        <v>2308</v>
       </c>
       <c r="F48" s="46">
-        <v>10.5</v>
+        <v>17.004107084303602</v>
       </c>
       <c r="G48" s="47">
-        <v>9019.49948883859</v>
+        <v>9263.241</v>
       </c>
       <c r="H48" s="48">
-        <v>7.9303437994021202</v>
+        <v>7.9303955063987601</v>
       </c>
       <c r="I48" s="46">
         <v>56.131</v>
@@ -3428,7 +3428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>104</v>
       </c>
@@ -3439,19 +3439,19 @@
         <v>28160.542000000001</v>
       </c>
       <c r="D49" s="28">
-        <v>185127.33949520701</v>
+        <v>184048</v>
       </c>
       <c r="E49" s="28">
-        <v>70046.154793624301</v>
+        <v>70180</v>
       </c>
       <c r="F49" s="29">
-        <v>6.69999999999997</v>
+        <v>6.7000005276153898</v>
       </c>
       <c r="G49" s="30">
-        <v>6523.6661549486098</v>
+        <v>6485.6469999999999</v>
       </c>
       <c r="H49" s="31">
-        <v>5.2076980912691102</v>
+        <v>5.2069040225319698</v>
       </c>
       <c r="I49" s="29">
         <v>65.453999999999994</v>
@@ -3460,7 +3460,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="K49" s="29">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="L49" s="32">
         <v>0.53800000000000003</v>
@@ -3469,7 +3469,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>106</v>
       </c>
@@ -3480,19 +3480,19 @@
         <v>2705.9920000000002</v>
       </c>
       <c r="D50" s="28">
-        <v>6760.3118560281</v>
+        <v>6855</v>
       </c>
       <c r="E50" s="28">
-        <v>2132.5288667117302</v>
+        <v>2161</v>
       </c>
       <c r="F50" s="29">
-        <v>4.4412975618026298</v>
+        <v>4.9051987767583896</v>
       </c>
       <c r="G50" s="30">
-        <v>2633.5873699962199</v>
+        <v>2670.3960000000002</v>
       </c>
       <c r="H50" s="31">
-        <v>11.513261849563399</v>
+        <v>11.513341786994999</v>
       </c>
       <c r="I50" s="29">
         <v>61.484000000000002</v>
@@ -3510,7 +3510,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -3521,19 +3521,19 @@
         <v>33475.870000000003</v>
       </c>
       <c r="D51" s="20">
-        <v>217493.668230079</v>
+        <v>216618</v>
       </c>
       <c r="E51" s="20">
-        <v>72839.133683367501</v>
+        <v>72243</v>
       </c>
       <c r="F51" s="21">
-        <v>3.2187442692547701</v>
+        <v>3.0780333577712602</v>
       </c>
       <c r="G51" s="22">
-        <v>6779.3199746833898</v>
+        <v>6752.0230000000001</v>
       </c>
       <c r="H51" s="23">
-        <v>31.892900449721999</v>
+        <v>31.893209534661398</v>
       </c>
       <c r="I51" s="21">
         <v>68.83</v>
@@ -3551,7 +3551,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>110</v>
       </c>
@@ -3562,19 +3562,19 @@
         <v>13859.34</v>
       </c>
       <c r="D52" s="28">
-        <v>44164.2015156013</v>
+        <v>44390</v>
       </c>
       <c r="E52" s="28">
-        <v>20468.685140477901</v>
+        <v>20304</v>
       </c>
       <c r="F52" s="29">
-        <v>4.29406997369182</v>
+        <v>4.2869436881688703</v>
       </c>
       <c r="G52" s="30">
-        <v>3009.5995472125801</v>
+        <v>3024.962</v>
       </c>
       <c r="H52" s="31">
-        <v>10.493065636370901</v>
+        <v>10.501341427998501</v>
       </c>
       <c r="I52" s="29">
         <v>52.366999999999997</v>
@@ -3592,7 +3592,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>112</v>
       </c>
@@ -3603,19 +3603,19 @@
         <v>2105.5659999999998</v>
       </c>
       <c r="D53" s="28">
-        <v>5483.71192212195</v>
+        <v>5521</v>
       </c>
       <c r="E53" s="28">
-        <v>1704.71802515226</v>
+        <v>1718</v>
       </c>
       <c r="F53" s="29">
-        <v>3.4999999999999898</v>
+        <v>4.1999902315242403</v>
       </c>
       <c r="G53" s="30">
-        <v>2891.6663998158901</v>
+        <v>2911.2049999999999</v>
       </c>
       <c r="H53" s="31">
-        <v>7.9184772635718499</v>
+        <v>7.9176881225564903</v>
       </c>
       <c r="I53" s="29">
         <v>55.920999999999999</v>
@@ -3633,7 +3633,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>114</v>
       </c>
@@ -3644,19 +3644,19 @@
         <v>5302.6809999999996</v>
       </c>
       <c r="D54" s="28">
-        <v>8965.04494007414</v>
+        <v>8965</v>
       </c>
       <c r="E54" s="28">
-        <v>3974.4386275654801</v>
+        <v>3974</v>
       </c>
       <c r="F54" s="29">
-        <v>4.8105878190939402</v>
+        <v>4.8118445404071499</v>
       </c>
       <c r="G54" s="30">
-        <v>1689.9236456313199</v>
+        <v>1689.913</v>
       </c>
       <c r="H54" s="31">
-        <v>7.59300328920882</v>
+        <v>7.5930760315001704</v>
       </c>
       <c r="I54" s="29">
         <v>76.591999999999999</v>
@@ -3674,7 +3674,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>116</v>
       </c>
@@ -3685,28 +3685,28 @@
         <v>22593.59</v>
       </c>
       <c r="D55" s="28">
-        <v>56880.246789069301</v>
+        <v>56880</v>
       </c>
       <c r="E55" s="28">
-        <v>19048.483766719801</v>
+        <v>19171</v>
       </c>
       <c r="F55" s="29">
-        <v>3.7039175399279398</v>
+        <v>3.7039285711049299</v>
       </c>
       <c r="G55" s="30">
-        <v>2514.45246854888</v>
+        <v>2514.4369999999999</v>
       </c>
       <c r="H55" s="31">
-        <v>10.0770358341888</v>
+        <v>9.7338687584773709</v>
       </c>
       <c r="I55" s="29">
         <v>67.503</v>
       </c>
       <c r="J55" s="29">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="K55" s="29">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="L55" s="32">
         <v>0.434</v>
@@ -3715,7 +3715,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>118</v>
       </c>
@@ -3726,19 +3726,19 @@
         <v>26207.976999999999</v>
       </c>
       <c r="D56" s="28">
-        <v>39316.0363076008</v>
+        <v>39596</v>
       </c>
       <c r="E56" s="28">
-        <v>15222.0098145256</v>
+        <v>15448</v>
       </c>
       <c r="F56" s="29">
-        <v>11.110978205669699</v>
+        <v>11.9036130211118</v>
       </c>
       <c r="G56" s="30">
-        <v>1507.3051982582499</v>
+        <v>1518.048</v>
       </c>
       <c r="H56" s="31">
-        <v>4.2262179191636697</v>
+        <v>4.2259105578607699</v>
       </c>
       <c r="I56" s="29">
         <v>73.454999999999998</v>
@@ -3747,7 +3747,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="K56" s="29">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="L56" s="32">
         <v>0.39400000000000002</v>
@@ -3756,7 +3756,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
@@ -3767,19 +3767,19 @@
         <v>218541.212</v>
       </c>
       <c r="D57" s="28">
-        <v>1280708.19111737</v>
+        <v>1280700</v>
       </c>
       <c r="E57" s="28">
-        <v>477375.80296052399</v>
+        <v>477376</v>
       </c>
       <c r="F57" s="29">
-        <v>3.2516814576655002</v>
+        <v>3.2516814709588902</v>
       </c>
       <c r="G57" s="30">
-        <v>5908.7700919383697</v>
+        <v>5908.7330000000002</v>
       </c>
       <c r="H57" s="31">
-        <v>18.846844823714299</v>
+        <v>18.846828545294802</v>
       </c>
       <c r="I57" s="29">
         <v>58.866999999999997</v>
@@ -3797,7 +3797,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>122</v>
       </c>
@@ -3808,28 +3808,28 @@
         <v>17316.449000000001</v>
       </c>
       <c r="D58" s="28">
-        <v>72935.963289091495</v>
+        <v>72776</v>
       </c>
       <c r="E58" s="28">
-        <v>27461.5816842686</v>
+        <v>27744</v>
       </c>
       <c r="F58" s="29">
-        <v>4.7089716657253504</v>
+        <v>3.9998346511644902</v>
       </c>
       <c r="G58" s="30">
-        <v>4126.20547224242</v>
+        <v>4117.1369999999997</v>
       </c>
       <c r="H58" s="31">
-        <v>9.6885582576777605</v>
+        <v>9.6880894453404807</v>
       </c>
       <c r="I58" s="29">
         <v>51.276000000000003</v>
       </c>
       <c r="J58" s="29">
-        <v>38.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="K58" s="29">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L58" s="32">
         <v>0.51200000000000001</v>
@@ -3838,7 +3838,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>124</v>
       </c>
@@ -3849,19 +3849,19 @@
         <v>8605.7180000000008</v>
       </c>
       <c r="D59" s="28">
-        <v>16498.4178745877</v>
+        <v>16695</v>
       </c>
       <c r="E59" s="28">
-        <v>3938.9931679122801</v>
+        <v>3987</v>
       </c>
       <c r="F59" s="29">
-        <v>2.7655009464614602</v>
+        <v>3.9877687194540798</v>
       </c>
       <c r="G59" s="30">
-        <v>1985.5872261450399</v>
+        <v>2009.191</v>
       </c>
       <c r="H59" s="31">
-        <v>27.208749885616701</v>
+        <v>27.209406830437398</v>
       </c>
       <c r="I59" s="29">
         <v>53.331000000000003</v>
@@ -3879,7 +3879,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>126</v>
       </c>
@@ -3890,28 +3890,28 @@
         <v>8848.6980000000003</v>
       </c>
       <c r="D60" s="20">
-        <v>22859.3946127413</v>
+        <v>22972</v>
       </c>
       <c r="E60" s="20">
-        <v>8173.3079521514401</v>
+        <v>8144</v>
       </c>
       <c r="F60" s="21">
-        <v>5.3993563246323601</v>
+        <v>5.8106404321490697</v>
       </c>
       <c r="G60" s="22">
-        <v>2576.78617675242</v>
+        <v>2593.924</v>
       </c>
       <c r="H60" s="23">
-        <v>7.6155561849115898</v>
+        <v>7.6152666245601397</v>
       </c>
       <c r="I60" s="21">
         <v>58.024000000000001</v>
       </c>
       <c r="J60" s="21">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="K60" s="21">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="L60" s="24">
         <v>0.51500000000000001</v>
@@ -3920,7 +3920,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
         <v>35</v>
       </c>
@@ -3931,28 +3931,28 @@
         <v>424343.41100000002</v>
       </c>
       <c r="D61" s="37">
-        <v>2074969.66788407</v>
+        <v>2073483</v>
       </c>
       <c r="E61" s="37">
-        <v>761590.346077497</v>
+        <v>761131</v>
       </c>
       <c r="F61" s="38">
-        <v>3.8897778357443502</v>
+        <v>3.8785598579091798</v>
       </c>
       <c r="G61" s="39">
-        <v>4927.4746233839196</v>
+        <v>4924.4983144505204</v>
       </c>
       <c r="H61" s="40">
-        <v>18.846844823714299</v>
+        <v>18.846828545294802</v>
       </c>
       <c r="I61" s="38">
         <v>61.8250666666667</v>
       </c>
       <c r="J61" s="38">
-        <v>38.093333333333298</v>
+        <v>37.826666666666704</v>
       </c>
       <c r="K61" s="38">
-        <v>22.113333333333301</v>
+        <v>22.24</v>
       </c>
       <c r="L61" s="41">
         <v>0.50600000000000001</v>
@@ -3961,7 +3961,7 @@
         <v>0.33064285714286001</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="52" t="s">
         <v>35</v>
       </c>
@@ -3972,28 +3972,28 @@
         <v>1424854.794</v>
       </c>
       <c r="D62" s="55">
-        <v>8298147.2799863704</v>
+        <v>8318252</v>
       </c>
       <c r="E62" s="55">
-        <v>2982747.3518364602</v>
+        <v>2953756</v>
       </c>
       <c r="F62" s="56">
-        <v>3.7776163217294898</v>
+        <v>3.9397324988435001</v>
       </c>
       <c r="G62" s="57">
-        <v>6002.8251808733103</v>
+        <v>6042.2560336917404</v>
       </c>
       <c r="H62" s="58">
-        <v>8.5002678497322108</v>
+        <v>8.4999275677241801</v>
       </c>
       <c r="I62" s="56">
         <v>60.753301886792499</v>
       </c>
       <c r="J62" s="56">
-        <v>41.6111111111111</v>
+        <v>41.406521739130397</v>
       </c>
       <c r="K62" s="56">
-        <v>26.32</v>
+        <v>27.563043478260902</v>
       </c>
       <c r="L62" s="59">
         <v>0.56073584905660001</v>
@@ -4002,7 +4002,7 @@
         <v>0.38947826086956999</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="52" t="s">
         <v>35</v>
       </c>
@@ -4013,28 +4013,28 @@
         <v>6503015.0650000004</v>
       </c>
       <c r="D63" s="63">
-        <v>152777784.12760699</v>
+        <v>153160133</v>
       </c>
       <c r="E63" s="63">
-        <v>95921147.220673695</v>
+        <v>95890589</v>
       </c>
       <c r="F63" s="64">
-        <v>3.4457617736489699</v>
+        <v>3.4985234936313598</v>
       </c>
       <c r="G63" s="65">
-        <v>24033.907194080199</v>
+        <v>24135.1066057506</v>
       </c>
       <c r="H63" s="66">
-        <v>6.7965164175591202</v>
+        <v>6.7965004201473</v>
       </c>
       <c r="I63" s="64">
         <v>60.798785123967001</v>
       </c>
       <c r="J63" s="64">
-        <v>34.991578947368403</v>
+        <v>34.858947368420999</v>
       </c>
       <c r="K63" s="64">
-        <v>2.3294736842105301</v>
+        <v>2.2947368421052601</v>
       </c>
       <c r="L63" s="67">
         <v>0.78479104477612005</v>
@@ -4043,7 +4043,7 @@
         <v>0.68389423076922995</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="69" t="s">
         <v>35</v>
       </c>
@@ -4054,28 +4054,28 @@
         <v>655268.07900000003</v>
       </c>
       <c r="D64" s="55">
-        <v>11964145.7508967</v>
+        <v>12081994</v>
       </c>
       <c r="E64" s="55">
-        <v>5760452.0931056496</v>
+        <v>5818259</v>
       </c>
       <c r="F64" s="56">
-        <v>3.9629023683766702</v>
+        <v>4.0737102383836303</v>
       </c>
       <c r="G64" s="57">
-        <v>18498.305018098999</v>
+        <v>19003.2443532262</v>
       </c>
       <c r="H64" s="58">
-        <v>9.2799363723163495</v>
+        <v>9.2799363723163903</v>
       </c>
       <c r="I64" s="56">
         <v>62.818068965517298</v>
       </c>
       <c r="J64" s="56">
-        <v>45.461111111111101</v>
+        <v>45.4722222222222</v>
       </c>
       <c r="K64" s="56">
-        <v>3.5833333333333299</v>
+        <v>3.56666666666667</v>
       </c>
       <c r="L64" s="59">
         <v>0.74818181818181995</v>
@@ -4084,7 +4084,7 @@
         <v>0.58455999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="69" t="s">
         <v>35</v>
       </c>
@@ -4095,28 +4095,28 @@
         <v>4312340.6320000002</v>
       </c>
       <c r="D65" s="72">
-        <v>57895494.009401202</v>
+        <v>58035003</v>
       </c>
       <c r="E65" s="72">
-        <v>26514133.212551799</v>
+        <v>26280066</v>
       </c>
       <c r="F65" s="73">
-        <v>4.4158711795563601</v>
+        <v>4.5266454463728003</v>
       </c>
       <c r="G65" s="74">
-        <v>13848.217010926701</v>
+        <v>13879.2314832262</v>
       </c>
       <c r="H65" s="75">
-        <v>1.87569202293811</v>
+        <v>1.8782308506757599</v>
       </c>
       <c r="I65" s="73">
         <v>55.938749999999999</v>
       </c>
       <c r="J65" s="73">
-        <v>35.174999999999997</v>
+        <v>34.57</v>
       </c>
       <c r="K65" s="73">
-        <v>4.95</v>
+        <v>4.8</v>
       </c>
       <c r="L65" s="76">
         <v>0.67279310344828003</v>
@@ -4125,7 +4125,7 @@
         <v>0.54560869565216996</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="69" t="s">
         <v>35</v>
       </c>
@@ -4136,28 +4136,28 @@
         <v>7927869.8590000002</v>
       </c>
       <c r="D66" s="80">
-        <v>161075931.40759301</v>
+        <v>161478385</v>
       </c>
       <c r="E66" s="80">
-        <v>98903894.572510302</v>
+        <v>98844345</v>
       </c>
       <c r="F66" s="81">
-        <v>3.4628579213567101</v>
+        <v>3.5212792343616002</v>
       </c>
       <c r="G66" s="82">
-        <v>20749.269838252501</v>
+        <v>20848.497581990501</v>
       </c>
       <c r="H66" s="83">
-        <v>7.6481322197514503</v>
+        <v>7.8701792055495803</v>
       </c>
       <c r="I66" s="81">
         <v>60.784931034482803</v>
       </c>
       <c r="J66" s="81">
-        <v>37.119285714285702</v>
+        <v>36.995035460992902</v>
       </c>
       <c r="K66" s="81">
-        <v>10.0407142857143</v>
+        <v>10.538297872340401</v>
       </c>
       <c r="L66" s="84">
         <v>0.72128877005348002</v>
@@ -4166,7 +4166,7 @@
         <v>0.59360666666666995</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="69" t="s">
         <v>35</v>
       </c>
@@ -4177,28 +4177,28 @@
         <v>639568.91299999994</v>
       </c>
       <c r="D67" s="88">
-        <v>3449542.1020447402</v>
+        <v>3463617</v>
       </c>
       <c r="E67" s="88">
-        <v>1103821.4793672201</v>
+        <v>1082414</v>
       </c>
       <c r="F67" s="89">
-        <v>4.6328727241583296</v>
+        <v>4.9622872010585901</v>
       </c>
       <c r="G67" s="90">
-        <v>5737.3429485686202</v>
+        <v>5812.6456426054201</v>
       </c>
       <c r="H67" s="91">
-        <v>8.5002678497322108</v>
+        <v>8.4999275677241801</v>
       </c>
       <c r="I67" s="89">
         <v>59.287199999999999</v>
       </c>
       <c r="J67" s="89">
-        <v>41</v>
+        <v>40.793750000000003</v>
       </c>
       <c r="K67" s="89">
-        <v>29.893750000000001</v>
+        <v>30.274999999999999</v>
       </c>
       <c r="L67" s="92">
         <v>0.58404999999999996</v>
@@ -4207,7 +4207,7 @@
         <v>0.43041176470588</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="69" t="s">
         <v>35</v>
       </c>
@@ -4218,28 +4218,28 @@
         <v>684216.08</v>
       </c>
       <c r="D68" s="72">
-        <v>4697550.4342672499</v>
+        <v>4705208</v>
       </c>
       <c r="E68" s="72">
-        <v>1548877.01174337</v>
+        <v>1518683</v>
       </c>
       <c r="F68" s="73">
-        <v>3.80421805367792</v>
+        <v>3.91554835364134</v>
       </c>
       <c r="G68" s="74">
-        <v>7077.5562906833902</v>
+        <v>7143.1058719691</v>
       </c>
       <c r="H68" s="75">
-        <v>8.5002678497322108</v>
+        <v>8.4999275677241801</v>
       </c>
       <c r="I68" s="73">
         <v>55.284680000000002</v>
       </c>
       <c r="J68" s="73">
-        <v>37.576190476190497</v>
+        <v>37.640909090909098</v>
       </c>
       <c r="K68" s="73">
-        <v>18.709523809523802</v>
+        <v>20.931818181818201</v>
       </c>
       <c r="L68" s="76">
         <v>0.52875000000000005</v>
@@ -4248,7 +4248,7 @@
         <v>0.34420000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="69" t="s">
         <v>35</v>
       </c>
@@ -4259,28 +4259,28 @@
         <v>303364.46999999997</v>
       </c>
       <c r="D69" s="72">
-        <v>843322.146758658</v>
+        <v>846383</v>
       </c>
       <c r="E69" s="72">
-        <v>329220.12531308201</v>
+        <v>330556</v>
       </c>
       <c r="F69" s="73">
-        <v>5.3583981101594702</v>
+        <v>5.7926662619517799</v>
       </c>
       <c r="G69" s="74">
-        <v>2932.3812859578802</v>
+        <v>2949.3940354798701</v>
       </c>
       <c r="H69" s="75">
-        <v>7.6481322197514503</v>
+        <v>7.6484068768415403</v>
       </c>
       <c r="I69" s="73">
         <v>71.215000000000003</v>
       </c>
       <c r="J69" s="73">
-        <v>41.733333333333299</v>
+        <v>41.383333333333297</v>
       </c>
       <c r="K69" s="73">
-        <v>50.15</v>
+        <v>51.266666666666701</v>
       </c>
       <c r="L69" s="76">
         <v>0.50900000000000001</v>
@@ -4289,7 +4289,7 @@
         <v>0.36285714285713999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="69" t="s">
         <v>35</v>
       </c>
@@ -4300,28 +4300,28 @@
         <v>222744.17199999999</v>
       </c>
       <c r="D70" s="72">
-        <v>680342.17914406199</v>
+        <v>688101</v>
       </c>
       <c r="E70" s="72">
-        <v>310424.93843167101</v>
+        <v>312066</v>
       </c>
       <c r="F70" s="73">
-        <v>3.7930745107980202</v>
+        <v>4.5570604830643502</v>
       </c>
       <c r="G70" s="74">
-        <v>3133.7611099586402</v>
+        <v>3171.5415450567798</v>
       </c>
       <c r="H70" s="75">
-        <v>8.9955260705056901</v>
+        <v>9.2663253846584794</v>
       </c>
       <c r="I70" s="73">
         <v>63.972727272727298</v>
       </c>
       <c r="J70" s="73">
-        <v>42.342857142857198</v>
+        <v>42.424999999999997</v>
       </c>
       <c r="K70" s="73">
-        <v>31.842857142857099</v>
+        <v>36.075000000000003</v>
       </c>
       <c r="L70" s="76">
         <v>0.53536363636364004</v>
@@ -4330,7 +4330,7 @@
         <v>0.37709999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="69" t="s">
         <v>35</v>
       </c>
@@ -4341,28 +4341,28 @@
         <v>424343.41100000002</v>
       </c>
       <c r="D71" s="72">
-        <v>2074969.66788407</v>
+        <v>2073483</v>
       </c>
       <c r="E71" s="72">
-        <v>761590.34607749595</v>
+        <v>761131</v>
       </c>
       <c r="F71" s="73">
-        <v>3.8897778357443502</v>
+        <v>3.8785598579091798</v>
       </c>
       <c r="G71" s="74">
-        <v>4927.4746233839196</v>
+        <v>4924.4983144505204</v>
       </c>
       <c r="H71" s="75">
-        <v>18.846844823714299</v>
+        <v>18.846828545294802</v>
       </c>
       <c r="I71" s="73">
         <v>61.8250666666667</v>
       </c>
       <c r="J71" s="73">
-        <v>38.093333333333298</v>
+        <v>37.826666666666704</v>
       </c>
       <c r="K71" s="73">
-        <v>22.113333333333301</v>
+        <v>22.24</v>
       </c>
       <c r="L71" s="76">
         <v>0.50600000000000001</v>
@@ -4371,7 +4371,7 @@
         <v>0.33064285714286001</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="69" t="s">
         <v>35</v>
       </c>
@@ -4382,28 +4382,28 @@
         <v>304846.75599999999</v>
       </c>
       <c r="D72" s="72">
-        <v>1048519.57830871</v>
+        <v>1050061</v>
       </c>
       <c r="E72" s="72">
-        <v>356679.18112250202</v>
+        <v>338683</v>
       </c>
       <c r="F72" s="73">
-        <v>4.0189077154026798</v>
+        <v>4.0300470044942402</v>
       </c>
       <c r="G72" s="74">
-        <v>3762.3008065845602</v>
+        <v>3823.8965514670899</v>
       </c>
       <c r="H72" s="75">
-        <v>33.937709144008799</v>
+        <v>33.937657461838697</v>
       </c>
       <c r="I72" s="73">
         <v>60.91675</v>
       </c>
       <c r="J72" s="73">
-        <v>39.733333333333299</v>
+        <v>39.383333333333297</v>
       </c>
       <c r="K72" s="73">
-        <v>33.383333333333297</v>
+        <v>34.5</v>
       </c>
       <c r="L72" s="76">
         <v>0.50800000000000001</v>
@@ -4412,7 +4412,7 @@
         <v>0.35980000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="69" t="s">
         <v>35</v>
       </c>
@@ -4423,28 +4423,28 @@
         <v>390263.75799999997</v>
       </c>
       <c r="D73" s="72">
-        <v>1932708.6315675799</v>
+        <v>1939885</v>
       </c>
       <c r="E73" s="72">
-        <v>828643.88242108701</v>
+        <v>835177</v>
       </c>
       <c r="F73" s="73">
-        <v>3.16150215081564</v>
+        <v>3.4263944354617899</v>
       </c>
       <c r="G73" s="74">
-        <v>4967.1780623316499</v>
+        <v>4986.5112917419701</v>
       </c>
       <c r="H73" s="75">
-        <v>6.8688594617687899</v>
+        <v>6.8688359885997796</v>
       </c>
       <c r="I73" s="73">
         <v>65.506399999999999</v>
       </c>
       <c r="J73" s="73">
-        <v>48.628571428571398</v>
+        <v>48.292857142857201</v>
       </c>
       <c r="K73" s="73">
-        <v>32.221428571428604</v>
+        <v>32.878571428571398</v>
       </c>
       <c r="L73" s="76">
         <v>0.59962499999999996</v>
@@ -4453,7 +4453,7 @@
         <v>0.42593333333333</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="69" t="s">
         <v>35</v>
       </c>
@@ -4464,19 +4464,19 @@
         <v>106265.79300000001</v>
       </c>
       <c r="D74" s="72">
-        <v>1267665.82427338</v>
+        <v>1275455</v>
       </c>
       <c r="E74" s="72">
-        <v>434454.53117472498</v>
+        <v>420033</v>
       </c>
       <c r="F74" s="73">
-        <v>0.70293528892366997</v>
+        <v>1.2066249411257901</v>
       </c>
       <c r="G74" s="74">
-        <v>12015.9865692608</v>
+        <v>12090.034364957301</v>
       </c>
       <c r="H74" s="75">
-        <v>8.3083508673001099</v>
+        <v>8.3078951516975401</v>
       </c>
       <c r="I74" s="73">
         <v>44.040199999999999</v>
@@ -4494,7 +4494,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="69" t="s">
         <v>35</v>
       </c>
@@ -4505,28 +4505,28 @@
         <v>71484.600999999995</v>
       </c>
       <c r="D75" s="80">
-        <v>307310.31988528598</v>
+        <v>308128</v>
       </c>
       <c r="E75" s="80">
-        <v>143837.26018189301</v>
+        <v>146512</v>
       </c>
       <c r="F75" s="81">
-        <v>3.1804008555739398</v>
+        <v>3.47671376428627</v>
       </c>
       <c r="G75" s="82">
-        <v>4298.5038587030303</v>
+        <v>4310.0366748135903</v>
       </c>
       <c r="H75" s="83">
-        <v>21.360453653558199</v>
+        <v>21.360453152485402</v>
       </c>
       <c r="I75" s="81">
         <v>64.234999999999999</v>
       </c>
       <c r="J75" s="81">
-        <v>44.64</v>
+        <v>43.94</v>
       </c>
       <c r="K75" s="81">
-        <v>27.52</v>
+        <v>29.48</v>
       </c>
       <c r="L75" s="84">
         <v>0.56140000000000001</v>
@@ -4535,7 +4535,7 @@
         <v>0.38324999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="69" t="s">
         <v>35</v>
       </c>
@@ -4546,19 +4546,19 @@
         <v>679783.76899999997</v>
       </c>
       <c r="D76" s="88">
-        <v>10316111.256154601</v>
+        <v>10318850</v>
       </c>
       <c r="E76" s="88">
-        <v>3657635.5634789299</v>
+        <v>3625742</v>
       </c>
       <c r="F76" s="89">
-        <v>5.6612511571201702</v>
+        <v>5.6556677851997001</v>
       </c>
       <c r="G76" s="90">
-        <v>15397.842524490599</v>
+        <v>15420.054859301101</v>
       </c>
       <c r="H76" s="91">
-        <v>4.2094560244026802</v>
+        <v>4.2094494396786297</v>
       </c>
       <c r="I76" s="89">
         <v>66.647666666666694</v>
@@ -4576,7 +4576,7 @@
         <v>0.59428571428570998</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="69" t="s">
         <v>35</v>
       </c>
@@ -4587,28 +4587,28 @@
         <v>408206.57500000001</v>
       </c>
       <c r="D77" s="72">
-        <v>7733445.3375835903</v>
+        <v>7733385</v>
       </c>
       <c r="E77" s="72">
-        <v>3734234.33376113</v>
+        <v>3729876</v>
       </c>
       <c r="F77" s="73">
-        <v>4.0522489200520804</v>
+        <v>3.97497705774793</v>
       </c>
       <c r="G77" s="74">
-        <v>18915.644540703299</v>
+        <v>19427.419900219302</v>
       </c>
       <c r="H77" s="75">
-        <v>9.2799363723163495</v>
+        <v>9.2799363723163903</v>
       </c>
       <c r="I77" s="73">
         <v>63.0251818181818</v>
       </c>
       <c r="J77" s="73">
-        <v>44.655555555555601</v>
+        <v>44.866666666666703</v>
       </c>
       <c r="K77" s="73">
-        <v>2.6</v>
+        <v>2.62222222222222</v>
       </c>
       <c r="L77" s="76">
         <v>0.76790909090908999</v>
@@ -4617,7 +4617,7 @@
         <v>0.61390909090908996</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="69" t="s">
         <v>35</v>
       </c>
@@ -4628,19 +4628,19 @@
         <v>447315.89</v>
       </c>
       <c r="D78" s="72">
-        <v>24284899.8355284</v>
+        <v>24357444</v>
       </c>
       <c r="E78" s="72">
-        <v>16642597.971017599</v>
+        <v>16713033</v>
       </c>
       <c r="F78" s="73">
-        <v>3.67851934210475</v>
+        <v>3.6068864489019501</v>
       </c>
       <c r="G78" s="74">
-        <v>54393.905081680197</v>
+        <v>54551.444088846598</v>
       </c>
       <c r="H78" s="75">
-        <v>8.6658021206798193</v>
+        <v>8.6651654125702606</v>
       </c>
       <c r="I78" s="73">
         <v>59.615259259259297</v>
@@ -4658,7 +4658,7 @@
         <v>0.82133333333333003</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="69" t="s">
         <v>35</v>
       </c>
@@ -4669,28 +4669,28 @@
         <v>1379532.811</v>
       </c>
       <c r="D79" s="80">
-        <v>75041215.298448294</v>
+        <v>75249352</v>
       </c>
       <c r="E79" s="80">
-        <v>59621457.899512999</v>
+        <v>59779434</v>
       </c>
       <c r="F79" s="81">
-        <v>2.96739555518361</v>
+        <v>2.9835197822528898</v>
       </c>
       <c r="G79" s="82">
-        <v>54539.417313196798</v>
+        <v>54662.077467515999</v>
       </c>
       <c r="H79" s="83">
-        <v>7.9864819690388398</v>
+        <v>7.9868325392754098</v>
       </c>
       <c r="I79" s="81">
         <v>61.667236842105297</v>
       </c>
       <c r="J79" s="81">
-        <v>33.089189189189199</v>
+        <v>33.029729729729702</v>
       </c>
       <c r="K79" s="81">
-        <v>0.57297297297297001</v>
+        <v>0.56486486486485998</v>
       </c>
       <c r="L79" s="84">
         <v>0.90110526315788997</v>
@@ -4699,7 +4699,7 @@
         <v>0.81492105263157999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="69" t="s">
         <v>35</v>
       </c>
@@ -4710,16 +4710,16 @@
         <v>131304.64499999999</v>
       </c>
       <c r="D80" s="88">
-        <v>1131696.29251771</v>
+        <v>1142531</v>
       </c>
       <c r="E80" s="88">
-        <v>444134.28252379299</v>
+        <v>435324</v>
       </c>
       <c r="F80" s="89">
-        <v>1.05216922765319</v>
+        <v>1.6654169500148801</v>
       </c>
       <c r="G80" s="90">
-        <v>8689.2777017440094</v>
+        <v>8777.1889292446103</v>
       </c>
       <c r="H80" s="91">
         <v>9.2673555908850105</v>
@@ -4740,7 +4740,7 @@
         <v>0.40885714285713998</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="69" t="s">
         <v>35</v>
       </c>
@@ -4751,28 +4751,28 @@
         <v>504916.65</v>
       </c>
       <c r="D81" s="72">
-        <v>12618889.511619801</v>
+        <v>12633553</v>
       </c>
       <c r="E81" s="72">
-        <v>5807227.01955433</v>
+        <v>5834394</v>
       </c>
       <c r="F81" s="73">
-        <v>2.8305886507113902</v>
+        <v>2.9180682150832902</v>
       </c>
       <c r="G81" s="74">
-        <v>25310.918235754401</v>
+        <v>25624.7681712255</v>
       </c>
       <c r="H81" s="75">
-        <v>13.773903689558001</v>
+        <v>13.7672622802551</v>
       </c>
       <c r="I81" s="73">
         <v>60.311523809523798</v>
       </c>
       <c r="J81" s="73">
-        <v>34.325000000000003</v>
+        <v>34.287500000000001</v>
       </c>
       <c r="K81" s="73">
-        <v>6.1875</v>
+        <v>6.125</v>
       </c>
       <c r="L81" s="76">
         <v>0.75318181818181995</v>
@@ -4781,7 +4781,7 @@
         <v>0.58828571428570997</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="69" t="s">
         <v>35</v>
       </c>
@@ -4792,28 +4792,28 @@
         <v>1293550.149</v>
       </c>
       <c r="D82" s="72">
-        <v>7166450.9874686599</v>
+        <v>7175721</v>
       </c>
       <c r="E82" s="72">
-        <v>2538613.0693126698</v>
+        <v>2518432</v>
       </c>
       <c r="F82" s="73">
-        <v>4.2080076517215304</v>
+        <v>4.3018530464956104</v>
       </c>
       <c r="G82" s="74">
-        <v>5730.1309255829501</v>
+        <v>5763.84776463463</v>
       </c>
       <c r="H82" s="75">
-        <v>8.5002678497322108</v>
+        <v>8.4999275677241801</v>
       </c>
       <c r="I82" s="73">
         <v>61.796790697674403</v>
       </c>
       <c r="J82" s="73">
-        <v>41.707692307692298</v>
+        <v>41.47</v>
       </c>
       <c r="K82" s="73">
-        <v>26.705128205128201</v>
+        <v>28.125</v>
       </c>
       <c r="L82" s="76">
         <v>0.55244186046512</v>
@@ -4822,7 +4822,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="69" t="s">
         <v>35</v>
       </c>
@@ -4833,28 +4833,28 @@
         <v>5998098.415</v>
       </c>
       <c r="D83" s="80">
-        <v>140158894.615987</v>
+        <v>140526580</v>
       </c>
       <c r="E83" s="80">
-        <v>90113920.201119393</v>
+        <v>90056195</v>
       </c>
       <c r="F83" s="81">
-        <v>3.5011474963327598</v>
+        <v>3.5498954531712199</v>
       </c>
       <c r="G83" s="82">
-        <v>23924.473311205202</v>
+        <v>24007.568396968902</v>
       </c>
       <c r="H83" s="83">
-        <v>6.7965164175591202</v>
+        <v>6.7965004201473</v>
       </c>
       <c r="I83" s="81">
         <v>60.901110000000003</v>
       </c>
       <c r="J83" s="81">
-        <v>35.052873563218398</v>
+        <v>34.911494252873602</v>
       </c>
       <c r="K83" s="81">
-        <v>1.9747126436781599</v>
+        <v>1.9425287356321801</v>
       </c>
       <c r="L83" s="84">
         <v>0.79100000000000004</v>
@@ -4863,7 +4863,7 @@
         <v>0.69876666666666998</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="69" t="s">
         <v>35</v>
       </c>
@@ -4874,28 +4874,28 @@
         <v>614584.91299999994</v>
       </c>
       <c r="D84" s="88">
-        <v>1420131.85986616</v>
+        <v>1427903</v>
       </c>
       <c r="E84" s="88">
-        <v>499287.18655873497</v>
+        <v>489316</v>
       </c>
       <c r="F84" s="89">
-        <v>4.0243822590984504</v>
+        <v>4.4994448720468796</v>
       </c>
       <c r="G84" s="90">
-        <v>2444.0620699318301</v>
+        <v>2474.0302732933501</v>
       </c>
       <c r="H84" s="91">
-        <v>13.8820638820642</v>
+        <v>13.891755577109601</v>
       </c>
       <c r="I84" s="89">
         <v>65.396249999999995</v>
       </c>
       <c r="J84" s="89">
-        <v>40.142105263157902</v>
+        <v>39.835000000000001</v>
       </c>
       <c r="K84" s="89">
-        <v>38.226315789473702</v>
+        <v>40.145000000000003</v>
       </c>
       <c r="L84" s="92">
         <v>0.47447826086957001</v>
@@ -4904,7 +4904,7 @@
         <v>0.32350000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="69" t="s">
         <v>35</v>
       </c>
@@ -4915,19 +4915,19 @@
         <v>123020.05</v>
       </c>
       <c r="D85" s="72">
-        <v>67355.799388708299</v>
+        <v>67820</v>
       </c>
       <c r="E85" s="72">
-        <v>20644.845213516001</v>
+        <v>23548</v>
       </c>
       <c r="F85" s="73">
-        <v>1.4999999999999001</v>
+        <v>1.4998622236158199</v>
       </c>
       <c r="G85" s="74">
-        <v>2021.34177234258</v>
+        <v>2035.2829999999999</v>
       </c>
       <c r="H85" s="75">
-        <v>29.072008378331802</v>
+        <v>29.510993694342801</v>
       </c>
       <c r="I85" s="73">
         <v>52.508000000000003</v>
@@ -4945,7 +4945,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="69" t="s">
         <v>35</v>
       </c>
@@ -4956,28 +4956,28 @@
         <v>732895.86</v>
       </c>
       <c r="D86" s="72">
-        <v>5605758.4106236398</v>
+        <v>5610812</v>
       </c>
       <c r="E86" s="72">
-        <v>1949087.6051634799</v>
+        <v>1940825</v>
       </c>
       <c r="F86" s="73">
-        <v>4.3819531135838998</v>
+        <v>4.4464224528924401</v>
       </c>
       <c r="G86" s="74">
-        <v>7887.9463951380803</v>
+        <v>7911.0327353457496</v>
       </c>
       <c r="H86" s="75">
-        <v>8.5002678497322108</v>
+        <v>8.4999275677241801</v>
       </c>
       <c r="I86" s="73">
         <v>57.322181818181797</v>
       </c>
       <c r="J86" s="73">
-        <v>41.375</v>
+        <v>41.284999999999997</v>
       </c>
       <c r="K86" s="73">
-        <v>20.175000000000001</v>
+        <v>20.52</v>
       </c>
       <c r="L86" s="76">
         <v>0.59531818181817997</v>
@@ -4986,7 +4986,7 @@
         <v>0.42131578947367998</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="69" t="s">
         <v>35</v>
       </c>
@@ -4997,28 +4997,28 @@
         <v>2693951.3429999999</v>
       </c>
       <c r="D87" s="72">
-        <v>25045726.9521905</v>
+        <v>25207336</v>
       </c>
       <c r="E87" s="72">
-        <v>7376003.3280542502</v>
+        <v>7416299</v>
       </c>
       <c r="F87" s="73">
-        <v>5.3641190302633701</v>
+        <v>5.6500272466089001</v>
       </c>
       <c r="G87" s="74">
-        <v>9382.8269911838506</v>
+        <v>9434.6682484724206</v>
       </c>
       <c r="H87" s="75">
-        <v>6.6725219405401299</v>
+        <v>6.6611842105263097</v>
       </c>
       <c r="I87" s="73">
         <v>59.125481481481501</v>
       </c>
       <c r="J87" s="73">
-        <v>35.908333333333303</v>
+        <v>35.441666666666698</v>
       </c>
       <c r="K87" s="73">
-        <v>5.4249999999999998</v>
+        <v>5.2916666666666696</v>
       </c>
       <c r="L87" s="76">
         <v>0.65893548387097001</v>
@@ -5027,7 +5027,7 @@
         <v>0.52495833333332997</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="69" t="s">
         <v>35</v>
       </c>
@@ -5038,19 +5038,19 @@
         <v>77266.903000000006</v>
       </c>
       <c r="D88" s="72">
-        <v>1268588.2240762501</v>
+        <v>1275671</v>
       </c>
       <c r="E88" s="72">
-        <v>532446.96840509702</v>
+        <v>521638</v>
       </c>
       <c r="F88" s="73">
-        <v>0.81623062422228998</v>
+        <v>1.0695777346001101</v>
       </c>
       <c r="G88" s="74">
-        <v>16385.4689946504</v>
+        <v>16482.363395695698</v>
       </c>
       <c r="H88" s="75">
-        <v>6.8688594617687899</v>
+        <v>6.8688359885997796</v>
       </c>
       <c r="I88" s="73">
         <v>55.6181428571429</v>
@@ -5068,7 +5068,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="69" t="s">
         <v>35</v>
       </c>
@@ -5079,28 +5079,28 @@
         <v>2446950.415</v>
       </c>
       <c r="D89" s="72">
-        <v>53965527.465994999</v>
+        <v>54061395</v>
       </c>
       <c r="E89" s="72">
-        <v>28256239.878986601</v>
+        <v>28070576</v>
       </c>
       <c r="F89" s="73">
-        <v>3.0340622859026398</v>
+        <v>3.0618999543079202</v>
       </c>
       <c r="G89" s="74">
-        <v>22319.675335828699</v>
+        <v>22462.2808099057</v>
       </c>
       <c r="H89" s="75">
-        <v>1.87569202293811</v>
+        <v>1.8782308506757599</v>
       </c>
       <c r="I89" s="73">
         <v>59.518205128205203</v>
       </c>
       <c r="J89" s="73">
-        <v>38.133333333333297</v>
+        <v>38.11</v>
       </c>
       <c r="K89" s="73">
-        <v>1.94</v>
+        <v>1.9366666666666701</v>
       </c>
       <c r="L89" s="76">
         <v>0.76613636363635995</v>
@@ -5109,7 +5109,7 @@
         <v>0.64317142857142995</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="69" t="s">
         <v>35</v>
       </c>
@@ -5120,25 +5120,25 @@
         <v>1210898.679</v>
       </c>
       <c r="D90" s="80">
-        <v>73507442.376978502</v>
+        <v>73630901</v>
       </c>
       <c r="E90" s="80">
-        <v>60177073.566705503</v>
+        <v>60290039</v>
       </c>
       <c r="F90" s="81">
-        <v>3.0844536650847099</v>
+        <v>3.0846656038224198</v>
       </c>
       <c r="G90" s="82">
-        <v>61018.824725553102</v>
+        <v>61216.938095156504</v>
       </c>
       <c r="H90" s="83">
-        <v>7.9864819690388398</v>
+        <v>7.9868325392754098</v>
       </c>
       <c r="I90" s="81">
         <v>63.3095490196079</v>
       </c>
       <c r="J90" s="81">
-        <v>32.0439024390244</v>
+        <v>32.026829268292701</v>
       </c>
       <c r="K90" s="81">
         <v>0.33170731707317003</v>
@@ -5150,7 +5150,7 @@
         <v>0.81309090909090997</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="69" t="s">
         <v>35</v>
       </c>
@@ -5161,28 +5161,28 @@
         <v>755567.929</v>
       </c>
       <c r="D91" s="88">
-        <v>2050882.6491344899</v>
+        <v>2059678</v>
       </c>
       <c r="E91" s="88">
-        <v>760873.52429233596</v>
+        <v>752158</v>
       </c>
       <c r="F91" s="89">
-        <v>4.0249691959295903</v>
+        <v>4.3849351948124697</v>
       </c>
       <c r="G91" s="90">
-        <v>2842.1370501770898</v>
+        <v>2870.1208572627102</v>
       </c>
       <c r="H91" s="91">
-        <v>10.9932039209135</v>
+        <v>10.9931581819695</v>
       </c>
       <c r="I91" s="89">
         <v>62.9495151515152</v>
       </c>
       <c r="J91" s="89">
-        <v>40.553571428571402</v>
+        <v>40.3379310344828</v>
       </c>
       <c r="K91" s="89">
-        <v>32.9892857142857</v>
+        <v>34.496551724137902</v>
       </c>
       <c r="L91" s="92">
         <v>0.4955</v>
@@ -5191,7 +5191,7 @@
         <v>0.33926666666666999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="69" t="s">
         <v>35</v>
       </c>
@@ -5202,28 +5202,28 @@
         <v>369611.52299999999</v>
       </c>
       <c r="D92" s="72">
-        <v>2028266.7819099801</v>
+        <v>2034792</v>
       </c>
       <c r="E92" s="72">
-        <v>650317.32857838704</v>
+        <v>664821</v>
       </c>
       <c r="F92" s="73">
-        <v>5.7040676362039298</v>
+        <v>5.7023075779274697</v>
       </c>
       <c r="G92" s="74">
-        <v>6262.14679641161</v>
+        <v>6282.9265012324404</v>
       </c>
       <c r="H92" s="75">
-        <v>6.1496770018373104</v>
+        <v>6.1497958068398999</v>
       </c>
       <c r="I92" s="73">
         <v>61.083111111111101</v>
       </c>
       <c r="J92" s="73">
-        <v>33.214285714285701</v>
+        <v>31.8571428571429</v>
       </c>
       <c r="K92" s="73">
-        <v>9.9142857142857199</v>
+        <v>9.2285714285714295</v>
       </c>
       <c r="L92" s="76">
         <v>0.58099999999999996</v>
@@ -5232,7 +5232,7 @@
         <v>0.43466666666666998</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="69" t="s">
         <v>35</v>
       </c>
@@ -5243,19 +5243,19 @@
         <v>5169.4570000000003</v>
       </c>
       <c r="D93" s="72">
-        <v>52450.717685778996</v>
+        <v>52774</v>
       </c>
       <c r="E93" s="72">
-        <v>20411.5008802306</v>
+        <v>20686</v>
       </c>
       <c r="F93" s="73">
-        <v>7.5418146195629703</v>
+        <v>8.54738769589102</v>
       </c>
       <c r="G93" s="74">
-        <v>10481.4029091826</v>
+        <v>10552.2095908829</v>
       </c>
       <c r="H93" s="75">
-        <v>10.784671104117599</v>
+        <v>10.785031688771999</v>
       </c>
       <c r="I93" s="73">
         <v>53.703600000000002</v>
@@ -5273,7 +5273,7 @@
         <v>0.49740000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="69" t="s">
         <v>35</v>
       </c>
@@ -5284,19 +5284,19 @@
         <v>62153.894999999997</v>
       </c>
       <c r="D94" s="72">
-        <v>1250498.23917993</v>
+        <v>1252747</v>
       </c>
       <c r="E94" s="72">
-        <v>742742.73698393698</v>
+        <v>748686</v>
       </c>
       <c r="F94" s="73">
-        <v>5.6846660690341597</v>
+        <v>5.8024732983274099</v>
       </c>
       <c r="G94" s="74">
-        <v>25923.3447077214</v>
+        <v>25764.929494400702</v>
       </c>
       <c r="H94" s="75">
-        <v>6.1210600403941502</v>
+        <v>6.1212898677033696</v>
       </c>
       <c r="I94" s="73">
         <v>62.391428571428598</v>
@@ -5314,7 +5314,7 @@
         <v>0.55376923076923001</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="69" t="s">
         <v>35</v>
       </c>
@@ -5325,28 +5325,28 @@
         <v>365868.05599999998</v>
       </c>
       <c r="D95" s="72">
-        <v>956112.10658949404</v>
+        <v>959976</v>
       </c>
       <c r="E95" s="72">
-        <v>362037.63630578603</v>
+        <v>363908</v>
       </c>
       <c r="F95" s="73">
-        <v>5.0867997918863797</v>
+        <v>5.5586521614622804</v>
       </c>
       <c r="G95" s="74">
-        <v>2824.7158520913099</v>
+        <v>2836.7865296496302</v>
       </c>
       <c r="H95" s="75">
-        <v>14.069999999999901</v>
+        <v>14.069892075694799</v>
       </c>
       <c r="I95" s="73">
         <v>66.667937499999994</v>
       </c>
       <c r="J95" s="73">
-        <v>44.066666666666698</v>
+        <v>43.65</v>
       </c>
       <c r="K95" s="73">
-        <v>42.373333333333299</v>
+        <v>43.881250000000001</v>
       </c>
       <c r="L95" s="76">
         <v>0.50149999999999995</v>
@@ -5355,7 +5355,7 @@
         <v>0.33886666666666998</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="69" t="s">
         <v>35</v>
       </c>
@@ -5366,28 +5366,28 @@
         <v>197936.46799999999</v>
       </c>
       <c r="D96" s="80">
-        <v>1963349.33452417</v>
+        <v>1965864</v>
       </c>
       <c r="E96" s="80">
-        <v>682649.31383138394</v>
+        <v>693710</v>
       </c>
       <c r="F96" s="81">
-        <v>3.9574856219347501</v>
+        <v>3.97782388277981</v>
       </c>
       <c r="G96" s="82">
-        <v>12470.034362062799</v>
+        <v>12491.5748545325</v>
       </c>
       <c r="H96" s="83">
-        <v>13.804048920275299</v>
+        <v>13.858714944976899</v>
       </c>
       <c r="I96" s="81">
         <v>57.250533333333301</v>
       </c>
       <c r="J96" s="81">
-        <v>33.690909090909102</v>
+        <v>33.0818181818182</v>
       </c>
       <c r="K96" s="81">
-        <v>2</v>
+        <v>1.97272727272727</v>
       </c>
       <c r="L96" s="84">
         <v>0.70274999999999999</v>
@@ -5396,7 +5396,7 @@
         <v>0.60157142857142998</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="69" t="s">
         <v>35</v>
       </c>
@@ -5407,28 +5407,28 @@
         <v>842549.25199999998</v>
       </c>
       <c r="D97" s="88">
-        <v>3576593.0168705201</v>
+        <v>3585388</v>
       </c>
       <c r="E97" s="88">
-        <v>1347361.3473996599</v>
+        <v>1340754</v>
       </c>
       <c r="F97" s="89">
-        <v>3.6103000928228699</v>
+        <v>3.8465390594754898</v>
       </c>
       <c r="G97" s="90">
-        <v>4392.0388032063001</v>
+        <v>4405.1652638450696</v>
       </c>
       <c r="H97" s="91">
-        <v>18.846844823714299</v>
+        <v>18.846828545294802</v>
       </c>
       <c r="I97" s="89">
         <v>63.459178571428602</v>
       </c>
       <c r="J97" s="89">
-        <v>41.719230769230798</v>
+        <v>41.296153846153899</v>
       </c>
       <c r="K97" s="89">
-        <v>29.669230769230801</v>
+        <v>30.3576923076923</v>
       </c>
       <c r="L97" s="92">
         <v>0.52607142857142997</v>
@@ -5437,7 +5437,7 @@
         <v>0.35523076923077002</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="69" t="s">
         <v>35</v>
       </c>
@@ -5448,28 +5448,28 @@
         <v>692226.44200000004</v>
       </c>
       <c r="D98" s="80">
-        <v>5590629.0987125896</v>
+        <v>5619562</v>
       </c>
       <c r="E98" s="80">
-        <v>1649113.1550898999</v>
+        <v>1651691</v>
       </c>
       <c r="F98" s="81">
-        <v>4.8789750798261302</v>
+        <v>5.1762905949588296</v>
       </c>
       <c r="G98" s="82">
-        <v>8621.4504622752502</v>
+        <v>8652.0477099055406</v>
       </c>
       <c r="H98" s="83">
-        <v>12.1478738272284</v>
+        <v>12.148124035835099</v>
       </c>
       <c r="I98" s="81">
         <v>59.288333333333298</v>
       </c>
       <c r="J98" s="81">
-        <v>37.78</v>
+        <v>37.72</v>
       </c>
       <c r="K98" s="81">
-        <v>8.51</v>
+        <v>8.11</v>
       </c>
       <c r="L98" s="84">
         <v>0.63606666666667</v>
@@ -5478,7 +5478,7 @@
         <v>0.50253846153846005</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="94"/>
       <c r="B99" s="95"/>
       <c r="C99" s="55"/>
@@ -5493,7 +5493,7 @@
       <c r="L99" s="55"/>
       <c r="M99" s="55"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="L100" s="96"/>
       <c r="M100" s="96"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="L101" s="96"/>
       <c r="M101" s="96"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="L102" s="96"/>
       <c r="M102" s="96"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="L103" s="96"/>
       <c r="M103" s="96"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="L104" s="96"/>
       <c r="M104" s="96"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>171</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="L105" s="96"/>
       <c r="M105" s="96"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C106" s="96"/>
       <c r="D106" s="96"/>
       <c r="E106" s="96"/>
@@ -5602,7 +5602,7 @@
       <c r="L106" s="96"/>
       <c r="M106" s="96"/>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="97" t="s">
         <v>172</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="L107" s="96"/>
       <c r="M107" s="96"/>
     </row>
-    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="97"/>
       <c r="C108" s="96"/>
       <c r="D108" s="96"/>
@@ -5632,7 +5632,7 @@
       <c r="L108" s="96"/>
       <c r="M108" s="96"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>175</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="L109" s="96"/>
       <c r="M109" s="96"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>176</v>
       </c>
@@ -5664,7 +5664,7 @@
       <c r="L110" s="96"/>
       <c r="M110" s="96"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>177</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="L111" s="96"/>
       <c r="M111" s="96"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
@@ -5696,7 +5696,7 @@
       <c r="L112" s="96"/>
       <c r="M112" s="96"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>174</v>
       </c>
@@ -5712,7 +5712,7 @@
       <c r="L113" s="96"/>
       <c r="M113" s="96"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="96"/>
       <c r="D114" s="96"/>
@@ -5728,12 +5728,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{82819E02-8093-4EA1-B9E0-D5ADD723BA8A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{18710B32-7543-4C57-994A-A39EA40FB54B}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{8A48AF2A-EEC1-433D-803F-7284E03A5E17}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{BF0055A4-2FAA-4D0C-AB25-F8EFB108E34D}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{7271DB3C-3FF6-444C-8B6F-9E10F907B642}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{CE30B26A-D7DF-4958-9BA0-525930C210C8}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8CBFBA0F-AD7C-4D67-8A55-1E655730EFB5}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{89F9AC14-4B17-45D7-9241-B63D437E2E7C}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{E7DEEE05-475D-473E-B3D4-132AFBBA33F6}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{0C10A320-ABD9-4FDB-96A2-981A6C296359}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{AD029971-9613-45E4-BD10-7E75E4F989A7}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5C538CEF-2243-430B-BCF7-ACA0E49A7132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId7"/>
